--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Find the maximum and minimum element in an array</t>
@@ -1416,12 +1419,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,10 +1481,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1493,9 +1512,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,119 +1624,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1638,31 +1634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,7 +1658,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,31 +1766,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,97 +1814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,6 +1825,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1852,45 +1863,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1929,151 +1901,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2457,8 +2453,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2503,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:3">
@@ -2511,10 +2507,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:3">
@@ -2522,10 +2518,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:3">
@@ -2533,10 +2529,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:3">
@@ -2544,10 +2540,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:3">
@@ -2555,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:3">
@@ -2566,7 +2562,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -2577,7 +2573,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>5</v>
@@ -2588,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>5</v>
@@ -2599,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>5</v>
@@ -2610,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>5</v>
@@ -2621,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>5</v>
@@ -2632,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>5</v>
@@ -2643,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>5</v>
@@ -2654,7 +2650,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>5</v>
@@ -2665,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>5</v>
@@ -2676,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>5</v>
@@ -2687,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
@@ -2698,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>5</v>
@@ -2709,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
@@ -2720,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>5</v>
@@ -2731,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>5</v>
@@ -2742,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>5</v>
@@ -2753,7 +2749,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>5</v>
@@ -2764,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -2775,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>5</v>
@@ -2786,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>5</v>
@@ -2797,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>5</v>
@@ -2808,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>5</v>
@@ -2819,7 +2815,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>5</v>
@@ -2830,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>5</v>
@@ -2841,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>5</v>
@@ -2852,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>5</v>
@@ -2863,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>5</v>
@@ -2874,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>5</v>
@@ -2885,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>5</v>
@@ -2906,10 +2902,10 @@
     </row>
     <row r="44" ht="17.25" customHeight="1" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>5</v>
@@ -2917,10 +2913,10 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
@@ -2928,10 +2924,10 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>5</v>
@@ -2939,10 +2935,10 @@
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5</v>
@@ -2950,10 +2946,10 @@
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5</v>
@@ -2961,10 +2957,10 @@
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>5</v>
@@ -2972,10 +2968,10 @@
     </row>
     <row r="50" ht="17.25" customHeight="1" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>5</v>
@@ -2983,10 +2979,10 @@
     </row>
     <row r="51" ht="17.25" customHeight="1" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -2994,10 +2990,10 @@
     </row>
     <row r="52" ht="17.25" customHeight="1" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5</v>
@@ -3005,10 +3001,10 @@
     </row>
     <row r="53" ht="17.25" customHeight="1" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>5</v>
@@ -3022,10 +3018,10 @@
     </row>
     <row r="56" ht="17.25" customHeight="1" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>5</v>
@@ -3033,10 +3029,10 @@
     </row>
     <row r="57" ht="17.25" customHeight="1" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>5</v>
@@ -3044,10 +3040,10 @@
     </row>
     <row r="58" ht="17.25" customHeight="1" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>5</v>
@@ -3055,10 +3051,10 @@
     </row>
     <row r="59" ht="17.25" customHeight="1" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
@@ -3066,10 +3062,10 @@
     </row>
     <row r="60" ht="17.25" customHeight="1" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>5</v>
@@ -3077,10 +3073,10 @@
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>5</v>
@@ -3088,10 +3084,10 @@
     </row>
     <row r="62" ht="17.25" customHeight="1" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>5</v>
@@ -3099,10 +3095,10 @@
     </row>
     <row r="63" ht="17.25" customHeight="1" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>5</v>
@@ -3110,10 +3106,10 @@
     </row>
     <row r="64" ht="17.25" customHeight="1" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -3121,10 +3117,10 @@
     </row>
     <row r="65" ht="17.25" customHeight="1" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>5</v>
@@ -3132,10 +3128,10 @@
     </row>
     <row r="66" ht="17.25" customHeight="1" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>5</v>
@@ -3143,10 +3139,10 @@
     </row>
     <row r="67" ht="17.25" customHeight="1" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>5</v>
@@ -3154,10 +3150,10 @@
     </row>
     <row r="68" ht="17.25" customHeight="1" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>5</v>
@@ -3165,10 +3161,10 @@
     </row>
     <row r="69" ht="17.25" customHeight="1" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>5</v>
@@ -3176,10 +3172,10 @@
     </row>
     <row r="70" ht="17.25" customHeight="1" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>5</v>
@@ -3187,10 +3183,10 @@
     </row>
     <row r="71" ht="17.25" customHeight="1" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>5</v>
@@ -3198,10 +3194,10 @@
     </row>
     <row r="72" ht="17.25" customHeight="1" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>5</v>
@@ -3209,10 +3205,10 @@
     </row>
     <row r="73" ht="17.25" customHeight="1" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>5</v>
@@ -3220,10 +3216,10 @@
     </row>
     <row r="74" ht="17.25" customHeight="1" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>5</v>
@@ -3231,10 +3227,10 @@
     </row>
     <row r="75" ht="17.25" customHeight="1" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>5</v>
@@ -3242,10 +3238,10 @@
     </row>
     <row r="76" ht="17.25" customHeight="1" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>5</v>
@@ -3253,10 +3249,10 @@
     </row>
     <row r="77" ht="17.25" customHeight="1" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>5</v>
@@ -3264,10 +3260,10 @@
     </row>
     <row r="78" ht="17.25" customHeight="1" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>5</v>
@@ -3275,10 +3271,10 @@
     </row>
     <row r="79" ht="17.25" customHeight="1" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>5</v>
@@ -3286,10 +3282,10 @@
     </row>
     <row r="80" ht="17.25" customHeight="1" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5</v>
@@ -3297,10 +3293,10 @@
     </row>
     <row r="81" ht="17.25" customHeight="1" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>5</v>
@@ -3308,10 +3304,10 @@
     </row>
     <row r="82" ht="17.25" customHeight="1" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>5</v>
@@ -3319,10 +3315,10 @@
     </row>
     <row r="83" ht="17.25" customHeight="1" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>5</v>
@@ -3330,10 +3326,10 @@
     </row>
     <row r="84" ht="17.25" customHeight="1" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>5</v>
@@ -3341,10 +3337,10 @@
     </row>
     <row r="85" ht="17.25" customHeight="1" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>5</v>
@@ -3352,10 +3348,10 @@
     </row>
     <row r="86" ht="17.25" customHeight="1" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>5</v>
@@ -3363,10 +3359,10 @@
     </row>
     <row r="87" ht="17.25" customHeight="1" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>5</v>
@@ -3374,10 +3370,10 @@
     </row>
     <row r="88" ht="17.25" customHeight="1" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>5</v>
@@ -3385,10 +3381,10 @@
     </row>
     <row r="89" ht="17.25" customHeight="1" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>5</v>
@@ -3396,10 +3392,10 @@
     </row>
     <row r="90" ht="17.25" customHeight="1" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>5</v>
@@ -3407,10 +3403,10 @@
     </row>
     <row r="91" ht="17.25" customHeight="1" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>5</v>
@@ -3418,10 +3414,10 @@
     </row>
     <row r="92" ht="17.25" customHeight="1" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>5</v>
@@ -3429,10 +3425,10 @@
     </row>
     <row r="93" ht="17.25" customHeight="1" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>5</v>
@@ -3440,10 +3436,10 @@
     </row>
     <row r="94" ht="17.25" customHeight="1" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>5</v>
@@ -3451,10 +3447,10 @@
     </row>
     <row r="95" ht="17.25" customHeight="1" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>5</v>
@@ -3462,10 +3458,10 @@
     </row>
     <row r="96" ht="17.25" customHeight="1" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>5</v>
@@ -3473,10 +3469,10 @@
     </row>
     <row r="97" ht="17.25" customHeight="1" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>5</v>
@@ -3484,10 +3480,10 @@
     </row>
     <row r="98" ht="17.25" customHeight="1" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>5</v>
@@ -3501,10 +3497,10 @@
     </row>
     <row r="101" ht="17.25" customHeight="1" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>5</v>
@@ -3512,10 +3508,10 @@
     </row>
     <row r="102" ht="17.25" customHeight="1" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>5</v>
@@ -3523,10 +3519,10 @@
     </row>
     <row r="103" ht="17.25" customHeight="1" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>5</v>
@@ -3534,10 +3530,10 @@
     </row>
     <row r="104" ht="17.25" customHeight="1" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>5</v>
@@ -3545,10 +3541,10 @@
     </row>
     <row r="105" ht="17.25" customHeight="1" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>5</v>
@@ -3556,10 +3552,10 @@
     </row>
     <row r="106" ht="17.25" customHeight="1" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>5</v>
@@ -3567,10 +3563,10 @@
     </row>
     <row r="107" ht="17.25" customHeight="1" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>5</v>
@@ -3578,10 +3574,10 @@
     </row>
     <row r="108" ht="17.25" customHeight="1" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>5</v>
@@ -3589,10 +3585,10 @@
     </row>
     <row r="109" ht="17.25" customHeight="1" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>5</v>
@@ -3600,10 +3596,10 @@
     </row>
     <row r="110" ht="17.25" customHeight="1" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>5</v>
@@ -3611,10 +3607,10 @@
     </row>
     <row r="111" ht="17.25" customHeight="1" spans="1:3">
       <c r="A111" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>5</v>
@@ -3622,10 +3618,10 @@
     </row>
     <row r="112" ht="17.25" customHeight="1" spans="1:3">
       <c r="A112" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>5</v>
@@ -3633,10 +3629,10 @@
     </row>
     <row r="113" ht="17.25" customHeight="1" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>5</v>
@@ -3644,10 +3640,10 @@
     </row>
     <row r="114" ht="17.25" customHeight="1" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>5</v>
@@ -3655,10 +3651,10 @@
     </row>
     <row r="115" ht="17.25" customHeight="1" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>5</v>
@@ -3666,10 +3662,10 @@
     </row>
     <row r="116" ht="17.25" customHeight="1" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>5</v>
@@ -3677,10 +3673,10 @@
     </row>
     <row r="117" ht="17.25" customHeight="1" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>5</v>
@@ -3688,10 +3684,10 @@
     </row>
     <row r="118" ht="17.25" customHeight="1" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>5</v>
@@ -3699,10 +3695,10 @@
     </row>
     <row r="119" ht="17.25" customHeight="1" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>5</v>
@@ -3710,10 +3706,10 @@
     </row>
     <row r="120" ht="17.25" customHeight="1" spans="1:3">
       <c r="A120" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>5</v>
@@ -3721,10 +3717,10 @@
     </row>
     <row r="121" ht="17.25" customHeight="1" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>5</v>
@@ -3732,10 +3728,10 @@
     </row>
     <row r="122" ht="17.25" customHeight="1" spans="1:3">
       <c r="A122" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>5</v>
@@ -3743,10 +3739,10 @@
     </row>
     <row r="123" ht="17.25" customHeight="1" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>5</v>
@@ -3754,10 +3750,10 @@
     </row>
     <row r="124" ht="17.25" customHeight="1" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>5</v>
@@ -3765,10 +3761,10 @@
     </row>
     <row r="125" ht="17.25" customHeight="1" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>5</v>
@@ -3776,10 +3772,10 @@
     </row>
     <row r="126" ht="17.25" customHeight="1" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>5</v>
@@ -3787,10 +3783,10 @@
     </row>
     <row r="127" ht="17.25" customHeight="1" spans="1:3">
       <c r="A127" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>5</v>
@@ -3798,10 +3794,10 @@
     </row>
     <row r="128" ht="17.25" customHeight="1" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>5</v>
@@ -3809,10 +3805,10 @@
     </row>
     <row r="129" ht="17.25" customHeight="1" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>5</v>
@@ -3820,10 +3816,10 @@
     </row>
     <row r="130" ht="17.25" customHeight="1" spans="1:3">
       <c r="A130" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>5</v>
@@ -3831,10 +3827,10 @@
     </row>
     <row r="131" ht="17.25" customHeight="1" spans="1:3">
       <c r="A131" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>5</v>
@@ -3842,10 +3838,10 @@
     </row>
     <row r="132" ht="17.25" customHeight="1" spans="1:3">
       <c r="A132" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>5</v>
@@ -3853,10 +3849,10 @@
     </row>
     <row r="133" ht="17.25" customHeight="1" spans="1:3">
       <c r="A133" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>5</v>
@@ -3864,10 +3860,10 @@
     </row>
     <row r="134" ht="17.25" customHeight="1" spans="1:3">
       <c r="A134" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>5</v>
@@ -3875,10 +3871,10 @@
     </row>
     <row r="135" ht="17.25" customHeight="1" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>5</v>
@@ -3886,10 +3882,10 @@
     </row>
     <row r="136" ht="17.25" customHeight="1" spans="1:3">
       <c r="A136" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>5</v>
@@ -3902,10 +3898,10 @@
     </row>
     <row r="139" ht="17.25" customHeight="1" spans="1:3">
       <c r="A139" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>5</v>
@@ -3913,10 +3909,10 @@
     </row>
     <row r="140" ht="17.25" customHeight="1" spans="1:3">
       <c r="A140" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>5</v>
@@ -3924,10 +3920,10 @@
     </row>
     <row r="141" ht="17.25" customHeight="1" spans="1:3">
       <c r="A141" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>5</v>
@@ -3935,10 +3931,10 @@
     </row>
     <row r="142" ht="17.25" customHeight="1" spans="1:3">
       <c r="A142" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>5</v>
@@ -3946,10 +3942,10 @@
     </row>
     <row r="143" ht="17.25" customHeight="1" spans="1:3">
       <c r="A143" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>5</v>
@@ -3957,10 +3953,10 @@
     </row>
     <row r="144" ht="17.25" customHeight="1" spans="1:3">
       <c r="A144" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>5</v>
@@ -3968,10 +3964,10 @@
     </row>
     <row r="145" ht="17.25" customHeight="1" spans="1:3">
       <c r="A145" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>5</v>
@@ -3979,10 +3975,10 @@
     </row>
     <row r="146" ht="17.25" customHeight="1" spans="1:3">
       <c r="A146" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>5</v>
@@ -3990,10 +3986,10 @@
     </row>
     <row r="147" ht="17.25" customHeight="1" spans="1:3">
       <c r="A147" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>5</v>
@@ -4001,10 +3997,10 @@
     </row>
     <row r="148" ht="17.25" customHeight="1" spans="1:3">
       <c r="A148" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>5</v>
@@ -4012,10 +4008,10 @@
     </row>
     <row r="149" ht="17.25" customHeight="1" spans="1:3">
       <c r="A149" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>5</v>
@@ -4023,10 +4019,10 @@
     </row>
     <row r="150" ht="17.25" customHeight="1" spans="1:3">
       <c r="A150" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>5</v>
@@ -4034,10 +4030,10 @@
     </row>
     <row r="151" ht="17.25" customHeight="1" spans="1:3">
       <c r="A151" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>5</v>
@@ -4045,10 +4041,10 @@
     </row>
     <row r="152" ht="17.25" customHeight="1" spans="1:3">
       <c r="A152" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>5</v>
@@ -4056,10 +4052,10 @@
     </row>
     <row r="153" ht="17.25" customHeight="1" spans="1:3">
       <c r="A153" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>5</v>
@@ -4067,10 +4063,10 @@
     </row>
     <row r="154" ht="17.25" customHeight="1" spans="1:3">
       <c r="A154" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>5</v>
@@ -4078,10 +4074,10 @@
     </row>
     <row r="155" ht="17.25" customHeight="1" spans="1:3">
       <c r="A155" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>5</v>
@@ -4089,10 +4085,10 @@
     </row>
     <row r="156" ht="17.25" customHeight="1" spans="1:3">
       <c r="A156" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>5</v>
@@ -4100,10 +4096,10 @@
     </row>
     <row r="157" ht="17.25" customHeight="1" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>5</v>
@@ -4111,10 +4107,10 @@
     </row>
     <row r="158" ht="17.25" customHeight="1" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>5</v>
@@ -4122,10 +4118,10 @@
     </row>
     <row r="159" ht="17.25" customHeight="1" spans="1:3">
       <c r="A159" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>5</v>
@@ -4133,10 +4129,10 @@
     </row>
     <row r="160" ht="17.25" customHeight="1" spans="1:3">
       <c r="A160" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>5</v>
@@ -4144,10 +4140,10 @@
     </row>
     <row r="161" ht="17.25" customHeight="1" spans="1:3">
       <c r="A161" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>5</v>
@@ -4155,10 +4151,10 @@
     </row>
     <row r="162" ht="17.25" customHeight="1" spans="1:3">
       <c r="A162" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>5</v>
@@ -4166,10 +4162,10 @@
     </row>
     <row r="163" ht="17.25" customHeight="1" spans="1:3">
       <c r="A163" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>5</v>
@@ -4177,10 +4173,10 @@
     </row>
     <row r="164" ht="17.25" customHeight="1" spans="1:3">
       <c r="A164" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>5</v>
@@ -4188,10 +4184,10 @@
     </row>
     <row r="165" ht="17.25" customHeight="1" spans="1:3">
       <c r="A165" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>5</v>
@@ -4199,10 +4195,10 @@
     </row>
     <row r="166" ht="17.25" customHeight="1" spans="1:3">
       <c r="A166" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>5</v>
@@ -4210,10 +4206,10 @@
     </row>
     <row r="167" ht="17.25" customHeight="1" spans="1:3">
       <c r="A167" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>5</v>
@@ -4221,10 +4217,10 @@
     </row>
     <row r="168" ht="17.25" customHeight="1" spans="1:3">
       <c r="A168" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>5</v>
@@ -4232,10 +4228,10 @@
     </row>
     <row r="169" ht="17.25" customHeight="1" spans="1:3">
       <c r="A169" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>5</v>
@@ -4243,10 +4239,10 @@
     </row>
     <row r="170" ht="17.25" customHeight="1" spans="1:3">
       <c r="A170" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>5</v>
@@ -4254,10 +4250,10 @@
     </row>
     <row r="171" ht="17.25" customHeight="1" spans="1:3">
       <c r="A171" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>5</v>
@@ -4265,10 +4261,10 @@
     </row>
     <row r="172" ht="17.25" customHeight="1" spans="1:3">
       <c r="A172" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>5</v>
@@ -4276,10 +4272,10 @@
     </row>
     <row r="173" ht="17.25" customHeight="1" spans="1:3">
       <c r="A173" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>5</v>
@@ -4287,10 +4283,10 @@
     </row>
     <row r="174" ht="17.25" customHeight="1" spans="1:3">
       <c r="A174" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>5</v>
@@ -4303,10 +4299,10 @@
     </row>
     <row r="177" ht="17.25" customHeight="1" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>5</v>
@@ -4314,10 +4310,10 @@
     </row>
     <row r="178" ht="17.25" customHeight="1" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>5</v>
@@ -4325,10 +4321,10 @@
     </row>
     <row r="179" ht="17.25" customHeight="1" spans="1:3">
       <c r="A179" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>5</v>
@@ -4336,10 +4332,10 @@
     </row>
     <row r="180" ht="17.25" customHeight="1" spans="1:3">
       <c r="A180" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>5</v>
@@ -4347,10 +4343,10 @@
     </row>
     <row r="181" ht="17.25" customHeight="1" spans="1:3">
       <c r="A181" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>5</v>
@@ -4358,10 +4354,10 @@
     </row>
     <row r="182" ht="17.25" customHeight="1" spans="1:3">
       <c r="A182" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>5</v>
@@ -4369,10 +4365,10 @@
     </row>
     <row r="183" ht="17.25" customHeight="1" spans="1:3">
       <c r="A183" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>5</v>
@@ -4380,10 +4376,10 @@
     </row>
     <row r="184" ht="17.25" customHeight="1" spans="1:3">
       <c r="A184" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>5</v>
@@ -4391,10 +4387,10 @@
     </row>
     <row r="185" ht="17.25" customHeight="1" spans="1:3">
       <c r="A185" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>5</v>
@@ -4402,10 +4398,10 @@
     </row>
     <row r="186" ht="17.25" customHeight="1" spans="1:3">
       <c r="A186" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>5</v>
@@ -4413,10 +4409,10 @@
     </row>
     <row r="187" ht="17.25" customHeight="1" spans="1:3">
       <c r="A187" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>5</v>
@@ -4424,10 +4420,10 @@
     </row>
     <row r="188" ht="17.25" customHeight="1" spans="1:3">
       <c r="A188" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>5</v>
@@ -4435,10 +4431,10 @@
     </row>
     <row r="189" ht="17.25" customHeight="1" spans="1:3">
       <c r="A189" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>5</v>
@@ -4446,10 +4442,10 @@
     </row>
     <row r="190" ht="17.25" customHeight="1" spans="1:3">
       <c r="A190" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>5</v>
@@ -4457,10 +4453,10 @@
     </row>
     <row r="191" ht="17.25" customHeight="1" spans="1:3">
       <c r="A191" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>5</v>
@@ -4468,10 +4464,10 @@
     </row>
     <row r="192" ht="17.25" customHeight="1" spans="1:3">
       <c r="A192" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>5</v>
@@ -4479,10 +4475,10 @@
     </row>
     <row r="193" ht="17.25" customHeight="1" spans="1:3">
       <c r="A193" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>5</v>
@@ -4490,10 +4486,10 @@
     </row>
     <row r="194" ht="17.25" customHeight="1" spans="1:3">
       <c r="A194" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>5</v>
@@ -4501,10 +4497,10 @@
     </row>
     <row r="195" ht="17.25" customHeight="1" spans="1:3">
       <c r="A195" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>5</v>
@@ -4512,10 +4508,10 @@
     </row>
     <row r="196" ht="17.25" customHeight="1" spans="1:3">
       <c r="A196" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>5</v>
@@ -4523,10 +4519,10 @@
     </row>
     <row r="197" ht="17.25" customHeight="1" spans="1:3">
       <c r="A197" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>5</v>
@@ -4534,10 +4530,10 @@
     </row>
     <row r="198" ht="17.25" customHeight="1" spans="1:3">
       <c r="A198" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>5</v>
@@ -4545,10 +4541,10 @@
     </row>
     <row r="199" ht="17.25" customHeight="1" spans="1:3">
       <c r="A199" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>5</v>
@@ -4556,10 +4552,10 @@
     </row>
     <row r="200" ht="17.25" customHeight="1" spans="1:3">
       <c r="A200" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>5</v>
@@ -4567,10 +4563,10 @@
     </row>
     <row r="201" ht="17.25" customHeight="1" spans="1:3">
       <c r="A201" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>5</v>
@@ -4578,10 +4574,10 @@
     </row>
     <row r="202" ht="17.25" customHeight="1" spans="1:3">
       <c r="A202" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>5</v>
@@ -4589,10 +4585,10 @@
     </row>
     <row r="203" ht="17.25" customHeight="1" spans="1:3">
       <c r="A203" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>5</v>
@@ -4600,10 +4596,10 @@
     </row>
     <row r="204" ht="17.25" customHeight="1" spans="1:3">
       <c r="A204" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>5</v>
@@ -4611,10 +4607,10 @@
     </row>
     <row r="205" ht="17.25" customHeight="1" spans="1:3">
       <c r="A205" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>5</v>
@@ -4622,10 +4618,10 @@
     </row>
     <row r="206" ht="17.25" customHeight="1" spans="1:3">
       <c r="A206" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>5</v>
@@ -4633,10 +4629,10 @@
     </row>
     <row r="207" ht="17.25" customHeight="1" spans="1:3">
       <c r="A207" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>5</v>
@@ -4644,10 +4640,10 @@
     </row>
     <row r="208" ht="17.25" customHeight="1" spans="1:3">
       <c r="A208" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>5</v>
@@ -4655,10 +4651,10 @@
     </row>
     <row r="209" ht="17.25" customHeight="1" spans="1:3">
       <c r="A209" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>5</v>
@@ -4666,10 +4662,10 @@
     </row>
     <row r="210" ht="17.25" customHeight="1" spans="1:3">
       <c r="A210" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>5</v>
@@ -4677,10 +4673,10 @@
     </row>
     <row r="211" ht="17.25" customHeight="1" spans="1:3">
       <c r="A211" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>5</v>
@@ -4698,10 +4694,10 @@
     </row>
     <row r="214" ht="17.25" customHeight="1" spans="1:3">
       <c r="A214" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>5</v>
@@ -4709,10 +4705,10 @@
     </row>
     <row r="215" ht="17.25" customHeight="1" spans="1:3">
       <c r="A215" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>5</v>
@@ -4720,10 +4716,10 @@
     </row>
     <row r="216" ht="17.25" customHeight="1" spans="1:3">
       <c r="A216" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>5</v>
@@ -4731,10 +4727,10 @@
     </row>
     <row r="217" ht="17.25" customHeight="1" spans="1:3">
       <c r="A217" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>5</v>
@@ -4742,10 +4738,10 @@
     </row>
     <row r="218" ht="17.25" customHeight="1" spans="1:3">
       <c r="A218" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>5</v>
@@ -4753,10 +4749,10 @@
     </row>
     <row r="219" ht="17.25" customHeight="1" spans="1:3">
       <c r="A219" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>5</v>
@@ -4764,10 +4760,10 @@
     </row>
     <row r="220" ht="17.25" customHeight="1" spans="1:3">
       <c r="A220" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>5</v>
@@ -4775,10 +4771,10 @@
     </row>
     <row r="221" ht="17.25" customHeight="1" spans="1:3">
       <c r="A221" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>5</v>
@@ -4786,10 +4782,10 @@
     </row>
     <row r="222" ht="17.25" customHeight="1" spans="1:3">
       <c r="A222" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>5</v>
@@ -4797,10 +4793,10 @@
     </row>
     <row r="223" ht="17.25" customHeight="1" spans="1:3">
       <c r="A223" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>5</v>
@@ -4808,10 +4804,10 @@
     </row>
     <row r="224" ht="17.25" customHeight="1" spans="1:3">
       <c r="A224" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>5</v>
@@ -4819,10 +4815,10 @@
     </row>
     <row r="225" ht="17.25" customHeight="1" spans="1:3">
       <c r="A225" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>5</v>
@@ -4830,10 +4826,10 @@
     </row>
     <row r="226" ht="17.25" customHeight="1" spans="1:3">
       <c r="A226" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>5</v>
@@ -4841,10 +4837,10 @@
     </row>
     <row r="227" ht="17.25" customHeight="1" spans="1:3">
       <c r="A227" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>5</v>
@@ -4852,10 +4848,10 @@
     </row>
     <row r="228" ht="17.25" customHeight="1" spans="1:3">
       <c r="A228" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>5</v>
@@ -4863,10 +4859,10 @@
     </row>
     <row r="229" ht="17.25" customHeight="1" spans="1:3">
       <c r="A229" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>5</v>
@@ -4874,10 +4870,10 @@
     </row>
     <row r="230" ht="17.25" customHeight="1" spans="1:3">
       <c r="A230" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>5</v>
@@ -4885,10 +4881,10 @@
     </row>
     <row r="231" ht="17.25" customHeight="1" spans="1:3">
       <c r="A231" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>5</v>
@@ -4896,10 +4892,10 @@
     </row>
     <row r="232" ht="17.25" customHeight="1" spans="1:3">
       <c r="A232" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>5</v>
@@ -4907,10 +4903,10 @@
     </row>
     <row r="233" ht="17.25" customHeight="1" spans="1:3">
       <c r="A233" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>5</v>
@@ -4918,10 +4914,10 @@
     </row>
     <row r="234" ht="17.25" customHeight="1" spans="1:3">
       <c r="A234" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>5</v>
@@ -4929,10 +4925,10 @@
     </row>
     <row r="235" ht="17.25" customHeight="1" spans="1:3">
       <c r="A235" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>5</v>
@@ -4948,10 +4944,10 @@
     </row>
     <row r="238" ht="17.25" customHeight="1" spans="1:3">
       <c r="A238" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>5</v>
@@ -4959,10 +4955,10 @@
     </row>
     <row r="239" ht="17.25" customHeight="1" spans="1:3">
       <c r="A239" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>5</v>
@@ -4970,10 +4966,10 @@
     </row>
     <row r="240" ht="17.25" customHeight="1" spans="1:3">
       <c r="A240" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>5</v>
@@ -4981,10 +4977,10 @@
     </row>
     <row r="241" ht="17.25" customHeight="1" spans="1:3">
       <c r="A241" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>5</v>
@@ -4992,10 +4988,10 @@
     </row>
     <row r="242" ht="17.25" customHeight="1" spans="1:3">
       <c r="A242" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>5</v>
@@ -5003,10 +4999,10 @@
     </row>
     <row r="243" ht="17.25" customHeight="1" spans="1:3">
       <c r="A243" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>5</v>
@@ -5014,10 +5010,10 @@
     </row>
     <row r="244" ht="17.25" customHeight="1" spans="1:3">
       <c r="A244" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>5</v>
@@ -5025,10 +5021,10 @@
     </row>
     <row r="245" ht="17.25" customHeight="1" spans="1:3">
       <c r="A245" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>5</v>
@@ -5036,10 +5032,10 @@
     </row>
     <row r="246" ht="17.25" customHeight="1" spans="1:3">
       <c r="A246" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>5</v>
@@ -5047,10 +5043,10 @@
     </row>
     <row r="247" ht="17.25" customHeight="1" spans="1:3">
       <c r="A247" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>5</v>
@@ -5058,10 +5054,10 @@
     </row>
     <row r="248" ht="17.25" customHeight="1" spans="1:3">
       <c r="A248" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>5</v>
@@ -5069,10 +5065,10 @@
     </row>
     <row r="249" ht="17.25" customHeight="1" spans="1:3">
       <c r="A249" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>5</v>
@@ -5080,10 +5076,10 @@
     </row>
     <row r="250" ht="17.25" customHeight="1" spans="1:3">
       <c r="A250" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>5</v>
@@ -5091,10 +5087,10 @@
     </row>
     <row r="251" ht="17.25" customHeight="1" spans="1:3">
       <c r="A251" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>5</v>
@@ -5102,10 +5098,10 @@
     </row>
     <row r="252" ht="17.25" customHeight="1" spans="1:3">
       <c r="A252" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>5</v>
@@ -5113,10 +5109,10 @@
     </row>
     <row r="253" ht="17.25" customHeight="1" spans="1:3">
       <c r="A253" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>5</v>
@@ -5124,10 +5120,10 @@
     </row>
     <row r="254" ht="17.25" customHeight="1" spans="1:3">
       <c r="A254" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>5</v>
@@ -5135,10 +5131,10 @@
     </row>
     <row r="255" ht="17.25" customHeight="1" spans="1:3">
       <c r="A255" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>5</v>
@@ -5146,10 +5142,10 @@
     </row>
     <row r="256" ht="17.25" customHeight="1" spans="1:3">
       <c r="A256" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>5</v>
@@ -5157,10 +5153,10 @@
     </row>
     <row r="257" ht="17.25" customHeight="1" spans="1:3">
       <c r="A257" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>5</v>
@@ -5168,10 +5164,10 @@
     </row>
     <row r="258" ht="17.25" customHeight="1" spans="1:3">
       <c r="A258" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>5</v>
@@ -5179,10 +5175,10 @@
     </row>
     <row r="259" ht="17.25" customHeight="1" spans="1:3">
       <c r="A259" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>5</v>
@@ -5190,10 +5186,10 @@
     </row>
     <row r="260" ht="17.25" customHeight="1" spans="1:3">
       <c r="A260" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>5</v>
@@ -5201,10 +5197,10 @@
     </row>
     <row r="261" ht="17.25" customHeight="1" spans="1:3">
       <c r="A261" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>5</v>
@@ -5212,10 +5208,10 @@
     </row>
     <row r="262" ht="17.25" customHeight="1" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>5</v>
@@ -5223,10 +5219,10 @@
     </row>
     <row r="263" ht="17.25" customHeight="1" spans="1:3">
       <c r="A263" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>5</v>
@@ -5234,10 +5230,10 @@
     </row>
     <row r="264" ht="17.25" customHeight="1" spans="1:3">
       <c r="A264" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>5</v>
@@ -5245,10 +5241,10 @@
     </row>
     <row r="265" ht="17.25" customHeight="1" spans="1:3">
       <c r="A265" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>5</v>
@@ -5256,10 +5252,10 @@
     </row>
     <row r="266" ht="17.25" customHeight="1" spans="1:3">
       <c r="A266" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>5</v>
@@ -5267,10 +5263,10 @@
     </row>
     <row r="267" ht="17.25" customHeight="1" spans="1:3">
       <c r="A267" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>5</v>
@@ -5278,10 +5274,10 @@
     </row>
     <row r="268" ht="17.25" customHeight="1" spans="1:3">
       <c r="A268" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>5</v>
@@ -5289,10 +5285,10 @@
     </row>
     <row r="269" ht="17.25" customHeight="1" spans="1:3">
       <c r="A269" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>5</v>
@@ -5300,10 +5296,10 @@
     </row>
     <row r="270" ht="17.25" customHeight="1" spans="1:3">
       <c r="A270" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>5</v>
@@ -5311,10 +5307,10 @@
     </row>
     <row r="271" ht="17.25" customHeight="1" spans="1:3">
       <c r="A271" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>5</v>
@@ -5322,10 +5318,10 @@
     </row>
     <row r="272" ht="17.25" customHeight="1" spans="1:3">
       <c r="A272" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>5</v>
@@ -5341,10 +5337,10 @@
     </row>
     <row r="275" ht="17.25" customHeight="1" spans="1:3">
       <c r="A275" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>5</v>
@@ -5352,10 +5348,10 @@
     </row>
     <row r="276" ht="17.25" customHeight="1" spans="1:3">
       <c r="A276" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>5</v>
@@ -5363,10 +5359,10 @@
     </row>
     <row r="277" ht="17.25" customHeight="1" spans="1:3">
       <c r="A277" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>5</v>
@@ -5374,10 +5370,10 @@
     </row>
     <row r="278" ht="17.25" customHeight="1" spans="1:3">
       <c r="A278" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>5</v>
@@ -5385,10 +5381,10 @@
     </row>
     <row r="279" ht="17.25" customHeight="1" spans="1:3">
       <c r="A279" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>5</v>
@@ -5396,10 +5392,10 @@
     </row>
     <row r="280" ht="17.25" customHeight="1" spans="1:3">
       <c r="A280" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>5</v>
@@ -5407,10 +5403,10 @@
     </row>
     <row r="281" ht="17.25" customHeight="1" spans="1:3">
       <c r="A281" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>5</v>
@@ -5418,10 +5414,10 @@
     </row>
     <row r="282" ht="17.25" customHeight="1" spans="1:3">
       <c r="A282" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>5</v>
@@ -5429,10 +5425,10 @@
     </row>
     <row r="283" ht="17.25" customHeight="1" spans="1:3">
       <c r="A283" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>5</v>
@@ -5440,10 +5436,10 @@
     </row>
     <row r="284" ht="17.25" customHeight="1" spans="1:3">
       <c r="A284" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>5</v>
@@ -5451,10 +5447,10 @@
     </row>
     <row r="285" ht="17.25" customHeight="1" spans="1:3">
       <c r="A285" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>5</v>
@@ -5462,10 +5458,10 @@
     </row>
     <row r="286" ht="17.25" customHeight="1" spans="1:3">
       <c r="A286" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>5</v>
@@ -5473,10 +5469,10 @@
     </row>
     <row r="287" ht="17.25" customHeight="1" spans="1:3">
       <c r="A287" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>5</v>
@@ -5484,10 +5480,10 @@
     </row>
     <row r="288" ht="17.25" customHeight="1" spans="1:3">
       <c r="A288" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>5</v>
@@ -5495,10 +5491,10 @@
     </row>
     <row r="289" ht="17.25" customHeight="1" spans="1:3">
       <c r="A289" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>5</v>
@@ -5506,10 +5502,10 @@
     </row>
     <row r="290" ht="17.25" customHeight="1" spans="1:3">
       <c r="A290" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>5</v>
@@ -5517,10 +5513,10 @@
     </row>
     <row r="291" ht="17.25" customHeight="1" spans="1:3">
       <c r="A291" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>5</v>
@@ -5528,10 +5524,10 @@
     </row>
     <row r="292" ht="17.25" customHeight="1" spans="1:3">
       <c r="A292" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>5</v>
@@ -5539,10 +5535,10 @@
     </row>
     <row r="293" ht="17.25" customHeight="1" spans="1:3">
       <c r="A293" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>5</v>
@@ -5558,10 +5554,10 @@
     </row>
     <row r="296" ht="17.25" customHeight="1" spans="1:3">
       <c r="A296" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>5</v>
@@ -5569,10 +5565,10 @@
     </row>
     <row r="297" ht="17.25" customHeight="1" spans="1:3">
       <c r="A297" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>5</v>
@@ -5580,10 +5576,10 @@
     </row>
     <row r="298" ht="17.25" customHeight="1" spans="1:3">
       <c r="A298" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>5</v>
@@ -5591,10 +5587,10 @@
     </row>
     <row r="299" ht="17.25" customHeight="1" spans="1:3">
       <c r="A299" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>5</v>
@@ -5602,10 +5598,10 @@
     </row>
     <row r="300" ht="17.25" customHeight="1" spans="1:3">
       <c r="A300" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>5</v>
@@ -5613,10 +5609,10 @@
     </row>
     <row r="301" ht="17.25" customHeight="1" spans="1:3">
       <c r="A301" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>5</v>
@@ -5624,10 +5620,10 @@
     </row>
     <row r="302" ht="17.25" customHeight="1" spans="1:3">
       <c r="A302" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>5</v>
@@ -5635,10 +5631,10 @@
     </row>
     <row r="303" ht="17.25" customHeight="1" spans="1:3">
       <c r="A303" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>5</v>
@@ -5646,10 +5642,10 @@
     </row>
     <row r="304" ht="17.25" customHeight="1" spans="1:3">
       <c r="A304" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>5</v>
@@ -5657,10 +5653,10 @@
     </row>
     <row r="305" ht="17.25" customHeight="1" spans="1:3">
       <c r="A305" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>5</v>
@@ -5668,10 +5664,10 @@
     </row>
     <row r="306" ht="17.25" customHeight="1" spans="1:3">
       <c r="A306" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>5</v>
@@ -5679,10 +5675,10 @@
     </row>
     <row r="307" ht="17.25" customHeight="1" spans="1:3">
       <c r="A307" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>5</v>
@@ -5690,10 +5686,10 @@
     </row>
     <row r="308" ht="17.25" customHeight="1" spans="1:3">
       <c r="A308" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>5</v>
@@ -5701,10 +5697,10 @@
     </row>
     <row r="309" ht="17.25" customHeight="1" spans="1:3">
       <c r="A309" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>5</v>
@@ -5712,10 +5708,10 @@
     </row>
     <row r="310" ht="17.25" customHeight="1" spans="1:3">
       <c r="A310" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>5</v>
@@ -5723,10 +5719,10 @@
     </row>
     <row r="311" ht="17.25" customHeight="1" spans="1:3">
       <c r="A311" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>5</v>
@@ -5734,10 +5730,10 @@
     </row>
     <row r="312" ht="17.25" customHeight="1" spans="1:3">
       <c r="A312" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>5</v>
@@ -5745,10 +5741,10 @@
     </row>
     <row r="313" ht="17.25" customHeight="1" spans="1:3">
       <c r="A313" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>5</v>
@@ -5756,10 +5752,10 @@
     </row>
     <row r="314" ht="17.25" customHeight="1" spans="1:3">
       <c r="A314" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>5</v>
@@ -5767,10 +5763,10 @@
     </row>
     <row r="315" ht="17.25" customHeight="1" spans="1:3">
       <c r="A315" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>5</v>
@@ -5778,10 +5774,10 @@
     </row>
     <row r="316" ht="17.25" customHeight="1" spans="1:3">
       <c r="A316" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>5</v>
@@ -5789,10 +5785,10 @@
     </row>
     <row r="317" ht="17.25" customHeight="1" spans="1:3">
       <c r="A317" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>5</v>
@@ -5800,10 +5796,10 @@
     </row>
     <row r="318" ht="17.25" customHeight="1" spans="1:3">
       <c r="A318" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>5</v>
@@ -5811,10 +5807,10 @@
     </row>
     <row r="319" ht="17.25" customHeight="1" spans="1:3">
       <c r="A319" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>5</v>
@@ -5822,10 +5818,10 @@
     </row>
     <row r="320" ht="17.25" customHeight="1" spans="1:3">
       <c r="A320" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>5</v>
@@ -5833,10 +5829,10 @@
     </row>
     <row r="321" ht="17.25" customHeight="1" spans="1:3">
       <c r="A321" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>5</v>
@@ -5844,10 +5840,10 @@
     </row>
     <row r="322" ht="17.25" customHeight="1" spans="1:3">
       <c r="A322" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>5</v>
@@ -5855,10 +5851,10 @@
     </row>
     <row r="323" ht="17.25" customHeight="1" spans="1:3">
       <c r="A323" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>5</v>
@@ -5866,10 +5862,10 @@
     </row>
     <row r="324" ht="17.25" customHeight="1" spans="1:3">
       <c r="A324" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>5</v>
@@ -5877,10 +5873,10 @@
     </row>
     <row r="325" ht="17.25" customHeight="1" spans="1:3">
       <c r="A325" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>5</v>
@@ -5888,10 +5884,10 @@
     </row>
     <row r="326" ht="17.25" customHeight="1" spans="1:3">
       <c r="A326" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>5</v>
@@ -5899,10 +5895,10 @@
     </row>
     <row r="327" ht="17.25" customHeight="1" spans="1:3">
       <c r="A327" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>5</v>
@@ -5910,10 +5906,10 @@
     </row>
     <row r="328" ht="17.25" customHeight="1" spans="1:3">
       <c r="A328" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>5</v>
@@ -5921,10 +5917,10 @@
     </row>
     <row r="329" ht="17.25" customHeight="1" spans="1:3">
       <c r="A329" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>5</v>
@@ -5932,10 +5928,10 @@
     </row>
     <row r="330" ht="17.25" customHeight="1" spans="1:3">
       <c r="A330" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>5</v>
@@ -5943,10 +5939,10 @@
     </row>
     <row r="331" ht="17.25" customHeight="1" spans="1:3">
       <c r="A331" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>5</v>
@@ -5954,10 +5950,10 @@
     </row>
     <row r="332" ht="17.25" customHeight="1" spans="1:3">
       <c r="A332" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>5</v>
@@ -5965,10 +5961,10 @@
     </row>
     <row r="333" ht="17.25" customHeight="1" spans="1:3">
       <c r="A333" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>5</v>
@@ -5984,10 +5980,10 @@
     </row>
     <row r="336" ht="17.25" customHeight="1" spans="1:3">
       <c r="A336" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>5</v>
@@ -5995,10 +5991,10 @@
     </row>
     <row r="337" ht="17.25" customHeight="1" spans="1:3">
       <c r="A337" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>5</v>
@@ -6006,10 +6002,10 @@
     </row>
     <row r="338" ht="17.25" customHeight="1" spans="1:3">
       <c r="A338" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>5</v>
@@ -6017,10 +6013,10 @@
     </row>
     <row r="339" ht="17.25" customHeight="1" spans="1:3">
       <c r="A339" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>5</v>
@@ -6028,10 +6024,10 @@
     </row>
     <row r="340" ht="17.25" customHeight="1" spans="1:3">
       <c r="A340" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>5</v>
@@ -6039,10 +6035,10 @@
     </row>
     <row r="341" ht="17.25" customHeight="1" spans="1:3">
       <c r="A341" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>5</v>
@@ -6050,10 +6046,10 @@
     </row>
     <row r="342" ht="17.25" customHeight="1" spans="1:3">
       <c r="A342" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>5</v>
@@ -6061,10 +6057,10 @@
     </row>
     <row r="343" ht="17.25" customHeight="1" spans="1:3">
       <c r="A343" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>5</v>
@@ -6072,10 +6068,10 @@
     </row>
     <row r="344" ht="17.25" customHeight="1" spans="1:3">
       <c r="A344" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>5</v>
@@ -6083,10 +6079,10 @@
     </row>
     <row r="345" ht="17.25" customHeight="1" spans="1:3">
       <c r="A345" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>5</v>
@@ -6094,10 +6090,10 @@
     </row>
     <row r="346" ht="17.25" customHeight="1" spans="1:3">
       <c r="A346" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>5</v>
@@ -6105,10 +6101,10 @@
     </row>
     <row r="347" ht="17.25" customHeight="1" spans="1:3">
       <c r="A347" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>5</v>
@@ -6116,10 +6112,10 @@
     </row>
     <row r="348" ht="17.25" customHeight="1" spans="1:3">
       <c r="A348" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>5</v>
@@ -6127,10 +6123,10 @@
     </row>
     <row r="349" ht="17.25" customHeight="1" spans="1:3">
       <c r="A349" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>5</v>
@@ -6138,10 +6134,10 @@
     </row>
     <row r="350" ht="17.25" customHeight="1" spans="1:3">
       <c r="A350" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>5</v>
@@ -6149,10 +6145,10 @@
     </row>
     <row r="351" ht="17.25" customHeight="1" spans="1:3">
       <c r="A351" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>5</v>
@@ -6160,10 +6156,10 @@
     </row>
     <row r="352" ht="17.25" customHeight="1" spans="1:3">
       <c r="A352" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>5</v>
@@ -6171,10 +6167,10 @@
     </row>
     <row r="353" ht="17.25" customHeight="1" spans="1:3">
       <c r="A353" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>5</v>
@@ -6190,10 +6186,10 @@
     </row>
     <row r="356" ht="17.25" customHeight="1" spans="1:3">
       <c r="A356" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>5</v>
@@ -6201,10 +6197,10 @@
     </row>
     <row r="357" ht="17.25" customHeight="1" spans="1:3">
       <c r="A357" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>5</v>
@@ -6212,10 +6208,10 @@
     </row>
     <row r="358" ht="17.25" customHeight="1" spans="1:3">
       <c r="A358" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>5</v>
@@ -6223,10 +6219,10 @@
     </row>
     <row r="359" ht="17.25" customHeight="1" spans="1:3">
       <c r="A359" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>5</v>
@@ -6234,10 +6230,10 @@
     </row>
     <row r="360" ht="17.25" customHeight="1" spans="1:3">
       <c r="A360" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>5</v>
@@ -6245,10 +6241,10 @@
     </row>
     <row r="361" ht="17.25" customHeight="1" spans="1:3">
       <c r="A361" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>5</v>
@@ -6256,10 +6252,10 @@
     </row>
     <row r="362" ht="17.25" customHeight="1" spans="1:3">
       <c r="A362" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>5</v>
@@ -6267,10 +6263,10 @@
     </row>
     <row r="363" ht="17.25" customHeight="1" spans="1:3">
       <c r="A363" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>5</v>
@@ -6278,10 +6274,10 @@
     </row>
     <row r="364" ht="17.25" customHeight="1" spans="1:3">
       <c r="A364" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>5</v>
@@ -6289,10 +6285,10 @@
     </row>
     <row r="365" ht="17.25" customHeight="1" spans="1:3">
       <c r="A365" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>5</v>
@@ -6300,10 +6296,10 @@
     </row>
     <row r="366" ht="17.25" customHeight="1" spans="1:3">
       <c r="A366" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>5</v>
@@ -6311,10 +6307,10 @@
     </row>
     <row r="367" ht="17.25" customHeight="1" spans="1:3">
       <c r="A367" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>5</v>
@@ -6322,10 +6318,10 @@
     </row>
     <row r="368" ht="17.25" customHeight="1" spans="1:3">
       <c r="A368" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>5</v>
@@ -6333,10 +6329,10 @@
     </row>
     <row r="369" ht="17.25" customHeight="1" spans="1:3">
       <c r="A369" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>5</v>
@@ -6344,10 +6340,10 @@
     </row>
     <row r="370" ht="17.25" customHeight="1" spans="1:3">
       <c r="A370" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>5</v>
@@ -6355,10 +6351,10 @@
     </row>
     <row r="371" ht="17.25" customHeight="1" spans="1:3">
       <c r="A371" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>5</v>
@@ -6366,10 +6362,10 @@
     </row>
     <row r="372" ht="17.25" customHeight="1" spans="1:3">
       <c r="A372" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>5</v>
@@ -6377,10 +6373,10 @@
     </row>
     <row r="373" ht="17.25" customHeight="1" spans="1:3">
       <c r="A373" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>5</v>
@@ -6388,10 +6384,10 @@
     </row>
     <row r="374" ht="17.25" customHeight="1" spans="1:3">
       <c r="A374" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>5</v>
@@ -6399,10 +6395,10 @@
     </row>
     <row r="375" ht="17.25" customHeight="1" spans="1:3">
       <c r="A375" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>5</v>
@@ -6410,10 +6406,10 @@
     </row>
     <row r="376" ht="17.25" customHeight="1" spans="1:3">
       <c r="A376" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>5</v>
@@ -6421,10 +6417,10 @@
     </row>
     <row r="377" ht="17.25" customHeight="1" spans="1:3">
       <c r="A377" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>5</v>
@@ -6432,10 +6428,10 @@
     </row>
     <row r="378" ht="17.25" customHeight="1" spans="1:3">
       <c r="A378" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>5</v>
@@ -6443,10 +6439,10 @@
     </row>
     <row r="379" ht="17.25" customHeight="1" spans="1:3">
       <c r="A379" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>5</v>
@@ -6454,10 +6450,10 @@
     </row>
     <row r="380" ht="17.25" customHeight="1" spans="1:3">
       <c r="A380" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>5</v>
@@ -6465,10 +6461,10 @@
     </row>
     <row r="381" ht="17.25" customHeight="1" spans="1:3">
       <c r="A381" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>5</v>
@@ -6476,10 +6472,10 @@
     </row>
     <row r="382" ht="17.25" customHeight="1" spans="1:3">
       <c r="A382" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>5</v>
@@ -6487,10 +6483,10 @@
     </row>
     <row r="383" ht="17.25" customHeight="1" spans="1:3">
       <c r="A383" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>5</v>
@@ -6498,10 +6494,10 @@
     </row>
     <row r="384" ht="17.25" customHeight="1" spans="1:3">
       <c r="A384" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>5</v>
@@ -6509,10 +6505,10 @@
     </row>
     <row r="385" ht="17.25" customHeight="1" spans="1:3">
       <c r="A385" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>5</v>
@@ -6520,10 +6516,10 @@
     </row>
     <row r="386" ht="17.25" customHeight="1" spans="1:3">
       <c r="A386" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>5</v>
@@ -6531,10 +6527,10 @@
     </row>
     <row r="387" ht="17.25" customHeight="1" spans="1:3">
       <c r="A387" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>5</v>
@@ -6542,10 +6538,10 @@
     </row>
     <row r="388" ht="17.25" customHeight="1" spans="1:3">
       <c r="A388" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>5</v>
@@ -6553,10 +6549,10 @@
     </row>
     <row r="389" ht="17.25" customHeight="1" spans="1:3">
       <c r="A389" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>5</v>
@@ -6564,10 +6560,10 @@
     </row>
     <row r="390" ht="17.25" customHeight="1" spans="1:3">
       <c r="A390" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>5</v>
@@ -6575,10 +6571,10 @@
     </row>
     <row r="391" ht="17.25" customHeight="1" spans="1:3">
       <c r="A391" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>5</v>
@@ -6586,10 +6582,10 @@
     </row>
     <row r="392" ht="17.25" customHeight="1" spans="1:3">
       <c r="A392" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>5</v>
@@ -6597,10 +6593,10 @@
     </row>
     <row r="393" ht="17.25" customHeight="1" spans="1:3">
       <c r="A393" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>5</v>
@@ -6608,10 +6604,10 @@
     </row>
     <row r="394" ht="17.25" customHeight="1" spans="1:3">
       <c r="A394" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>5</v>
@@ -6619,10 +6615,10 @@
     </row>
     <row r="395" ht="17.25" customHeight="1" spans="1:3">
       <c r="A395" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>5</v>
@@ -6630,10 +6626,10 @@
     </row>
     <row r="396" ht="17.25" customHeight="1" spans="1:3">
       <c r="A396" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>5</v>
@@ -6641,10 +6637,10 @@
     </row>
     <row r="397" ht="17.25" customHeight="1" spans="1:3">
       <c r="A397" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>5</v>
@@ -6652,10 +6648,10 @@
     </row>
     <row r="398" ht="17.25" customHeight="1" spans="1:3">
       <c r="A398" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>5</v>
@@ -6663,10 +6659,10 @@
     </row>
     <row r="399" ht="17.25" customHeight="1" spans="1:3">
       <c r="A399" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>5</v>
@@ -6682,10 +6678,10 @@
     </row>
     <row r="402" ht="17.25" customHeight="1" spans="1:3">
       <c r="A402" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>5</v>
@@ -6693,10 +6689,10 @@
     </row>
     <row r="403" ht="17.25" customHeight="1" spans="1:3">
       <c r="A403" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>5</v>
@@ -6704,10 +6700,10 @@
     </row>
     <row r="404" ht="17.25" customHeight="1" spans="1:3">
       <c r="A404" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>5</v>
@@ -6715,10 +6711,10 @@
     </row>
     <row r="405" ht="17.25" customHeight="1" spans="1:3">
       <c r="A405" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>5</v>
@@ -6726,10 +6722,10 @@
     </row>
     <row r="406" ht="17.25" customHeight="1" spans="1:3">
       <c r="A406" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>5</v>
@@ -6737,10 +6733,10 @@
     </row>
     <row r="407" ht="17.25" customHeight="1" spans="1:3">
       <c r="A407" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>5</v>
@@ -6756,10 +6752,10 @@
     </row>
     <row r="410" ht="17.25" customHeight="1" spans="1:3">
       <c r="A410" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>5</v>
@@ -6767,10 +6763,10 @@
     </row>
     <row r="411" ht="17.25" customHeight="1" spans="1:3">
       <c r="A411" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>5</v>
@@ -6778,10 +6774,10 @@
     </row>
     <row r="412" ht="17.25" customHeight="1" spans="1:3">
       <c r="A412" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>5</v>
@@ -6789,10 +6785,10 @@
     </row>
     <row r="413" ht="17.25" customHeight="1" spans="1:3">
       <c r="A413" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>5</v>
@@ -6800,10 +6796,10 @@
     </row>
     <row r="414" ht="17.25" customHeight="1" spans="1:3">
       <c r="A414" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>5</v>
@@ -6811,10 +6807,10 @@
     </row>
     <row r="415" ht="17.25" customHeight="1" spans="1:3">
       <c r="A415" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>5</v>
@@ -6822,10 +6818,10 @@
     </row>
     <row r="416" ht="17.25" customHeight="1" spans="1:3">
       <c r="A416" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>5</v>
@@ -6833,10 +6829,10 @@
     </row>
     <row r="417" ht="17.25" customHeight="1" spans="1:3">
       <c r="A417" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>5</v>
@@ -6844,10 +6840,10 @@
     </row>
     <row r="418" ht="17.25" customHeight="1" spans="1:3">
       <c r="A418" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>5</v>
@@ -6855,10 +6851,10 @@
     </row>
     <row r="419" ht="17.25" customHeight="1" spans="1:3">
       <c r="A419" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>5</v>
@@ -6866,10 +6862,10 @@
     </row>
     <row r="420" ht="17.25" customHeight="1" spans="1:3">
       <c r="A420" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>5</v>
@@ -6877,10 +6873,10 @@
     </row>
     <row r="421" ht="17.25" customHeight="1" spans="1:3">
       <c r="A421" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>5</v>
@@ -6888,10 +6884,10 @@
     </row>
     <row r="422" ht="17.25" customHeight="1" spans="1:3">
       <c r="A422" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>5</v>
@@ -6899,10 +6895,10 @@
     </row>
     <row r="423" ht="17.25" customHeight="1" spans="1:3">
       <c r="A423" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>5</v>
@@ -6910,10 +6906,10 @@
     </row>
     <row r="424" ht="17.25" customHeight="1" spans="1:3">
       <c r="A424" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>5</v>
@@ -6921,10 +6917,10 @@
     </row>
     <row r="425" ht="17.25" customHeight="1" spans="1:3">
       <c r="A425" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>5</v>
@@ -6932,10 +6928,10 @@
     </row>
     <row r="426" ht="17.25" customHeight="1" spans="1:3">
       <c r="A426" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>5</v>
@@ -6943,10 +6939,10 @@
     </row>
     <row r="427" ht="17.25" customHeight="1" spans="1:3">
       <c r="A427" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>5</v>
@@ -6954,10 +6950,10 @@
     </row>
     <row r="428" ht="17.25" customHeight="1" spans="1:3">
       <c r="A428" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>5</v>
@@ -6965,10 +6961,10 @@
     </row>
     <row r="429" ht="17.25" customHeight="1" spans="1:3">
       <c r="A429" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>5</v>
@@ -6976,10 +6972,10 @@
     </row>
     <row r="430" ht="17.25" customHeight="1" spans="1:3">
       <c r="A430" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>5</v>
@@ -6987,10 +6983,10 @@
     </row>
     <row r="431" ht="17.25" customHeight="1" spans="1:3">
       <c r="A431" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>5</v>
@@ -6998,10 +6994,10 @@
     </row>
     <row r="432" ht="17.25" customHeight="1" spans="1:3">
       <c r="A432" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>5</v>
@@ -7009,10 +7005,10 @@
     </row>
     <row r="433" ht="17.25" customHeight="1" spans="1:3">
       <c r="A433" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>5</v>
@@ -7020,10 +7016,10 @@
     </row>
     <row r="434" ht="17.25" customHeight="1" spans="1:3">
       <c r="A434" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>5</v>
@@ -7031,10 +7027,10 @@
     </row>
     <row r="435" ht="17.25" customHeight="1" spans="1:3">
       <c r="A435" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>5</v>
@@ -7042,10 +7038,10 @@
     </row>
     <row r="436" ht="17.25" customHeight="1" spans="1:3">
       <c r="A436" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>5</v>
@@ -7053,10 +7049,10 @@
     </row>
     <row r="437" ht="17.25" customHeight="1" spans="1:3">
       <c r="A437" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>5</v>
@@ -7064,10 +7060,10 @@
     </row>
     <row r="438" ht="17.25" customHeight="1" spans="1:3">
       <c r="A438" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>5</v>
@@ -7075,10 +7071,10 @@
     </row>
     <row r="439" ht="17.25" customHeight="1" spans="1:3">
       <c r="A439" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>5</v>
@@ -7086,10 +7082,10 @@
     </row>
     <row r="440" ht="17.25" customHeight="1" spans="1:3">
       <c r="A440" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>5</v>
@@ -7097,10 +7093,10 @@
     </row>
     <row r="441" ht="17.25" customHeight="1" spans="1:3">
       <c r="A441" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>5</v>
@@ -7108,10 +7104,10 @@
     </row>
     <row r="442" ht="17.25" customHeight="1" spans="1:3">
       <c r="A442" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>5</v>
@@ -7119,10 +7115,10 @@
     </row>
     <row r="443" ht="17.25" customHeight="1" spans="1:3">
       <c r="A443" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>5</v>
@@ -7130,10 +7126,10 @@
     </row>
     <row r="444" ht="17.25" customHeight="1" spans="1:3">
       <c r="A444" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>5</v>
@@ -7141,10 +7137,10 @@
     </row>
     <row r="445" ht="17.25" customHeight="1" spans="1:3">
       <c r="A445" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>5</v>
@@ -7152,10 +7148,10 @@
     </row>
     <row r="446" ht="17.25" customHeight="1" spans="1:3">
       <c r="A446" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>5</v>
@@ -7163,10 +7159,10 @@
     </row>
     <row r="447" ht="17.25" customHeight="1" spans="1:3">
       <c r="A447" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>5</v>
@@ -7174,10 +7170,10 @@
     </row>
     <row r="448" ht="17.25" customHeight="1" spans="1:3">
       <c r="A448" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>5</v>
@@ -7185,10 +7181,10 @@
     </row>
     <row r="449" ht="17.25" customHeight="1" spans="1:3">
       <c r="A449" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>5</v>
@@ -7196,10 +7192,10 @@
     </row>
     <row r="450" ht="17.25" customHeight="1" spans="1:3">
       <c r="A450" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>5</v>
@@ -7207,10 +7203,10 @@
     </row>
     <row r="451" ht="17.25" customHeight="1" spans="1:3">
       <c r="A451" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>5</v>
@@ -7218,10 +7214,10 @@
     </row>
     <row r="452" ht="17.25" customHeight="1" spans="1:3">
       <c r="A452" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>5</v>
@@ -7229,10 +7225,10 @@
     </row>
     <row r="453" ht="17.25" customHeight="1" spans="1:3">
       <c r="A453" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>5</v>
@@ -7240,10 +7236,10 @@
     </row>
     <row r="454" ht="17.25" customHeight="1" spans="1:3">
       <c r="A454" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>5</v>
@@ -7251,10 +7247,10 @@
     </row>
     <row r="455" ht="17.25" customHeight="1" spans="1:3">
       <c r="A455" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>5</v>
@@ -7262,10 +7258,10 @@
     </row>
     <row r="456" ht="17.25" customHeight="1" spans="1:3">
       <c r="A456" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>5</v>
@@ -7273,10 +7269,10 @@
     </row>
     <row r="457" ht="17.25" customHeight="1" spans="1:3">
       <c r="A457" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>5</v>
@@ -7284,10 +7280,10 @@
     </row>
     <row r="458" ht="17.25" customHeight="1" spans="1:3">
       <c r="A458" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>5</v>
@@ -7295,10 +7291,10 @@
     </row>
     <row r="459" ht="17.25" customHeight="1" spans="1:3">
       <c r="A459" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>5</v>
@@ -7306,10 +7302,10 @@
     </row>
     <row r="460" ht="17.25" customHeight="1" spans="1:3">
       <c r="A460" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>5</v>
@@ -7317,10 +7313,10 @@
     </row>
     <row r="461" ht="17.25" customHeight="1" spans="1:3">
       <c r="A461" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>5</v>
@@ -7328,10 +7324,10 @@
     </row>
     <row r="462" ht="17.25" customHeight="1" spans="1:3">
       <c r="A462" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>5</v>
@@ -7339,10 +7335,10 @@
     </row>
     <row r="463" ht="17.25" customHeight="1" spans="1:3">
       <c r="A463" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>5</v>
@@ -7350,10 +7346,10 @@
     </row>
     <row r="464" ht="17.25" customHeight="1" spans="1:3">
       <c r="A464" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>5</v>
@@ -7361,10 +7357,10 @@
     </row>
     <row r="465" ht="17.25" customHeight="1" spans="1:3">
       <c r="A465" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>5</v>
@@ -7372,10 +7368,10 @@
     </row>
     <row r="466" ht="17.25" customHeight="1" spans="1:3">
       <c r="A466" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>5</v>
@@ -7383,10 +7379,10 @@
     </row>
     <row r="467" ht="17.25" customHeight="1" spans="1:3">
       <c r="A467" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>5</v>
@@ -7394,10 +7390,10 @@
     </row>
     <row r="468" ht="17.25" customHeight="1" spans="1:3">
       <c r="A468" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>5</v>
@@ -7405,10 +7401,10 @@
     </row>
     <row r="469" ht="17.25" customHeight="1" spans="1:3">
       <c r="A469" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>5</v>
@@ -7425,10 +7421,10 @@
     </row>
     <row r="472" ht="17.25" customHeight="1" spans="1:3">
       <c r="A472" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>5</v>
@@ -7436,10 +7432,10 @@
     </row>
     <row r="473" ht="17.25" customHeight="1" spans="1:3">
       <c r="A473" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>5</v>
@@ -7447,10 +7443,10 @@
     </row>
     <row r="474" ht="17.25" customHeight="1" spans="1:3">
       <c r="A474" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>5</v>
@@ -7458,10 +7454,10 @@
     </row>
     <row r="475" ht="17.25" customHeight="1" spans="1:3">
       <c r="A475" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>5</v>
@@ -7469,10 +7465,10 @@
     </row>
     <row r="476" ht="17.25" customHeight="1" spans="1:3">
       <c r="A476" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>5</v>
@@ -7480,10 +7476,10 @@
     </row>
     <row r="477" ht="17.25" customHeight="1" spans="1:3">
       <c r="A477" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>5</v>
@@ -7491,10 +7487,10 @@
     </row>
     <row r="478" ht="17.25" customHeight="1" spans="1:3">
       <c r="A478" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>5</v>
@@ -7502,10 +7498,10 @@
     </row>
     <row r="479" ht="17.25" customHeight="1" spans="1:3">
       <c r="A479" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>5</v>
@@ -7513,10 +7509,10 @@
     </row>
     <row r="480" ht="17.25" customHeight="1" spans="1:3">
       <c r="A480" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>5</v>
@@ -7524,10 +7520,10 @@
     </row>
     <row r="481" ht="17.25" customHeight="1" spans="1:3">
       <c r="A481" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>5</v>

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Minimum no. of Jumps to reach end of an array</t>
@@ -1419,12 +1422,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1475,6 +1478,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1489,16 +1505,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,6 +1600,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1529,15 +1627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,80 +1636,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,13 +1650,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,7 +1704,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,157 +1830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,6 +1841,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1852,43 +1924,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1901,179 +1941,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2101,6 +2117,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2453,8 +2475,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2565,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:3">
@@ -2576,29 +2598,29 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:3">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:3">
@@ -2606,10 +2628,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:3">
@@ -2617,21 +2639,21 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>5</v>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:3">
@@ -2639,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>5</v>
@@ -2650,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>5</v>
@@ -2661,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>5</v>
@@ -2672,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>5</v>
@@ -2683,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
@@ -2694,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>5</v>
@@ -2705,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
@@ -2716,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>5</v>
@@ -2727,7 +2749,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>5</v>
@@ -2738,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>5</v>
@@ -2749,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>5</v>
@@ -2760,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -2771,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>5</v>
@@ -2782,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>5</v>
@@ -2793,7 +2815,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>5</v>
@@ -2804,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>5</v>
@@ -2815,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>5</v>
@@ -2826,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>5</v>
@@ -2837,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>5</v>
@@ -2848,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>5</v>
@@ -2859,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>5</v>
@@ -2870,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>5</v>
@@ -2881,31 +2903,31 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B42" s="10"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" spans="1:3">
       <c r="A43" s="8"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>5</v>
@@ -2913,10 +2935,10 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
@@ -2924,10 +2946,10 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>5</v>
@@ -2935,10 +2957,10 @@
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5</v>
@@ -2946,10 +2968,10 @@
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5</v>
@@ -2957,10 +2979,10 @@
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>5</v>
@@ -2968,10 +2990,10 @@
     </row>
     <row r="50" ht="17.25" customHeight="1" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>5</v>
@@ -2979,10 +3001,10 @@
     </row>
     <row r="51" ht="17.25" customHeight="1" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -2990,10 +3012,10 @@
     </row>
     <row r="52" ht="17.25" customHeight="1" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5</v>
@@ -3001,10 +3023,10 @@
     </row>
     <row r="53" ht="17.25" customHeight="1" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>5</v>
@@ -3013,15 +3035,15 @@
     <row r="54" ht="17.25" customHeight="1"/>
     <row r="55" ht="17.25" customHeight="1" spans="1:3">
       <c r="A55" s="8"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" ht="17.25" customHeight="1" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>5</v>
@@ -3029,10 +3051,10 @@
     </row>
     <row r="57" ht="17.25" customHeight="1" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>5</v>
@@ -3040,10 +3062,10 @@
     </row>
     <row r="58" ht="17.25" customHeight="1" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>5</v>
@@ -3051,10 +3073,10 @@
     </row>
     <row r="59" ht="17.25" customHeight="1" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
@@ -3062,10 +3084,10 @@
     </row>
     <row r="60" ht="17.25" customHeight="1" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>5</v>
@@ -3073,10 +3095,10 @@
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>5</v>
@@ -3084,10 +3106,10 @@
     </row>
     <row r="62" ht="17.25" customHeight="1" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>5</v>
@@ -3095,10 +3117,10 @@
     </row>
     <row r="63" ht="17.25" customHeight="1" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>5</v>
@@ -3106,10 +3128,10 @@
     </row>
     <row r="64" ht="17.25" customHeight="1" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -3117,10 +3139,10 @@
     </row>
     <row r="65" ht="17.25" customHeight="1" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>5</v>
@@ -3128,10 +3150,10 @@
     </row>
     <row r="66" ht="17.25" customHeight="1" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>5</v>
@@ -3139,10 +3161,10 @@
     </row>
     <row r="67" ht="17.25" customHeight="1" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>5</v>
@@ -3150,10 +3172,10 @@
     </row>
     <row r="68" ht="17.25" customHeight="1" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>5</v>
@@ -3161,10 +3183,10 @@
     </row>
     <row r="69" ht="17.25" customHeight="1" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>5</v>
@@ -3172,10 +3194,10 @@
     </row>
     <row r="70" ht="17.25" customHeight="1" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>5</v>
@@ -3183,10 +3205,10 @@
     </row>
     <row r="71" ht="17.25" customHeight="1" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>5</v>
@@ -3194,10 +3216,10 @@
     </row>
     <row r="72" ht="17.25" customHeight="1" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>5</v>
@@ -3205,10 +3227,10 @@
     </row>
     <row r="73" ht="17.25" customHeight="1" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>5</v>
@@ -3216,10 +3238,10 @@
     </row>
     <row r="74" ht="17.25" customHeight="1" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>5</v>
@@ -3227,10 +3249,10 @@
     </row>
     <row r="75" ht="17.25" customHeight="1" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>5</v>
@@ -3238,10 +3260,10 @@
     </row>
     <row r="76" ht="17.25" customHeight="1" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>5</v>
@@ -3249,10 +3271,10 @@
     </row>
     <row r="77" ht="17.25" customHeight="1" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>5</v>
@@ -3260,10 +3282,10 @@
     </row>
     <row r="78" ht="17.25" customHeight="1" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>5</v>
@@ -3271,10 +3293,10 @@
     </row>
     <row r="79" ht="17.25" customHeight="1" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>5</v>
@@ -3282,10 +3304,10 @@
     </row>
     <row r="80" ht="17.25" customHeight="1" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5</v>
@@ -3293,10 +3315,10 @@
     </row>
     <row r="81" ht="17.25" customHeight="1" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>5</v>
@@ -3304,10 +3326,10 @@
     </row>
     <row r="82" ht="17.25" customHeight="1" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>5</v>
@@ -3315,10 +3337,10 @@
     </row>
     <row r="83" ht="17.25" customHeight="1" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>5</v>
@@ -3326,10 +3348,10 @@
     </row>
     <row r="84" ht="17.25" customHeight="1" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>5</v>
@@ -3337,10 +3359,10 @@
     </row>
     <row r="85" ht="17.25" customHeight="1" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>5</v>
@@ -3348,10 +3370,10 @@
     </row>
     <row r="86" ht="17.25" customHeight="1" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>5</v>
@@ -3359,10 +3381,10 @@
     </row>
     <row r="87" ht="17.25" customHeight="1" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>5</v>
@@ -3370,10 +3392,10 @@
     </row>
     <row r="88" ht="17.25" customHeight="1" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>5</v>
@@ -3381,10 +3403,10 @@
     </row>
     <row r="89" ht="17.25" customHeight="1" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>5</v>
@@ -3392,10 +3414,10 @@
     </row>
     <row r="90" ht="17.25" customHeight="1" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>5</v>
@@ -3403,10 +3425,10 @@
     </row>
     <row r="91" ht="17.25" customHeight="1" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>5</v>
@@ -3414,10 +3436,10 @@
     </row>
     <row r="92" ht="17.25" customHeight="1" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>5</v>
@@ -3425,10 +3447,10 @@
     </row>
     <row r="93" ht="17.25" customHeight="1" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>5</v>
@@ -3436,10 +3458,10 @@
     </row>
     <row r="94" ht="17.25" customHeight="1" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>5</v>
@@ -3447,10 +3469,10 @@
     </row>
     <row r="95" ht="17.25" customHeight="1" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>5</v>
@@ -3458,10 +3480,10 @@
     </row>
     <row r="96" ht="17.25" customHeight="1" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>5</v>
@@ -3469,10 +3491,10 @@
     </row>
     <row r="97" ht="17.25" customHeight="1" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>5</v>
@@ -3480,10 +3502,10 @@
     </row>
     <row r="98" ht="17.25" customHeight="1" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>5</v>
@@ -3492,15 +3514,15 @@
     <row r="99" ht="17.25" customHeight="1"/>
     <row r="100" ht="17.25" customHeight="1" spans="1:3">
       <c r="A100" s="8"/>
-      <c r="B100" s="10"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="7"/>
     </row>
     <row r="101" ht="17.25" customHeight="1" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>5</v>
@@ -3508,10 +3530,10 @@
     </row>
     <row r="102" ht="17.25" customHeight="1" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>5</v>
@@ -3519,10 +3541,10 @@
     </row>
     <row r="103" ht="17.25" customHeight="1" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>5</v>
@@ -3530,10 +3552,10 @@
     </row>
     <row r="104" ht="17.25" customHeight="1" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>5</v>
@@ -3541,10 +3563,10 @@
     </row>
     <row r="105" ht="17.25" customHeight="1" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>5</v>
@@ -3552,10 +3574,10 @@
     </row>
     <row r="106" ht="17.25" customHeight="1" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>5</v>
@@ -3563,10 +3585,10 @@
     </row>
     <row r="107" ht="17.25" customHeight="1" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>5</v>
@@ -3574,10 +3596,10 @@
     </row>
     <row r="108" ht="17.25" customHeight="1" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>5</v>
@@ -3585,10 +3607,10 @@
     </row>
     <row r="109" ht="17.25" customHeight="1" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>5</v>
@@ -3596,10 +3618,10 @@
     </row>
     <row r="110" ht="17.25" customHeight="1" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>5</v>
@@ -3607,10 +3629,10 @@
     </row>
     <row r="111" ht="17.25" customHeight="1" spans="1:3">
       <c r="A111" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>5</v>
@@ -3618,10 +3640,10 @@
     </row>
     <row r="112" ht="17.25" customHeight="1" spans="1:3">
       <c r="A112" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>5</v>
@@ -3629,10 +3651,10 @@
     </row>
     <row r="113" ht="17.25" customHeight="1" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>5</v>
@@ -3640,10 +3662,10 @@
     </row>
     <row r="114" ht="17.25" customHeight="1" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>5</v>
@@ -3651,10 +3673,10 @@
     </row>
     <row r="115" ht="17.25" customHeight="1" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>5</v>
@@ -3662,10 +3684,10 @@
     </row>
     <row r="116" ht="17.25" customHeight="1" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>5</v>
@@ -3673,10 +3695,10 @@
     </row>
     <row r="117" ht="17.25" customHeight="1" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>5</v>
@@ -3684,10 +3706,10 @@
     </row>
     <row r="118" ht="17.25" customHeight="1" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>5</v>
@@ -3695,10 +3717,10 @@
     </row>
     <row r="119" ht="17.25" customHeight="1" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>5</v>
@@ -3706,10 +3728,10 @@
     </row>
     <row r="120" ht="17.25" customHeight="1" spans="1:3">
       <c r="A120" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>5</v>
@@ -3717,10 +3739,10 @@
     </row>
     <row r="121" ht="17.25" customHeight="1" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>5</v>
@@ -3728,10 +3750,10 @@
     </row>
     <row r="122" ht="17.25" customHeight="1" spans="1:3">
       <c r="A122" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>5</v>
@@ -3739,10 +3761,10 @@
     </row>
     <row r="123" ht="17.25" customHeight="1" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>5</v>
@@ -3750,10 +3772,10 @@
     </row>
     <row r="124" ht="17.25" customHeight="1" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>5</v>
@@ -3761,10 +3783,10 @@
     </row>
     <row r="125" ht="17.25" customHeight="1" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>5</v>
@@ -3772,10 +3794,10 @@
     </row>
     <row r="126" ht="17.25" customHeight="1" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>5</v>
@@ -3783,10 +3805,10 @@
     </row>
     <row r="127" ht="17.25" customHeight="1" spans="1:3">
       <c r="A127" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>5</v>
@@ -3794,10 +3816,10 @@
     </row>
     <row r="128" ht="17.25" customHeight="1" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>5</v>
@@ -3805,10 +3827,10 @@
     </row>
     <row r="129" ht="17.25" customHeight="1" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>5</v>
@@ -3816,10 +3838,10 @@
     </row>
     <row r="130" ht="17.25" customHeight="1" spans="1:3">
       <c r="A130" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>5</v>
@@ -3827,10 +3849,10 @@
     </row>
     <row r="131" ht="17.25" customHeight="1" spans="1:3">
       <c r="A131" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>5</v>
@@ -3838,10 +3860,10 @@
     </row>
     <row r="132" ht="17.25" customHeight="1" spans="1:3">
       <c r="A132" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>5</v>
@@ -3849,10 +3871,10 @@
     </row>
     <row r="133" ht="17.25" customHeight="1" spans="1:3">
       <c r="A133" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>5</v>
@@ -3860,10 +3882,10 @@
     </row>
     <row r="134" ht="17.25" customHeight="1" spans="1:3">
       <c r="A134" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>5</v>
@@ -3871,10 +3893,10 @@
     </row>
     <row r="135" ht="17.25" customHeight="1" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>5</v>
@@ -3882,10 +3904,10 @@
     </row>
     <row r="136" ht="17.25" customHeight="1" spans="1:3">
       <c r="A136" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>5</v>
@@ -3893,15 +3915,15 @@
     </row>
     <row r="137" ht="17.25" customHeight="1"/>
     <row r="138" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B138" s="10"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="7"/>
     </row>
     <row r="139" ht="17.25" customHeight="1" spans="1:3">
       <c r="A139" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>5</v>
@@ -3909,10 +3931,10 @@
     </row>
     <row r="140" ht="17.25" customHeight="1" spans="1:3">
       <c r="A140" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>5</v>
@@ -3920,10 +3942,10 @@
     </row>
     <row r="141" ht="17.25" customHeight="1" spans="1:3">
       <c r="A141" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>5</v>
@@ -3931,10 +3953,10 @@
     </row>
     <row r="142" ht="17.25" customHeight="1" spans="1:3">
       <c r="A142" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>5</v>
@@ -3942,10 +3964,10 @@
     </row>
     <row r="143" ht="17.25" customHeight="1" spans="1:3">
       <c r="A143" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>5</v>
@@ -3953,10 +3975,10 @@
     </row>
     <row r="144" ht="17.25" customHeight="1" spans="1:3">
       <c r="A144" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>5</v>
@@ -3964,10 +3986,10 @@
     </row>
     <row r="145" ht="17.25" customHeight="1" spans="1:3">
       <c r="A145" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>5</v>
@@ -3975,10 +3997,10 @@
     </row>
     <row r="146" ht="17.25" customHeight="1" spans="1:3">
       <c r="A146" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>5</v>
@@ -3986,10 +4008,10 @@
     </row>
     <row r="147" ht="17.25" customHeight="1" spans="1:3">
       <c r="A147" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>5</v>
@@ -3997,10 +4019,10 @@
     </row>
     <row r="148" ht="17.25" customHeight="1" spans="1:3">
       <c r="A148" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>5</v>
@@ -4008,10 +4030,10 @@
     </row>
     <row r="149" ht="17.25" customHeight="1" spans="1:3">
       <c r="A149" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>5</v>
@@ -4019,10 +4041,10 @@
     </row>
     <row r="150" ht="17.25" customHeight="1" spans="1:3">
       <c r="A150" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>5</v>
@@ -4030,10 +4052,10 @@
     </row>
     <row r="151" ht="17.25" customHeight="1" spans="1:3">
       <c r="A151" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>5</v>
@@ -4041,10 +4063,10 @@
     </row>
     <row r="152" ht="17.25" customHeight="1" spans="1:3">
       <c r="A152" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>5</v>
@@ -4052,10 +4074,10 @@
     </row>
     <row r="153" ht="17.25" customHeight="1" spans="1:3">
       <c r="A153" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>5</v>
@@ -4063,10 +4085,10 @@
     </row>
     <row r="154" ht="17.25" customHeight="1" spans="1:3">
       <c r="A154" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>5</v>
@@ -4074,10 +4096,10 @@
     </row>
     <row r="155" ht="17.25" customHeight="1" spans="1:3">
       <c r="A155" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>5</v>
@@ -4085,10 +4107,10 @@
     </row>
     <row r="156" ht="17.25" customHeight="1" spans="1:3">
       <c r="A156" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>5</v>
@@ -4096,10 +4118,10 @@
     </row>
     <row r="157" ht="17.25" customHeight="1" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>5</v>
@@ -4107,10 +4129,10 @@
     </row>
     <row r="158" ht="17.25" customHeight="1" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>5</v>
@@ -4118,10 +4140,10 @@
     </row>
     <row r="159" ht="17.25" customHeight="1" spans="1:3">
       <c r="A159" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>5</v>
@@ -4129,10 +4151,10 @@
     </row>
     <row r="160" ht="17.25" customHeight="1" spans="1:3">
       <c r="A160" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>5</v>
@@ -4140,10 +4162,10 @@
     </row>
     <row r="161" ht="17.25" customHeight="1" spans="1:3">
       <c r="A161" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>5</v>
@@ -4151,10 +4173,10 @@
     </row>
     <row r="162" ht="17.25" customHeight="1" spans="1:3">
       <c r="A162" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>5</v>
@@ -4162,10 +4184,10 @@
     </row>
     <row r="163" ht="17.25" customHeight="1" spans="1:3">
       <c r="A163" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>5</v>
@@ -4173,10 +4195,10 @@
     </row>
     <row r="164" ht="17.25" customHeight="1" spans="1:3">
       <c r="A164" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>5</v>
@@ -4184,10 +4206,10 @@
     </row>
     <row r="165" ht="17.25" customHeight="1" spans="1:3">
       <c r="A165" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>5</v>
@@ -4195,10 +4217,10 @@
     </row>
     <row r="166" ht="17.25" customHeight="1" spans="1:3">
       <c r="A166" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>5</v>
@@ -4206,10 +4228,10 @@
     </row>
     <row r="167" ht="17.25" customHeight="1" spans="1:3">
       <c r="A167" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>5</v>
@@ -4217,10 +4239,10 @@
     </row>
     <row r="168" ht="17.25" customHeight="1" spans="1:3">
       <c r="A168" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>5</v>
@@ -4228,10 +4250,10 @@
     </row>
     <row r="169" ht="17.25" customHeight="1" spans="1:3">
       <c r="A169" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>5</v>
@@ -4239,10 +4261,10 @@
     </row>
     <row r="170" ht="17.25" customHeight="1" spans="1:3">
       <c r="A170" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>5</v>
@@ -4250,10 +4272,10 @@
     </row>
     <row r="171" ht="17.25" customHeight="1" spans="1:3">
       <c r="A171" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>5</v>
@@ -4261,10 +4283,10 @@
     </row>
     <row r="172" ht="17.25" customHeight="1" spans="1:3">
       <c r="A172" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>5</v>
@@ -4272,10 +4294,10 @@
     </row>
     <row r="173" ht="17.25" customHeight="1" spans="1:3">
       <c r="A173" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>5</v>
@@ -4283,10 +4305,10 @@
     </row>
     <row r="174" ht="17.25" customHeight="1" spans="1:3">
       <c r="A174" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>5</v>
@@ -4294,15 +4316,15 @@
     </row>
     <row r="175" ht="17.25" customHeight="1"/>
     <row r="176" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B176" s="10"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="7"/>
     </row>
     <row r="177" ht="17.25" customHeight="1" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>5</v>
@@ -4310,10 +4332,10 @@
     </row>
     <row r="178" ht="17.25" customHeight="1" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>5</v>
@@ -4321,10 +4343,10 @@
     </row>
     <row r="179" ht="17.25" customHeight="1" spans="1:3">
       <c r="A179" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>5</v>
@@ -4332,10 +4354,10 @@
     </row>
     <row r="180" ht="17.25" customHeight="1" spans="1:3">
       <c r="A180" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>5</v>
@@ -4343,10 +4365,10 @@
     </row>
     <row r="181" ht="17.25" customHeight="1" spans="1:3">
       <c r="A181" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>5</v>
@@ -4354,10 +4376,10 @@
     </row>
     <row r="182" ht="17.25" customHeight="1" spans="1:3">
       <c r="A182" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>5</v>
@@ -4365,10 +4387,10 @@
     </row>
     <row r="183" ht="17.25" customHeight="1" spans="1:3">
       <c r="A183" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>5</v>
@@ -4376,10 +4398,10 @@
     </row>
     <row r="184" ht="17.25" customHeight="1" spans="1:3">
       <c r="A184" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>5</v>
@@ -4387,10 +4409,10 @@
     </row>
     <row r="185" ht="17.25" customHeight="1" spans="1:3">
       <c r="A185" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>5</v>
@@ -4398,10 +4420,10 @@
     </row>
     <row r="186" ht="17.25" customHeight="1" spans="1:3">
       <c r="A186" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>5</v>
@@ -4409,10 +4431,10 @@
     </row>
     <row r="187" ht="17.25" customHeight="1" spans="1:3">
       <c r="A187" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>5</v>
@@ -4420,10 +4442,10 @@
     </row>
     <row r="188" ht="17.25" customHeight="1" spans="1:3">
       <c r="A188" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>5</v>
@@ -4431,10 +4453,10 @@
     </row>
     <row r="189" ht="17.25" customHeight="1" spans="1:3">
       <c r="A189" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>5</v>
@@ -4442,10 +4464,10 @@
     </row>
     <row r="190" ht="17.25" customHeight="1" spans="1:3">
       <c r="A190" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>5</v>
@@ -4453,10 +4475,10 @@
     </row>
     <row r="191" ht="17.25" customHeight="1" spans="1:3">
       <c r="A191" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>5</v>
@@ -4464,10 +4486,10 @@
     </row>
     <row r="192" ht="17.25" customHeight="1" spans="1:3">
       <c r="A192" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>5</v>
@@ -4475,10 +4497,10 @@
     </row>
     <row r="193" ht="17.25" customHeight="1" spans="1:3">
       <c r="A193" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>5</v>
@@ -4486,10 +4508,10 @@
     </row>
     <row r="194" ht="17.25" customHeight="1" spans="1:3">
       <c r="A194" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>5</v>
@@ -4497,10 +4519,10 @@
     </row>
     <row r="195" ht="17.25" customHeight="1" spans="1:3">
       <c r="A195" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>5</v>
@@ -4508,10 +4530,10 @@
     </row>
     <row r="196" ht="17.25" customHeight="1" spans="1:3">
       <c r="A196" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>5</v>
@@ -4519,10 +4541,10 @@
     </row>
     <row r="197" ht="17.25" customHeight="1" spans="1:3">
       <c r="A197" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>5</v>
@@ -4530,10 +4552,10 @@
     </row>
     <row r="198" ht="17.25" customHeight="1" spans="1:3">
       <c r="A198" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>5</v>
@@ -4541,10 +4563,10 @@
     </row>
     <row r="199" ht="17.25" customHeight="1" spans="1:3">
       <c r="A199" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>5</v>
@@ -4552,10 +4574,10 @@
     </row>
     <row r="200" ht="17.25" customHeight="1" spans="1:3">
       <c r="A200" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>5</v>
@@ -4563,10 +4585,10 @@
     </row>
     <row r="201" ht="17.25" customHeight="1" spans="1:3">
       <c r="A201" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>5</v>
@@ -4574,10 +4596,10 @@
     </row>
     <row r="202" ht="17.25" customHeight="1" spans="1:3">
       <c r="A202" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>5</v>
@@ -4585,10 +4607,10 @@
     </row>
     <row r="203" ht="17.25" customHeight="1" spans="1:3">
       <c r="A203" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>5</v>
@@ -4596,10 +4618,10 @@
     </row>
     <row r="204" ht="17.25" customHeight="1" spans="1:3">
       <c r="A204" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>5</v>
@@ -4607,10 +4629,10 @@
     </row>
     <row r="205" ht="17.25" customHeight="1" spans="1:3">
       <c r="A205" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>5</v>
@@ -4618,10 +4640,10 @@
     </row>
     <row r="206" ht="17.25" customHeight="1" spans="1:3">
       <c r="A206" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>5</v>
@@ -4629,10 +4651,10 @@
     </row>
     <row r="207" ht="17.25" customHeight="1" spans="1:3">
       <c r="A207" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>5</v>
@@ -4640,10 +4662,10 @@
     </row>
     <row r="208" ht="17.25" customHeight="1" spans="1:3">
       <c r="A208" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>5</v>
@@ -4651,10 +4673,10 @@
     </row>
     <row r="209" ht="17.25" customHeight="1" spans="1:3">
       <c r="A209" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>5</v>
@@ -4662,10 +4684,10 @@
     </row>
     <row r="210" ht="17.25" customHeight="1" spans="1:3">
       <c r="A210" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>5</v>
@@ -4673,10 +4695,10 @@
     </row>
     <row r="211" ht="17.25" customHeight="1" spans="1:3">
       <c r="A211" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>5</v>
@@ -4684,20 +4706,20 @@
     </row>
     <row r="212" ht="17.25" customHeight="1" spans="1:3">
       <c r="A212" s="8"/>
-      <c r="B212" s="10"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="7"/>
     </row>
     <row r="213" ht="17.25" customHeight="1" spans="1:3">
       <c r="A213" s="8"/>
-      <c r="B213" s="10"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="7"/>
     </row>
     <row r="214" ht="17.25" customHeight="1" spans="1:3">
       <c r="A214" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>5</v>
@@ -4705,10 +4727,10 @@
     </row>
     <row r="215" ht="17.25" customHeight="1" spans="1:3">
       <c r="A215" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>5</v>
@@ -4716,10 +4738,10 @@
     </row>
     <row r="216" ht="17.25" customHeight="1" spans="1:3">
       <c r="A216" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>5</v>
@@ -4727,10 +4749,10 @@
     </row>
     <row r="217" ht="17.25" customHeight="1" spans="1:3">
       <c r="A217" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>5</v>
@@ -4738,10 +4760,10 @@
     </row>
     <row r="218" ht="17.25" customHeight="1" spans="1:3">
       <c r="A218" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>5</v>
@@ -4749,10 +4771,10 @@
     </row>
     <row r="219" ht="17.25" customHeight="1" spans="1:3">
       <c r="A219" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>5</v>
@@ -4760,10 +4782,10 @@
     </row>
     <row r="220" ht="17.25" customHeight="1" spans="1:3">
       <c r="A220" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>5</v>
@@ -4771,10 +4793,10 @@
     </row>
     <row r="221" ht="17.25" customHeight="1" spans="1:3">
       <c r="A221" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>5</v>
@@ -4782,10 +4804,10 @@
     </row>
     <row r="222" ht="17.25" customHeight="1" spans="1:3">
       <c r="A222" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>5</v>
@@ -4793,10 +4815,10 @@
     </row>
     <row r="223" ht="17.25" customHeight="1" spans="1:3">
       <c r="A223" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>5</v>
@@ -4804,10 +4826,10 @@
     </row>
     <row r="224" ht="17.25" customHeight="1" spans="1:3">
       <c r="A224" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>5</v>
@@ -4815,10 +4837,10 @@
     </row>
     <row r="225" ht="17.25" customHeight="1" spans="1:3">
       <c r="A225" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>5</v>
@@ -4826,10 +4848,10 @@
     </row>
     <row r="226" ht="17.25" customHeight="1" spans="1:3">
       <c r="A226" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>5</v>
@@ -4837,10 +4859,10 @@
     </row>
     <row r="227" ht="17.25" customHeight="1" spans="1:3">
       <c r="A227" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>5</v>
@@ -4848,10 +4870,10 @@
     </row>
     <row r="228" ht="17.25" customHeight="1" spans="1:3">
       <c r="A228" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>5</v>
@@ -4859,10 +4881,10 @@
     </row>
     <row r="229" ht="17.25" customHeight="1" spans="1:3">
       <c r="A229" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>5</v>
@@ -4870,10 +4892,10 @@
     </row>
     <row r="230" ht="17.25" customHeight="1" spans="1:3">
       <c r="A230" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>5</v>
@@ -4881,10 +4903,10 @@
     </row>
     <row r="231" ht="17.25" customHeight="1" spans="1:3">
       <c r="A231" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>5</v>
@@ -4892,10 +4914,10 @@
     </row>
     <row r="232" ht="17.25" customHeight="1" spans="1:3">
       <c r="A232" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>5</v>
@@ -4903,10 +4925,10 @@
     </row>
     <row r="233" ht="17.25" customHeight="1" spans="1:3">
       <c r="A233" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>5</v>
@@ -4914,10 +4936,10 @@
     </row>
     <row r="234" ht="17.25" customHeight="1" spans="1:3">
       <c r="A234" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>5</v>
@@ -4925,29 +4947,29 @@
     </row>
     <row r="235" ht="17.25" customHeight="1" spans="1:3">
       <c r="A235" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B236" s="10"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="7"/>
     </row>
     <row r="237" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B237" s="10"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="7"/>
     </row>
     <row r="238" ht="17.25" customHeight="1" spans="1:3">
       <c r="A238" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>5</v>
@@ -4955,10 +4977,10 @@
     </row>
     <row r="239" ht="17.25" customHeight="1" spans="1:3">
       <c r="A239" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>5</v>
@@ -4966,10 +4988,10 @@
     </row>
     <row r="240" ht="17.25" customHeight="1" spans="1:3">
       <c r="A240" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>5</v>
@@ -4977,10 +4999,10 @@
     </row>
     <row r="241" ht="17.25" customHeight="1" spans="1:3">
       <c r="A241" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>5</v>
@@ -4988,10 +5010,10 @@
     </row>
     <row r="242" ht="17.25" customHeight="1" spans="1:3">
       <c r="A242" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>5</v>
@@ -4999,10 +5021,10 @@
     </row>
     <row r="243" ht="17.25" customHeight="1" spans="1:3">
       <c r="A243" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>5</v>
@@ -5010,10 +5032,10 @@
     </row>
     <row r="244" ht="17.25" customHeight="1" spans="1:3">
       <c r="A244" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>5</v>
@@ -5021,10 +5043,10 @@
     </row>
     <row r="245" ht="17.25" customHeight="1" spans="1:3">
       <c r="A245" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>5</v>
@@ -5032,10 +5054,10 @@
     </row>
     <row r="246" ht="17.25" customHeight="1" spans="1:3">
       <c r="A246" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>5</v>
@@ -5043,10 +5065,10 @@
     </row>
     <row r="247" ht="17.25" customHeight="1" spans="1:3">
       <c r="A247" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>5</v>
@@ -5054,10 +5076,10 @@
     </row>
     <row r="248" ht="17.25" customHeight="1" spans="1:3">
       <c r="A248" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>5</v>
@@ -5065,10 +5087,10 @@
     </row>
     <row r="249" ht="17.25" customHeight="1" spans="1:3">
       <c r="A249" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>5</v>
@@ -5076,10 +5098,10 @@
     </row>
     <row r="250" ht="17.25" customHeight="1" spans="1:3">
       <c r="A250" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>5</v>
@@ -5087,10 +5109,10 @@
     </row>
     <row r="251" ht="17.25" customHeight="1" spans="1:3">
       <c r="A251" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>5</v>
@@ -5098,10 +5120,10 @@
     </row>
     <row r="252" ht="17.25" customHeight="1" spans="1:3">
       <c r="A252" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>5</v>
@@ -5109,10 +5131,10 @@
     </row>
     <row r="253" ht="17.25" customHeight="1" spans="1:3">
       <c r="A253" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>5</v>
@@ -5120,10 +5142,10 @@
     </row>
     <row r="254" ht="17.25" customHeight="1" spans="1:3">
       <c r="A254" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>5</v>
@@ -5131,10 +5153,10 @@
     </row>
     <row r="255" ht="17.25" customHeight="1" spans="1:3">
       <c r="A255" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>5</v>
@@ -5142,10 +5164,10 @@
     </row>
     <row r="256" ht="17.25" customHeight="1" spans="1:3">
       <c r="A256" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>5</v>
@@ -5153,10 +5175,10 @@
     </row>
     <row r="257" ht="17.25" customHeight="1" spans="1:3">
       <c r="A257" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>5</v>
@@ -5164,10 +5186,10 @@
     </row>
     <row r="258" ht="17.25" customHeight="1" spans="1:3">
       <c r="A258" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>5</v>
@@ -5175,10 +5197,10 @@
     </row>
     <row r="259" ht="17.25" customHeight="1" spans="1:3">
       <c r="A259" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>5</v>
@@ -5186,10 +5208,10 @@
     </row>
     <row r="260" ht="17.25" customHeight="1" spans="1:3">
       <c r="A260" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>5</v>
@@ -5197,10 +5219,10 @@
     </row>
     <row r="261" ht="17.25" customHeight="1" spans="1:3">
       <c r="A261" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>5</v>
@@ -5208,10 +5230,10 @@
     </row>
     <row r="262" ht="17.25" customHeight="1" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>5</v>
@@ -5219,10 +5241,10 @@
     </row>
     <row r="263" ht="17.25" customHeight="1" spans="1:3">
       <c r="A263" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>5</v>
@@ -5230,10 +5252,10 @@
     </row>
     <row r="264" ht="17.25" customHeight="1" spans="1:3">
       <c r="A264" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>5</v>
@@ -5241,10 +5263,10 @@
     </row>
     <row r="265" ht="17.25" customHeight="1" spans="1:3">
       <c r="A265" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>5</v>
@@ -5252,10 +5274,10 @@
     </row>
     <row r="266" ht="17.25" customHeight="1" spans="1:3">
       <c r="A266" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>5</v>
@@ -5263,10 +5285,10 @@
     </row>
     <row r="267" ht="17.25" customHeight="1" spans="1:3">
       <c r="A267" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>5</v>
@@ -5274,10 +5296,10 @@
     </row>
     <row r="268" ht="17.25" customHeight="1" spans="1:3">
       <c r="A268" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>5</v>
@@ -5285,10 +5307,10 @@
     </row>
     <row r="269" ht="17.25" customHeight="1" spans="1:3">
       <c r="A269" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>5</v>
@@ -5296,10 +5318,10 @@
     </row>
     <row r="270" ht="17.25" customHeight="1" spans="1:3">
       <c r="A270" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>5</v>
@@ -5307,10 +5329,10 @@
     </row>
     <row r="271" ht="17.25" customHeight="1" spans="1:3">
       <c r="A271" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>5</v>
@@ -5318,29 +5340,29 @@
     </row>
     <row r="272" ht="17.25" customHeight="1" spans="1:3">
       <c r="A272" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="273" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B273" s="10"/>
+      <c r="B273" s="12"/>
       <c r="C273" s="7"/>
     </row>
     <row r="274" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B274" s="10"/>
+      <c r="B274" s="12"/>
       <c r="C274" s="7"/>
     </row>
     <row r="275" ht="17.25" customHeight="1" spans="1:3">
       <c r="A275" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>5</v>
@@ -5348,10 +5370,10 @@
     </row>
     <row r="276" ht="17.25" customHeight="1" spans="1:3">
       <c r="A276" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>5</v>
@@ -5359,10 +5381,10 @@
     </row>
     <row r="277" ht="17.25" customHeight="1" spans="1:3">
       <c r="A277" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>5</v>
@@ -5370,10 +5392,10 @@
     </row>
     <row r="278" ht="17.25" customHeight="1" spans="1:3">
       <c r="A278" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>5</v>
@@ -5381,10 +5403,10 @@
     </row>
     <row r="279" ht="17.25" customHeight="1" spans="1:3">
       <c r="A279" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>5</v>
@@ -5392,10 +5414,10 @@
     </row>
     <row r="280" ht="17.25" customHeight="1" spans="1:3">
       <c r="A280" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>5</v>
@@ -5403,10 +5425,10 @@
     </row>
     <row r="281" ht="17.25" customHeight="1" spans="1:3">
       <c r="A281" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>5</v>
@@ -5414,10 +5436,10 @@
     </row>
     <row r="282" ht="17.25" customHeight="1" spans="1:3">
       <c r="A282" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>5</v>
@@ -5425,10 +5447,10 @@
     </row>
     <row r="283" ht="17.25" customHeight="1" spans="1:3">
       <c r="A283" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>5</v>
@@ -5436,10 +5458,10 @@
     </row>
     <row r="284" ht="17.25" customHeight="1" spans="1:3">
       <c r="A284" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>5</v>
@@ -5447,10 +5469,10 @@
     </row>
     <row r="285" ht="17.25" customHeight="1" spans="1:3">
       <c r="A285" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>5</v>
@@ -5458,10 +5480,10 @@
     </row>
     <row r="286" ht="17.25" customHeight="1" spans="1:3">
       <c r="A286" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>5</v>
@@ -5469,10 +5491,10 @@
     </row>
     <row r="287" ht="17.25" customHeight="1" spans="1:3">
       <c r="A287" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>5</v>
@@ -5480,10 +5502,10 @@
     </row>
     <row r="288" ht="17.25" customHeight="1" spans="1:3">
       <c r="A288" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>5</v>
@@ -5491,10 +5513,10 @@
     </row>
     <row r="289" ht="17.25" customHeight="1" spans="1:3">
       <c r="A289" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>5</v>
@@ -5502,10 +5524,10 @@
     </row>
     <row r="290" ht="17.25" customHeight="1" spans="1:3">
       <c r="A290" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>5</v>
@@ -5513,10 +5535,10 @@
     </row>
     <row r="291" ht="17.25" customHeight="1" spans="1:3">
       <c r="A291" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>5</v>
@@ -5524,10 +5546,10 @@
     </row>
     <row r="292" ht="17.25" customHeight="1" spans="1:3">
       <c r="A292" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>5</v>
@@ -5535,29 +5557,29 @@
     </row>
     <row r="293" ht="17.25" customHeight="1" spans="1:3">
       <c r="A293" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="294" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B294" s="10"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="7"/>
     </row>
     <row r="295" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B295" s="10"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="7"/>
     </row>
     <row r="296" ht="17.25" customHeight="1" spans="1:3">
       <c r="A296" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>5</v>
@@ -5565,10 +5587,10 @@
     </row>
     <row r="297" ht="17.25" customHeight="1" spans="1:3">
       <c r="A297" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>5</v>
@@ -5576,10 +5598,10 @@
     </row>
     <row r="298" ht="17.25" customHeight="1" spans="1:3">
       <c r="A298" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>5</v>
@@ -5587,10 +5609,10 @@
     </row>
     <row r="299" ht="17.25" customHeight="1" spans="1:3">
       <c r="A299" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>5</v>
@@ -5598,10 +5620,10 @@
     </row>
     <row r="300" ht="17.25" customHeight="1" spans="1:3">
       <c r="A300" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>5</v>
@@ -5609,10 +5631,10 @@
     </row>
     <row r="301" ht="17.25" customHeight="1" spans="1:3">
       <c r="A301" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>5</v>
@@ -5620,10 +5642,10 @@
     </row>
     <row r="302" ht="17.25" customHeight="1" spans="1:3">
       <c r="A302" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>5</v>
@@ -5631,10 +5653,10 @@
     </row>
     <row r="303" ht="17.25" customHeight="1" spans="1:3">
       <c r="A303" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>5</v>
@@ -5642,10 +5664,10 @@
     </row>
     <row r="304" ht="17.25" customHeight="1" spans="1:3">
       <c r="A304" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>5</v>
@@ -5653,10 +5675,10 @@
     </row>
     <row r="305" ht="17.25" customHeight="1" spans="1:3">
       <c r="A305" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>5</v>
@@ -5664,10 +5686,10 @@
     </row>
     <row r="306" ht="17.25" customHeight="1" spans="1:3">
       <c r="A306" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>5</v>
@@ -5675,10 +5697,10 @@
     </row>
     <row r="307" ht="17.25" customHeight="1" spans="1:3">
       <c r="A307" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>5</v>
@@ -5686,10 +5708,10 @@
     </row>
     <row r="308" ht="17.25" customHeight="1" spans="1:3">
       <c r="A308" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>5</v>
@@ -5697,10 +5719,10 @@
     </row>
     <row r="309" ht="17.25" customHeight="1" spans="1:3">
       <c r="A309" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>5</v>
@@ -5708,10 +5730,10 @@
     </row>
     <row r="310" ht="17.25" customHeight="1" spans="1:3">
       <c r="A310" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>5</v>
@@ -5719,10 +5741,10 @@
     </row>
     <row r="311" ht="17.25" customHeight="1" spans="1:3">
       <c r="A311" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>5</v>
@@ -5730,10 +5752,10 @@
     </row>
     <row r="312" ht="17.25" customHeight="1" spans="1:3">
       <c r="A312" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>5</v>
@@ -5741,10 +5763,10 @@
     </row>
     <row r="313" ht="17.25" customHeight="1" spans="1:3">
       <c r="A313" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>5</v>
@@ -5752,10 +5774,10 @@
     </row>
     <row r="314" ht="17.25" customHeight="1" spans="1:3">
       <c r="A314" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>5</v>
@@ -5763,10 +5785,10 @@
     </row>
     <row r="315" ht="17.25" customHeight="1" spans="1:3">
       <c r="A315" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>5</v>
@@ -5774,10 +5796,10 @@
     </row>
     <row r="316" ht="17.25" customHeight="1" spans="1:3">
       <c r="A316" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>5</v>
@@ -5785,10 +5807,10 @@
     </row>
     <row r="317" ht="17.25" customHeight="1" spans="1:3">
       <c r="A317" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>5</v>
@@ -5796,10 +5818,10 @@
     </row>
     <row r="318" ht="17.25" customHeight="1" spans="1:3">
       <c r="A318" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>5</v>
@@ -5807,10 +5829,10 @@
     </row>
     <row r="319" ht="17.25" customHeight="1" spans="1:3">
       <c r="A319" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>5</v>
@@ -5818,10 +5840,10 @@
     </row>
     <row r="320" ht="17.25" customHeight="1" spans="1:3">
       <c r="A320" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>5</v>
@@ -5829,10 +5851,10 @@
     </row>
     <row r="321" ht="17.25" customHeight="1" spans="1:3">
       <c r="A321" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>5</v>
@@ -5840,10 +5862,10 @@
     </row>
     <row r="322" ht="17.25" customHeight="1" spans="1:3">
       <c r="A322" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>5</v>
@@ -5851,10 +5873,10 @@
     </row>
     <row r="323" ht="17.25" customHeight="1" spans="1:3">
       <c r="A323" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>5</v>
@@ -5862,10 +5884,10 @@
     </row>
     <row r="324" ht="17.25" customHeight="1" spans="1:3">
       <c r="A324" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>5</v>
@@ -5873,10 +5895,10 @@
     </row>
     <row r="325" ht="17.25" customHeight="1" spans="1:3">
       <c r="A325" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>5</v>
@@ -5884,10 +5906,10 @@
     </row>
     <row r="326" ht="17.25" customHeight="1" spans="1:3">
       <c r="A326" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>5</v>
@@ -5895,10 +5917,10 @@
     </row>
     <row r="327" ht="17.25" customHeight="1" spans="1:3">
       <c r="A327" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>5</v>
@@ -5906,10 +5928,10 @@
     </row>
     <row r="328" ht="17.25" customHeight="1" spans="1:3">
       <c r="A328" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>5</v>
@@ -5917,10 +5939,10 @@
     </row>
     <row r="329" ht="17.25" customHeight="1" spans="1:3">
       <c r="A329" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>5</v>
@@ -5928,10 +5950,10 @@
     </row>
     <row r="330" ht="17.25" customHeight="1" spans="1:3">
       <c r="A330" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>5</v>
@@ -5939,10 +5961,10 @@
     </row>
     <row r="331" ht="17.25" customHeight="1" spans="1:3">
       <c r="A331" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>5</v>
@@ -5950,10 +5972,10 @@
     </row>
     <row r="332" ht="17.25" customHeight="1" spans="1:3">
       <c r="A332" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>5</v>
@@ -5961,29 +5983,29 @@
     </row>
     <row r="333" ht="17.25" customHeight="1" spans="1:3">
       <c r="A333" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="334" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B334" s="10"/>
+      <c r="B334" s="12"/>
       <c r="C334" s="7"/>
     </row>
     <row r="335" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B335" s="10"/>
+      <c r="B335" s="12"/>
       <c r="C335" s="7"/>
     </row>
     <row r="336" ht="17.25" customHeight="1" spans="1:3">
       <c r="A336" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>5</v>
@@ -5991,10 +6013,10 @@
     </row>
     <row r="337" ht="17.25" customHeight="1" spans="1:3">
       <c r="A337" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>5</v>
@@ -6002,10 +6024,10 @@
     </row>
     <row r="338" ht="17.25" customHeight="1" spans="1:3">
       <c r="A338" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>5</v>
@@ -6013,10 +6035,10 @@
     </row>
     <row r="339" ht="17.25" customHeight="1" spans="1:3">
       <c r="A339" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>5</v>
@@ -6024,10 +6046,10 @@
     </row>
     <row r="340" ht="17.25" customHeight="1" spans="1:3">
       <c r="A340" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>5</v>
@@ -6035,10 +6057,10 @@
     </row>
     <row r="341" ht="17.25" customHeight="1" spans="1:3">
       <c r="A341" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>5</v>
@@ -6046,10 +6068,10 @@
     </row>
     <row r="342" ht="17.25" customHeight="1" spans="1:3">
       <c r="A342" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>5</v>
@@ -6057,10 +6079,10 @@
     </row>
     <row r="343" ht="17.25" customHeight="1" spans="1:3">
       <c r="A343" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>5</v>
@@ -6068,10 +6090,10 @@
     </row>
     <row r="344" ht="17.25" customHeight="1" spans="1:3">
       <c r="A344" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>5</v>
@@ -6079,10 +6101,10 @@
     </row>
     <row r="345" ht="17.25" customHeight="1" spans="1:3">
       <c r="A345" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>5</v>
@@ -6090,10 +6112,10 @@
     </row>
     <row r="346" ht="17.25" customHeight="1" spans="1:3">
       <c r="A346" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>5</v>
@@ -6101,10 +6123,10 @@
     </row>
     <row r="347" ht="17.25" customHeight="1" spans="1:3">
       <c r="A347" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>5</v>
@@ -6112,10 +6134,10 @@
     </row>
     <row r="348" ht="17.25" customHeight="1" spans="1:3">
       <c r="A348" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>5</v>
@@ -6123,10 +6145,10 @@
     </row>
     <row r="349" ht="17.25" customHeight="1" spans="1:3">
       <c r="A349" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>5</v>
@@ -6134,10 +6156,10 @@
     </row>
     <row r="350" ht="17.25" customHeight="1" spans="1:3">
       <c r="A350" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>5</v>
@@ -6145,10 +6167,10 @@
     </row>
     <row r="351" ht="17.25" customHeight="1" spans="1:3">
       <c r="A351" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>5</v>
@@ -6156,10 +6178,10 @@
     </row>
     <row r="352" ht="17.25" customHeight="1" spans="1:3">
       <c r="A352" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>5</v>
@@ -6167,29 +6189,29 @@
     </row>
     <row r="353" ht="17.25" customHeight="1" spans="1:3">
       <c r="A353" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="354" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B354" s="10"/>
+      <c r="B354" s="12"/>
       <c r="C354" s="7"/>
     </row>
     <row r="355" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B355" s="10"/>
+      <c r="B355" s="12"/>
       <c r="C355" s="7"/>
     </row>
     <row r="356" ht="17.25" customHeight="1" spans="1:3">
       <c r="A356" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>5</v>
@@ -6197,10 +6219,10 @@
     </row>
     <row r="357" ht="17.25" customHeight="1" spans="1:3">
       <c r="A357" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>5</v>
@@ -6208,10 +6230,10 @@
     </row>
     <row r="358" ht="17.25" customHeight="1" spans="1:3">
       <c r="A358" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>5</v>
@@ -6219,10 +6241,10 @@
     </row>
     <row r="359" ht="17.25" customHeight="1" spans="1:3">
       <c r="A359" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>5</v>
@@ -6230,10 +6252,10 @@
     </row>
     <row r="360" ht="17.25" customHeight="1" spans="1:3">
       <c r="A360" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>5</v>
@@ -6241,10 +6263,10 @@
     </row>
     <row r="361" ht="17.25" customHeight="1" spans="1:3">
       <c r="A361" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>5</v>
@@ -6252,10 +6274,10 @@
     </row>
     <row r="362" ht="17.25" customHeight="1" spans="1:3">
       <c r="A362" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>5</v>
@@ -6263,10 +6285,10 @@
     </row>
     <row r="363" ht="17.25" customHeight="1" spans="1:3">
       <c r="A363" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>5</v>
@@ -6274,10 +6296,10 @@
     </row>
     <row r="364" ht="17.25" customHeight="1" spans="1:3">
       <c r="A364" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>5</v>
@@ -6285,10 +6307,10 @@
     </row>
     <row r="365" ht="17.25" customHeight="1" spans="1:3">
       <c r="A365" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>5</v>
@@ -6296,10 +6318,10 @@
     </row>
     <row r="366" ht="17.25" customHeight="1" spans="1:3">
       <c r="A366" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>5</v>
@@ -6307,10 +6329,10 @@
     </row>
     <row r="367" ht="17.25" customHeight="1" spans="1:3">
       <c r="A367" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>5</v>
@@ -6318,10 +6340,10 @@
     </row>
     <row r="368" ht="17.25" customHeight="1" spans="1:3">
       <c r="A368" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>5</v>
@@ -6329,10 +6351,10 @@
     </row>
     <row r="369" ht="17.25" customHeight="1" spans="1:3">
       <c r="A369" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>5</v>
@@ -6340,10 +6362,10 @@
     </row>
     <row r="370" ht="17.25" customHeight="1" spans="1:3">
       <c r="A370" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>5</v>
@@ -6351,10 +6373,10 @@
     </row>
     <row r="371" ht="17.25" customHeight="1" spans="1:3">
       <c r="A371" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>5</v>
@@ -6362,10 +6384,10 @@
     </row>
     <row r="372" ht="17.25" customHeight="1" spans="1:3">
       <c r="A372" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>5</v>
@@ -6373,10 +6395,10 @@
     </row>
     <row r="373" ht="17.25" customHeight="1" spans="1:3">
       <c r="A373" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>5</v>
@@ -6384,10 +6406,10 @@
     </row>
     <row r="374" ht="17.25" customHeight="1" spans="1:3">
       <c r="A374" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>5</v>
@@ -6395,10 +6417,10 @@
     </row>
     <row r="375" ht="17.25" customHeight="1" spans="1:3">
       <c r="A375" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>5</v>
@@ -6406,10 +6428,10 @@
     </row>
     <row r="376" ht="17.25" customHeight="1" spans="1:3">
       <c r="A376" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>5</v>
@@ -6417,10 +6439,10 @@
     </row>
     <row r="377" ht="17.25" customHeight="1" spans="1:3">
       <c r="A377" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>5</v>
@@ -6428,10 +6450,10 @@
     </row>
     <row r="378" ht="17.25" customHeight="1" spans="1:3">
       <c r="A378" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>5</v>
@@ -6439,10 +6461,10 @@
     </row>
     <row r="379" ht="17.25" customHeight="1" spans="1:3">
       <c r="A379" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>5</v>
@@ -6450,10 +6472,10 @@
     </row>
     <row r="380" ht="17.25" customHeight="1" spans="1:3">
       <c r="A380" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>5</v>
@@ -6461,10 +6483,10 @@
     </row>
     <row r="381" ht="17.25" customHeight="1" spans="1:3">
       <c r="A381" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>5</v>
@@ -6472,10 +6494,10 @@
     </row>
     <row r="382" ht="17.25" customHeight="1" spans="1:3">
       <c r="A382" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>5</v>
@@ -6483,10 +6505,10 @@
     </row>
     <row r="383" ht="17.25" customHeight="1" spans="1:3">
       <c r="A383" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>5</v>
@@ -6494,10 +6516,10 @@
     </row>
     <row r="384" ht="17.25" customHeight="1" spans="1:3">
       <c r="A384" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>5</v>
@@ -6505,10 +6527,10 @@
     </row>
     <row r="385" ht="17.25" customHeight="1" spans="1:3">
       <c r="A385" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>5</v>
@@ -6516,10 +6538,10 @@
     </row>
     <row r="386" ht="17.25" customHeight="1" spans="1:3">
       <c r="A386" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>5</v>
@@ -6527,10 +6549,10 @@
     </row>
     <row r="387" ht="17.25" customHeight="1" spans="1:3">
       <c r="A387" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>5</v>
@@ -6538,10 +6560,10 @@
     </row>
     <row r="388" ht="17.25" customHeight="1" spans="1:3">
       <c r="A388" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>5</v>
@@ -6549,10 +6571,10 @@
     </row>
     <row r="389" ht="17.25" customHeight="1" spans="1:3">
       <c r="A389" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>5</v>
@@ -6560,10 +6582,10 @@
     </row>
     <row r="390" ht="17.25" customHeight="1" spans="1:3">
       <c r="A390" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>5</v>
@@ -6571,10 +6593,10 @@
     </row>
     <row r="391" ht="17.25" customHeight="1" spans="1:3">
       <c r="A391" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>5</v>
@@ -6582,10 +6604,10 @@
     </row>
     <row r="392" ht="17.25" customHeight="1" spans="1:3">
       <c r="A392" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>5</v>
@@ -6593,10 +6615,10 @@
     </row>
     <row r="393" ht="17.25" customHeight="1" spans="1:3">
       <c r="A393" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>5</v>
@@ -6604,10 +6626,10 @@
     </row>
     <row r="394" ht="17.25" customHeight="1" spans="1:3">
       <c r="A394" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>5</v>
@@ -6615,10 +6637,10 @@
     </row>
     <row r="395" ht="17.25" customHeight="1" spans="1:3">
       <c r="A395" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>5</v>
@@ -6626,10 +6648,10 @@
     </row>
     <row r="396" ht="17.25" customHeight="1" spans="1:3">
       <c r="A396" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>5</v>
@@ -6637,10 +6659,10 @@
     </row>
     <row r="397" ht="17.25" customHeight="1" spans="1:3">
       <c r="A397" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>5</v>
@@ -6648,10 +6670,10 @@
     </row>
     <row r="398" ht="17.25" customHeight="1" spans="1:3">
       <c r="A398" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>5</v>
@@ -6659,29 +6681,29 @@
     </row>
     <row r="399" ht="17.25" customHeight="1" spans="1:3">
       <c r="A399" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="400" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B400" s="10"/>
+      <c r="B400" s="12"/>
       <c r="C400" s="7"/>
     </row>
     <row r="401" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B401" s="10"/>
+      <c r="B401" s="12"/>
       <c r="C401" s="7"/>
     </row>
     <row r="402" ht="17.25" customHeight="1" spans="1:3">
       <c r="A402" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>5</v>
@@ -6689,10 +6711,10 @@
     </row>
     <row r="403" ht="17.25" customHeight="1" spans="1:3">
       <c r="A403" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>5</v>
@@ -6700,10 +6722,10 @@
     </row>
     <row r="404" ht="17.25" customHeight="1" spans="1:3">
       <c r="A404" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>5</v>
@@ -6711,10 +6733,10 @@
     </row>
     <row r="405" ht="17.25" customHeight="1" spans="1:3">
       <c r="A405" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>5</v>
@@ -6722,10 +6744,10 @@
     </row>
     <row r="406" ht="17.25" customHeight="1" spans="1:3">
       <c r="A406" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>5</v>
@@ -6733,29 +6755,29 @@
     </row>
     <row r="407" ht="17.25" customHeight="1" spans="1:3">
       <c r="A407" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="408" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B408" s="10"/>
+      <c r="B408" s="12"/>
       <c r="C408" s="7"/>
     </row>
     <row r="409" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B409" s="10"/>
+      <c r="B409" s="12"/>
       <c r="C409" s="7"/>
     </row>
     <row r="410" ht="17.25" customHeight="1" spans="1:3">
       <c r="A410" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>5</v>
@@ -6763,10 +6785,10 @@
     </row>
     <row r="411" ht="17.25" customHeight="1" spans="1:3">
       <c r="A411" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>5</v>
@@ -6774,10 +6796,10 @@
     </row>
     <row r="412" ht="17.25" customHeight="1" spans="1:3">
       <c r="A412" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>5</v>
@@ -6785,10 +6807,10 @@
     </row>
     <row r="413" ht="17.25" customHeight="1" spans="1:3">
       <c r="A413" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>5</v>
@@ -6796,10 +6818,10 @@
     </row>
     <row r="414" ht="17.25" customHeight="1" spans="1:3">
       <c r="A414" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>5</v>
@@ -6807,10 +6829,10 @@
     </row>
     <row r="415" ht="17.25" customHeight="1" spans="1:3">
       <c r="A415" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>5</v>
@@ -6818,10 +6840,10 @@
     </row>
     <row r="416" ht="17.25" customHeight="1" spans="1:3">
       <c r="A416" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>5</v>
@@ -6829,10 +6851,10 @@
     </row>
     <row r="417" ht="17.25" customHeight="1" spans="1:3">
       <c r="A417" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>5</v>
@@ -6840,10 +6862,10 @@
     </row>
     <row r="418" ht="17.25" customHeight="1" spans="1:3">
       <c r="A418" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>5</v>
@@ -6851,10 +6873,10 @@
     </row>
     <row r="419" ht="17.25" customHeight="1" spans="1:3">
       <c r="A419" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>5</v>
@@ -6862,10 +6884,10 @@
     </row>
     <row r="420" ht="17.25" customHeight="1" spans="1:3">
       <c r="A420" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>5</v>
@@ -6873,10 +6895,10 @@
     </row>
     <row r="421" ht="17.25" customHeight="1" spans="1:3">
       <c r="A421" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>5</v>
@@ -6884,10 +6906,10 @@
     </row>
     <row r="422" ht="17.25" customHeight="1" spans="1:3">
       <c r="A422" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>5</v>
@@ -6895,10 +6917,10 @@
     </row>
     <row r="423" ht="17.25" customHeight="1" spans="1:3">
       <c r="A423" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>5</v>
@@ -6906,10 +6928,10 @@
     </row>
     <row r="424" ht="17.25" customHeight="1" spans="1:3">
       <c r="A424" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>5</v>
@@ -6917,10 +6939,10 @@
     </row>
     <row r="425" ht="17.25" customHeight="1" spans="1:3">
       <c r="A425" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>5</v>
@@ -6928,10 +6950,10 @@
     </row>
     <row r="426" ht="17.25" customHeight="1" spans="1:3">
       <c r="A426" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>5</v>
@@ -6939,10 +6961,10 @@
     </row>
     <row r="427" ht="17.25" customHeight="1" spans="1:3">
       <c r="A427" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>5</v>
@@ -6950,10 +6972,10 @@
     </row>
     <row r="428" ht="17.25" customHeight="1" spans="1:3">
       <c r="A428" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>5</v>
@@ -6961,10 +6983,10 @@
     </row>
     <row r="429" ht="17.25" customHeight="1" spans="1:3">
       <c r="A429" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>5</v>
@@ -6972,10 +6994,10 @@
     </row>
     <row r="430" ht="17.25" customHeight="1" spans="1:3">
       <c r="A430" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>5</v>
@@ -6983,10 +7005,10 @@
     </row>
     <row r="431" ht="17.25" customHeight="1" spans="1:3">
       <c r="A431" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>5</v>
@@ -6994,10 +7016,10 @@
     </row>
     <row r="432" ht="17.25" customHeight="1" spans="1:3">
       <c r="A432" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>5</v>
@@ -7005,10 +7027,10 @@
     </row>
     <row r="433" ht="17.25" customHeight="1" spans="1:3">
       <c r="A433" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>5</v>
@@ -7016,10 +7038,10 @@
     </row>
     <row r="434" ht="17.25" customHeight="1" spans="1:3">
       <c r="A434" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>5</v>
@@ -7027,10 +7049,10 @@
     </row>
     <row r="435" ht="17.25" customHeight="1" spans="1:3">
       <c r="A435" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>5</v>
@@ -7038,10 +7060,10 @@
     </row>
     <row r="436" ht="17.25" customHeight="1" spans="1:3">
       <c r="A436" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>5</v>
@@ -7049,10 +7071,10 @@
     </row>
     <row r="437" ht="17.25" customHeight="1" spans="1:3">
       <c r="A437" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>5</v>
@@ -7060,10 +7082,10 @@
     </row>
     <row r="438" ht="17.25" customHeight="1" spans="1:3">
       <c r="A438" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>5</v>
@@ -7071,10 +7093,10 @@
     </row>
     <row r="439" ht="17.25" customHeight="1" spans="1:3">
       <c r="A439" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>5</v>
@@ -7082,10 +7104,10 @@
     </row>
     <row r="440" ht="17.25" customHeight="1" spans="1:3">
       <c r="A440" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>5</v>
@@ -7093,10 +7115,10 @@
     </row>
     <row r="441" ht="17.25" customHeight="1" spans="1:3">
       <c r="A441" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>5</v>
@@ -7104,10 +7126,10 @@
     </row>
     <row r="442" ht="17.25" customHeight="1" spans="1:3">
       <c r="A442" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>5</v>
@@ -7115,10 +7137,10 @@
     </row>
     <row r="443" ht="17.25" customHeight="1" spans="1:3">
       <c r="A443" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>5</v>
@@ -7126,10 +7148,10 @@
     </row>
     <row r="444" ht="17.25" customHeight="1" spans="1:3">
       <c r="A444" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>5</v>
@@ -7137,10 +7159,10 @@
     </row>
     <row r="445" ht="17.25" customHeight="1" spans="1:3">
       <c r="A445" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>5</v>
@@ -7148,10 +7170,10 @@
     </row>
     <row r="446" ht="17.25" customHeight="1" spans="1:3">
       <c r="A446" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>5</v>
@@ -7159,10 +7181,10 @@
     </row>
     <row r="447" ht="17.25" customHeight="1" spans="1:3">
       <c r="A447" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>5</v>
@@ -7170,10 +7192,10 @@
     </row>
     <row r="448" ht="17.25" customHeight="1" spans="1:3">
       <c r="A448" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>5</v>
@@ -7181,10 +7203,10 @@
     </row>
     <row r="449" ht="17.25" customHeight="1" spans="1:3">
       <c r="A449" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>5</v>
@@ -7192,10 +7214,10 @@
     </row>
     <row r="450" ht="17.25" customHeight="1" spans="1:3">
       <c r="A450" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>5</v>
@@ -7203,10 +7225,10 @@
     </row>
     <row r="451" ht="17.25" customHeight="1" spans="1:3">
       <c r="A451" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>5</v>
@@ -7214,10 +7236,10 @@
     </row>
     <row r="452" ht="17.25" customHeight="1" spans="1:3">
       <c r="A452" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>5</v>
@@ -7225,10 +7247,10 @@
     </row>
     <row r="453" ht="17.25" customHeight="1" spans="1:3">
       <c r="A453" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>5</v>
@@ -7236,10 +7258,10 @@
     </row>
     <row r="454" ht="17.25" customHeight="1" spans="1:3">
       <c r="A454" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>5</v>
@@ -7247,10 +7269,10 @@
     </row>
     <row r="455" ht="17.25" customHeight="1" spans="1:3">
       <c r="A455" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>5</v>
@@ -7258,10 +7280,10 @@
     </row>
     <row r="456" ht="17.25" customHeight="1" spans="1:3">
       <c r="A456" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>5</v>
@@ -7269,10 +7291,10 @@
     </row>
     <row r="457" ht="17.25" customHeight="1" spans="1:3">
       <c r="A457" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>5</v>
@@ -7280,10 +7302,10 @@
     </row>
     <row r="458" ht="17.25" customHeight="1" spans="1:3">
       <c r="A458" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>5</v>
@@ -7291,10 +7313,10 @@
     </row>
     <row r="459" ht="17.25" customHeight="1" spans="1:3">
       <c r="A459" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>5</v>
@@ -7302,10 +7324,10 @@
     </row>
     <row r="460" ht="17.25" customHeight="1" spans="1:3">
       <c r="A460" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>5</v>
@@ -7313,10 +7335,10 @@
     </row>
     <row r="461" ht="17.25" customHeight="1" spans="1:3">
       <c r="A461" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>5</v>
@@ -7324,10 +7346,10 @@
     </row>
     <row r="462" ht="17.25" customHeight="1" spans="1:3">
       <c r="A462" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>5</v>
@@ -7335,10 +7357,10 @@
     </row>
     <row r="463" ht="17.25" customHeight="1" spans="1:3">
       <c r="A463" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>5</v>
@@ -7346,10 +7368,10 @@
     </row>
     <row r="464" ht="17.25" customHeight="1" spans="1:3">
       <c r="A464" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>5</v>
@@ -7357,10 +7379,10 @@
     </row>
     <row r="465" ht="17.25" customHeight="1" spans="1:3">
       <c r="A465" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>5</v>
@@ -7368,10 +7390,10 @@
     </row>
     <row r="466" ht="17.25" customHeight="1" spans="1:3">
       <c r="A466" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>5</v>
@@ -7379,10 +7401,10 @@
     </row>
     <row r="467" ht="17.25" customHeight="1" spans="1:3">
       <c r="A467" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>5</v>
@@ -7390,10 +7412,10 @@
     </row>
     <row r="468" ht="17.25" customHeight="1" spans="1:3">
       <c r="A468" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>5</v>
@@ -7401,30 +7423,30 @@
     </row>
     <row r="469" ht="17.25" customHeight="1" spans="1:3">
       <c r="A469" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="470" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B470" s="10"/>
+      <c r="B470" s="12"/>
       <c r="C470" s="7"/>
     </row>
     <row r="471" ht="17.25" customHeight="1" spans="1:3">
       <c r="A471" s="8"/>
-      <c r="B471" s="10"/>
+      <c r="B471" s="12"/>
       <c r="C471" s="7"/>
     </row>
     <row r="472" ht="17.25" customHeight="1" spans="1:3">
       <c r="A472" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>5</v>
@@ -7432,10 +7454,10 @@
     </row>
     <row r="473" ht="17.25" customHeight="1" spans="1:3">
       <c r="A473" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>5</v>
@@ -7443,10 +7465,10 @@
     </row>
     <row r="474" ht="17.25" customHeight="1" spans="1:3">
       <c r="A474" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>5</v>
@@ -7454,10 +7476,10 @@
     </row>
     <row r="475" ht="17.25" customHeight="1" spans="1:3">
       <c r="A475" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>5</v>
@@ -7465,10 +7487,10 @@
     </row>
     <row r="476" ht="17.25" customHeight="1" spans="1:3">
       <c r="A476" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>5</v>
@@ -7476,10 +7498,10 @@
     </row>
     <row r="477" ht="17.25" customHeight="1" spans="1:3">
       <c r="A477" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>5</v>
@@ -7487,10 +7509,10 @@
     </row>
     <row r="478" ht="17.25" customHeight="1" spans="1:3">
       <c r="A478" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>5</v>
@@ -7498,10 +7520,10 @@
     </row>
     <row r="479" ht="17.25" customHeight="1" spans="1:3">
       <c r="A479" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>5</v>
@@ -7509,10 +7531,10 @@
     </row>
     <row r="480" ht="17.25" customHeight="1" spans="1:3">
       <c r="A480" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>5</v>
@@ -7520,10 +7542,10 @@
     </row>
     <row r="481" ht="17.25" customHeight="1" spans="1:3">
       <c r="A481" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>5</v>

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -67,40 +67,43 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
   </si>
   <si>
     <t>Find if there is any subarray with sum equal to 0</t>
@@ -1422,12 +1425,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1491,52 +1494,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,62 +1529,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,7 +1553,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,8 +1604,54 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1650,7 +1660,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,97 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,13 +1822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,13 +1840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,38 +1850,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1845,57 +1861,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1924,6 +1899,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1944,152 +1975,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2123,6 +2154,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2475,8 +2515,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2609,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:3">
@@ -2617,10 +2657,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:3">
@@ -2628,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -2639,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>8</v>
@@ -2649,11 +2689,11 @@
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>17</v>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:3">
@@ -2661,21 +2701,21 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>5</v>
+      <c r="B20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:3">
@@ -2683,10 +2723,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:3">
@@ -2694,10 +2734,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="1:3">
@@ -2705,10 +2745,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="1:3">
@@ -2719,18 +2759,18 @@
         <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="1:3">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>5</v>
+      <c r="C25" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="1:3">
@@ -2738,10 +2778,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="1:3">
@@ -2749,7 +2789,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>5</v>
@@ -2760,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>5</v>
@@ -2771,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>5</v>
@@ -2782,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -2793,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>5</v>
@@ -2804,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>5</v>
@@ -2815,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>5</v>
@@ -2826,7 +2866,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>5</v>
@@ -2837,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>5</v>
@@ -2848,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>5</v>
@@ -2859,7 +2899,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>5</v>
@@ -2870,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>5</v>
@@ -2881,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>5</v>
@@ -2892,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>5</v>
@@ -2903,31 +2943,31 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" spans="1:3">
       <c r="A43" s="8"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>5</v>
@@ -2935,10 +2975,10 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
@@ -2946,10 +2986,10 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>5</v>
@@ -2957,10 +2997,10 @@
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5</v>
@@ -2968,10 +3008,10 @@
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5</v>
@@ -2979,10 +3019,10 @@
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>5</v>
@@ -2990,10 +3030,10 @@
     </row>
     <row r="50" ht="17.25" customHeight="1" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>5</v>
@@ -3001,10 +3041,10 @@
     </row>
     <row r="51" ht="17.25" customHeight="1" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -3012,10 +3052,10 @@
     </row>
     <row r="52" ht="17.25" customHeight="1" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5</v>
@@ -3023,10 +3063,10 @@
     </row>
     <row r="53" ht="17.25" customHeight="1" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>5</v>
@@ -3035,15 +3075,15 @@
     <row r="54" ht="17.25" customHeight="1"/>
     <row r="55" ht="17.25" customHeight="1" spans="1:3">
       <c r="A55" s="8"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" ht="17.25" customHeight="1" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>5</v>
@@ -3051,10 +3091,10 @@
     </row>
     <row r="57" ht="17.25" customHeight="1" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>5</v>
@@ -3062,10 +3102,10 @@
     </row>
     <row r="58" ht="17.25" customHeight="1" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>5</v>
@@ -3073,10 +3113,10 @@
     </row>
     <row r="59" ht="17.25" customHeight="1" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
@@ -3084,10 +3124,10 @@
     </row>
     <row r="60" ht="17.25" customHeight="1" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>5</v>
@@ -3095,10 +3135,10 @@
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>5</v>
@@ -3106,10 +3146,10 @@
     </row>
     <row r="62" ht="17.25" customHeight="1" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>5</v>
@@ -3117,10 +3157,10 @@
     </row>
     <row r="63" ht="17.25" customHeight="1" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>5</v>
@@ -3128,10 +3168,10 @@
     </row>
     <row r="64" ht="17.25" customHeight="1" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -3139,10 +3179,10 @@
     </row>
     <row r="65" ht="17.25" customHeight="1" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>5</v>
@@ -3150,10 +3190,10 @@
     </row>
     <row r="66" ht="17.25" customHeight="1" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>5</v>
@@ -3161,10 +3201,10 @@
     </row>
     <row r="67" ht="17.25" customHeight="1" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>5</v>
@@ -3172,10 +3212,10 @@
     </row>
     <row r="68" ht="17.25" customHeight="1" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>5</v>
@@ -3183,10 +3223,10 @@
     </row>
     <row r="69" ht="17.25" customHeight="1" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>5</v>
@@ -3194,10 +3234,10 @@
     </row>
     <row r="70" ht="17.25" customHeight="1" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>5</v>
@@ -3205,10 +3245,10 @@
     </row>
     <row r="71" ht="17.25" customHeight="1" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>5</v>
@@ -3216,10 +3256,10 @@
     </row>
     <row r="72" ht="17.25" customHeight="1" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>5</v>
@@ -3227,10 +3267,10 @@
     </row>
     <row r="73" ht="17.25" customHeight="1" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>5</v>
@@ -3238,10 +3278,10 @@
     </row>
     <row r="74" ht="17.25" customHeight="1" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>5</v>
@@ -3249,10 +3289,10 @@
     </row>
     <row r="75" ht="17.25" customHeight="1" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>5</v>
@@ -3260,10 +3300,10 @@
     </row>
     <row r="76" ht="17.25" customHeight="1" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>5</v>
@@ -3271,10 +3311,10 @@
     </row>
     <row r="77" ht="17.25" customHeight="1" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>5</v>
@@ -3282,10 +3322,10 @@
     </row>
     <row r="78" ht="17.25" customHeight="1" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>5</v>
@@ -3293,10 +3333,10 @@
     </row>
     <row r="79" ht="17.25" customHeight="1" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>5</v>
@@ -3304,10 +3344,10 @@
     </row>
     <row r="80" ht="17.25" customHeight="1" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5</v>
@@ -3315,10 +3355,10 @@
     </row>
     <row r="81" ht="17.25" customHeight="1" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>5</v>
@@ -3326,10 +3366,10 @@
     </row>
     <row r="82" ht="17.25" customHeight="1" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>5</v>
@@ -3337,10 +3377,10 @@
     </row>
     <row r="83" ht="17.25" customHeight="1" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>5</v>
@@ -3348,10 +3388,10 @@
     </row>
     <row r="84" ht="17.25" customHeight="1" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>5</v>
@@ -3359,10 +3399,10 @@
     </row>
     <row r="85" ht="17.25" customHeight="1" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>5</v>
@@ -3370,10 +3410,10 @@
     </row>
     <row r="86" ht="17.25" customHeight="1" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>5</v>
@@ -3381,10 +3421,10 @@
     </row>
     <row r="87" ht="17.25" customHeight="1" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>5</v>
@@ -3392,10 +3432,10 @@
     </row>
     <row r="88" ht="17.25" customHeight="1" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>5</v>
@@ -3403,10 +3443,10 @@
     </row>
     <row r="89" ht="17.25" customHeight="1" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>5</v>
@@ -3414,10 +3454,10 @@
     </row>
     <row r="90" ht="17.25" customHeight="1" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>5</v>
@@ -3425,10 +3465,10 @@
     </row>
     <row r="91" ht="17.25" customHeight="1" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>5</v>
@@ -3436,10 +3476,10 @@
     </row>
     <row r="92" ht="17.25" customHeight="1" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>5</v>
@@ -3447,10 +3487,10 @@
     </row>
     <row r="93" ht="17.25" customHeight="1" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>5</v>
@@ -3458,10 +3498,10 @@
     </row>
     <row r="94" ht="17.25" customHeight="1" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>5</v>
@@ -3469,10 +3509,10 @@
     </row>
     <row r="95" ht="17.25" customHeight="1" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>5</v>
@@ -3480,10 +3520,10 @@
     </row>
     <row r="96" ht="17.25" customHeight="1" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>5</v>
@@ -3491,10 +3531,10 @@
     </row>
     <row r="97" ht="17.25" customHeight="1" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>5</v>
@@ -3502,10 +3542,10 @@
     </row>
     <row r="98" ht="17.25" customHeight="1" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>5</v>
@@ -3514,15 +3554,15 @@
     <row r="99" ht="17.25" customHeight="1"/>
     <row r="100" ht="17.25" customHeight="1" spans="1:3">
       <c r="A100" s="8"/>
-      <c r="B100" s="12"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="7"/>
     </row>
     <row r="101" ht="17.25" customHeight="1" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>5</v>
@@ -3530,10 +3570,10 @@
     </row>
     <row r="102" ht="17.25" customHeight="1" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>5</v>
@@ -3541,10 +3581,10 @@
     </row>
     <row r="103" ht="17.25" customHeight="1" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>5</v>
@@ -3552,10 +3592,10 @@
     </row>
     <row r="104" ht="17.25" customHeight="1" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>5</v>
@@ -3563,10 +3603,10 @@
     </row>
     <row r="105" ht="17.25" customHeight="1" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>5</v>
@@ -3574,10 +3614,10 @@
     </row>
     <row r="106" ht="17.25" customHeight="1" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>5</v>
@@ -3585,10 +3625,10 @@
     </row>
     <row r="107" ht="17.25" customHeight="1" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>5</v>
@@ -3596,10 +3636,10 @@
     </row>
     <row r="108" ht="17.25" customHeight="1" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>5</v>
@@ -3607,10 +3647,10 @@
     </row>
     <row r="109" ht="17.25" customHeight="1" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>5</v>
@@ -3618,10 +3658,10 @@
     </row>
     <row r="110" ht="17.25" customHeight="1" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>5</v>
@@ -3629,10 +3669,10 @@
     </row>
     <row r="111" ht="17.25" customHeight="1" spans="1:3">
       <c r="A111" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>5</v>
@@ -3640,10 +3680,10 @@
     </row>
     <row r="112" ht="17.25" customHeight="1" spans="1:3">
       <c r="A112" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>5</v>
@@ -3651,10 +3691,10 @@
     </row>
     <row r="113" ht="17.25" customHeight="1" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>5</v>
@@ -3662,10 +3702,10 @@
     </row>
     <row r="114" ht="17.25" customHeight="1" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>5</v>
@@ -3673,10 +3713,10 @@
     </row>
     <row r="115" ht="17.25" customHeight="1" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>5</v>
@@ -3684,10 +3724,10 @@
     </row>
     <row r="116" ht="17.25" customHeight="1" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>5</v>
@@ -3695,10 +3735,10 @@
     </row>
     <row r="117" ht="17.25" customHeight="1" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>5</v>
@@ -3706,10 +3746,10 @@
     </row>
     <row r="118" ht="17.25" customHeight="1" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>5</v>
@@ -3717,10 +3757,10 @@
     </row>
     <row r="119" ht="17.25" customHeight="1" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>5</v>
@@ -3728,10 +3768,10 @@
     </row>
     <row r="120" ht="17.25" customHeight="1" spans="1:3">
       <c r="A120" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>5</v>
@@ -3739,10 +3779,10 @@
     </row>
     <row r="121" ht="17.25" customHeight="1" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>5</v>
@@ -3750,10 +3790,10 @@
     </row>
     <row r="122" ht="17.25" customHeight="1" spans="1:3">
       <c r="A122" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>5</v>
@@ -3761,10 +3801,10 @@
     </row>
     <row r="123" ht="17.25" customHeight="1" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>5</v>
@@ -3772,10 +3812,10 @@
     </row>
     <row r="124" ht="17.25" customHeight="1" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>5</v>
@@ -3783,10 +3823,10 @@
     </row>
     <row r="125" ht="17.25" customHeight="1" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>5</v>
@@ -3794,10 +3834,10 @@
     </row>
     <row r="126" ht="17.25" customHeight="1" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>5</v>
@@ -3805,10 +3845,10 @@
     </row>
     <row r="127" ht="17.25" customHeight="1" spans="1:3">
       <c r="A127" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>5</v>
@@ -3816,10 +3856,10 @@
     </row>
     <row r="128" ht="17.25" customHeight="1" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>5</v>
@@ -3827,10 +3867,10 @@
     </row>
     <row r="129" ht="17.25" customHeight="1" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>5</v>
@@ -3838,10 +3878,10 @@
     </row>
     <row r="130" ht="17.25" customHeight="1" spans="1:3">
       <c r="A130" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>5</v>
@@ -3849,10 +3889,10 @@
     </row>
     <row r="131" ht="17.25" customHeight="1" spans="1:3">
       <c r="A131" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>5</v>
@@ -3860,10 +3900,10 @@
     </row>
     <row r="132" ht="17.25" customHeight="1" spans="1:3">
       <c r="A132" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>5</v>
@@ -3871,10 +3911,10 @@
     </row>
     <row r="133" ht="17.25" customHeight="1" spans="1:3">
       <c r="A133" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>5</v>
@@ -3882,10 +3922,10 @@
     </row>
     <row r="134" ht="17.25" customHeight="1" spans="1:3">
       <c r="A134" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>5</v>
@@ -3893,10 +3933,10 @@
     </row>
     <row r="135" ht="17.25" customHeight="1" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>5</v>
@@ -3904,10 +3944,10 @@
     </row>
     <row r="136" ht="17.25" customHeight="1" spans="1:3">
       <c r="A136" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>5</v>
@@ -3915,15 +3955,15 @@
     </row>
     <row r="137" ht="17.25" customHeight="1"/>
     <row r="138" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B138" s="12"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="7"/>
     </row>
     <row r="139" ht="17.25" customHeight="1" spans="1:3">
       <c r="A139" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>5</v>
@@ -3931,10 +3971,10 @@
     </row>
     <row r="140" ht="17.25" customHeight="1" spans="1:3">
       <c r="A140" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>5</v>
@@ -3942,10 +3982,10 @@
     </row>
     <row r="141" ht="17.25" customHeight="1" spans="1:3">
       <c r="A141" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>5</v>
@@ -3953,10 +3993,10 @@
     </row>
     <row r="142" ht="17.25" customHeight="1" spans="1:3">
       <c r="A142" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>5</v>
@@ -3964,10 +4004,10 @@
     </row>
     <row r="143" ht="17.25" customHeight="1" spans="1:3">
       <c r="A143" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>5</v>
@@ -3975,10 +4015,10 @@
     </row>
     <row r="144" ht="17.25" customHeight="1" spans="1:3">
       <c r="A144" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>5</v>
@@ -3986,10 +4026,10 @@
     </row>
     <row r="145" ht="17.25" customHeight="1" spans="1:3">
       <c r="A145" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>5</v>
@@ -3997,10 +4037,10 @@
     </row>
     <row r="146" ht="17.25" customHeight="1" spans="1:3">
       <c r="A146" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>5</v>
@@ -4008,10 +4048,10 @@
     </row>
     <row r="147" ht="17.25" customHeight="1" spans="1:3">
       <c r="A147" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>5</v>
@@ -4019,10 +4059,10 @@
     </row>
     <row r="148" ht="17.25" customHeight="1" spans="1:3">
       <c r="A148" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>5</v>
@@ -4030,10 +4070,10 @@
     </row>
     <row r="149" ht="17.25" customHeight="1" spans="1:3">
       <c r="A149" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>5</v>
@@ -4041,10 +4081,10 @@
     </row>
     <row r="150" ht="17.25" customHeight="1" spans="1:3">
       <c r="A150" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>5</v>
@@ -4052,10 +4092,10 @@
     </row>
     <row r="151" ht="17.25" customHeight="1" spans="1:3">
       <c r="A151" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>5</v>
@@ -4063,10 +4103,10 @@
     </row>
     <row r="152" ht="17.25" customHeight="1" spans="1:3">
       <c r="A152" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>5</v>
@@ -4074,10 +4114,10 @@
     </row>
     <row r="153" ht="17.25" customHeight="1" spans="1:3">
       <c r="A153" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>5</v>
@@ -4085,10 +4125,10 @@
     </row>
     <row r="154" ht="17.25" customHeight="1" spans="1:3">
       <c r="A154" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>5</v>
@@ -4096,10 +4136,10 @@
     </row>
     <row r="155" ht="17.25" customHeight="1" spans="1:3">
       <c r="A155" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>5</v>
@@ -4107,10 +4147,10 @@
     </row>
     <row r="156" ht="17.25" customHeight="1" spans="1:3">
       <c r="A156" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>5</v>
@@ -4118,10 +4158,10 @@
     </row>
     <row r="157" ht="17.25" customHeight="1" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>5</v>
@@ -4129,10 +4169,10 @@
     </row>
     <row r="158" ht="17.25" customHeight="1" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>5</v>
@@ -4140,10 +4180,10 @@
     </row>
     <row r="159" ht="17.25" customHeight="1" spans="1:3">
       <c r="A159" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>5</v>
@@ -4151,10 +4191,10 @@
     </row>
     <row r="160" ht="17.25" customHeight="1" spans="1:3">
       <c r="A160" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>5</v>
@@ -4162,10 +4202,10 @@
     </row>
     <row r="161" ht="17.25" customHeight="1" spans="1:3">
       <c r="A161" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>5</v>
@@ -4173,10 +4213,10 @@
     </row>
     <row r="162" ht="17.25" customHeight="1" spans="1:3">
       <c r="A162" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>5</v>
@@ -4184,10 +4224,10 @@
     </row>
     <row r="163" ht="17.25" customHeight="1" spans="1:3">
       <c r="A163" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>5</v>
@@ -4195,10 +4235,10 @@
     </row>
     <row r="164" ht="17.25" customHeight="1" spans="1:3">
       <c r="A164" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>163</v>
+        <v>138</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>5</v>
@@ -4206,10 +4246,10 @@
     </row>
     <row r="165" ht="17.25" customHeight="1" spans="1:3">
       <c r="A165" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>164</v>
+        <v>138</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>5</v>
@@ -4217,10 +4257,10 @@
     </row>
     <row r="166" ht="17.25" customHeight="1" spans="1:3">
       <c r="A166" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>5</v>
@@ -4228,10 +4268,10 @@
     </row>
     <row r="167" ht="17.25" customHeight="1" spans="1:3">
       <c r="A167" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>5</v>
@@ -4239,10 +4279,10 @@
     </row>
     <row r="168" ht="17.25" customHeight="1" spans="1:3">
       <c r="A168" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>5</v>
@@ -4250,10 +4290,10 @@
     </row>
     <row r="169" ht="17.25" customHeight="1" spans="1:3">
       <c r="A169" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>5</v>
@@ -4261,10 +4301,10 @@
     </row>
     <row r="170" ht="17.25" customHeight="1" spans="1:3">
       <c r="A170" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>5</v>
@@ -4272,10 +4312,10 @@
     </row>
     <row r="171" ht="17.25" customHeight="1" spans="1:3">
       <c r="A171" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>5</v>
@@ -4283,10 +4323,10 @@
     </row>
     <row r="172" ht="17.25" customHeight="1" spans="1:3">
       <c r="A172" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>5</v>
@@ -4294,10 +4334,10 @@
     </row>
     <row r="173" ht="17.25" customHeight="1" spans="1:3">
       <c r="A173" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>5</v>
@@ -4305,10 +4345,10 @@
     </row>
     <row r="174" ht="17.25" customHeight="1" spans="1:3">
       <c r="A174" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>5</v>
@@ -4316,15 +4356,15 @@
     </row>
     <row r="175" ht="17.25" customHeight="1"/>
     <row r="176" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B176" s="12"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="7"/>
     </row>
     <row r="177" ht="17.25" customHeight="1" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>5</v>
@@ -4332,10 +4372,10 @@
     </row>
     <row r="178" ht="17.25" customHeight="1" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>5</v>
@@ -4343,10 +4383,10 @@
     </row>
     <row r="179" ht="17.25" customHeight="1" spans="1:3">
       <c r="A179" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>5</v>
@@ -4354,10 +4394,10 @@
     </row>
     <row r="180" ht="17.25" customHeight="1" spans="1:3">
       <c r="A180" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>5</v>
@@ -4365,10 +4405,10 @@
     </row>
     <row r="181" ht="17.25" customHeight="1" spans="1:3">
       <c r="A181" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>5</v>
@@ -4376,10 +4416,10 @@
     </row>
     <row r="182" ht="17.25" customHeight="1" spans="1:3">
       <c r="A182" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>5</v>
@@ -4387,10 +4427,10 @@
     </row>
     <row r="183" ht="17.25" customHeight="1" spans="1:3">
       <c r="A183" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>5</v>
@@ -4398,10 +4438,10 @@
     </row>
     <row r="184" ht="17.25" customHeight="1" spans="1:3">
       <c r="A184" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>5</v>
@@ -4409,10 +4449,10 @@
     </row>
     <row r="185" ht="17.25" customHeight="1" spans="1:3">
       <c r="A185" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>5</v>
@@ -4420,10 +4460,10 @@
     </row>
     <row r="186" ht="17.25" customHeight="1" spans="1:3">
       <c r="A186" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>5</v>
@@ -4431,10 +4471,10 @@
     </row>
     <row r="187" ht="17.25" customHeight="1" spans="1:3">
       <c r="A187" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>5</v>
@@ -4442,10 +4482,10 @@
     </row>
     <row r="188" ht="17.25" customHeight="1" spans="1:3">
       <c r="A188" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>5</v>
@@ -4453,10 +4493,10 @@
     </row>
     <row r="189" ht="17.25" customHeight="1" spans="1:3">
       <c r="A189" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>5</v>
@@ -4464,10 +4504,10 @@
     </row>
     <row r="190" ht="17.25" customHeight="1" spans="1:3">
       <c r="A190" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>5</v>
@@ -4475,10 +4515,10 @@
     </row>
     <row r="191" ht="17.25" customHeight="1" spans="1:3">
       <c r="A191" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>5</v>
@@ -4486,10 +4526,10 @@
     </row>
     <row r="192" ht="17.25" customHeight="1" spans="1:3">
       <c r="A192" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>5</v>
@@ -4497,10 +4537,10 @@
     </row>
     <row r="193" ht="17.25" customHeight="1" spans="1:3">
       <c r="A193" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>5</v>
@@ -4508,10 +4548,10 @@
     </row>
     <row r="194" ht="17.25" customHeight="1" spans="1:3">
       <c r="A194" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>5</v>
@@ -4519,10 +4559,10 @@
     </row>
     <row r="195" ht="17.25" customHeight="1" spans="1:3">
       <c r="A195" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>5</v>
@@ -4530,10 +4570,10 @@
     </row>
     <row r="196" ht="17.25" customHeight="1" spans="1:3">
       <c r="A196" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>5</v>
@@ -4541,10 +4581,10 @@
     </row>
     <row r="197" ht="17.25" customHeight="1" spans="1:3">
       <c r="A197" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>5</v>
@@ -4552,10 +4592,10 @@
     </row>
     <row r="198" ht="17.25" customHeight="1" spans="1:3">
       <c r="A198" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>5</v>
@@ -4563,10 +4603,10 @@
     </row>
     <row r="199" ht="17.25" customHeight="1" spans="1:3">
       <c r="A199" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>5</v>
@@ -4574,10 +4614,10 @@
     </row>
     <row r="200" ht="17.25" customHeight="1" spans="1:3">
       <c r="A200" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>5</v>
@@ -4585,10 +4625,10 @@
     </row>
     <row r="201" ht="17.25" customHeight="1" spans="1:3">
       <c r="A201" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>5</v>
@@ -4596,10 +4636,10 @@
     </row>
     <row r="202" ht="17.25" customHeight="1" spans="1:3">
       <c r="A202" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>5</v>
@@ -4607,10 +4647,10 @@
     </row>
     <row r="203" ht="17.25" customHeight="1" spans="1:3">
       <c r="A203" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>5</v>
@@ -4618,10 +4658,10 @@
     </row>
     <row r="204" ht="17.25" customHeight="1" spans="1:3">
       <c r="A204" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>5</v>
@@ -4629,10 +4669,10 @@
     </row>
     <row r="205" ht="17.25" customHeight="1" spans="1:3">
       <c r="A205" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>5</v>
@@ -4640,10 +4680,10 @@
     </row>
     <row r="206" ht="17.25" customHeight="1" spans="1:3">
       <c r="A206" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>5</v>
@@ -4651,10 +4691,10 @@
     </row>
     <row r="207" ht="17.25" customHeight="1" spans="1:3">
       <c r="A207" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>5</v>
@@ -4662,10 +4702,10 @@
     </row>
     <row r="208" ht="17.25" customHeight="1" spans="1:3">
       <c r="A208" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>5</v>
@@ -4673,10 +4713,10 @@
     </row>
     <row r="209" ht="17.25" customHeight="1" spans="1:3">
       <c r="A209" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>5</v>
@@ -4684,10 +4724,10 @@
     </row>
     <row r="210" ht="17.25" customHeight="1" spans="1:3">
       <c r="A210" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>5</v>
@@ -4695,10 +4735,10 @@
     </row>
     <row r="211" ht="17.25" customHeight="1" spans="1:3">
       <c r="A211" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>5</v>
@@ -4706,20 +4746,20 @@
     </row>
     <row r="212" ht="17.25" customHeight="1" spans="1:3">
       <c r="A212" s="8"/>
-      <c r="B212" s="12"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="7"/>
     </row>
     <row r="213" ht="17.25" customHeight="1" spans="1:3">
       <c r="A213" s="8"/>
-      <c r="B213" s="12"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="7"/>
     </row>
     <row r="214" ht="17.25" customHeight="1" spans="1:3">
       <c r="A214" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>5</v>
@@ -4727,10 +4767,10 @@
     </row>
     <row r="215" ht="17.25" customHeight="1" spans="1:3">
       <c r="A215" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>5</v>
@@ -4738,10 +4778,10 @@
     </row>
     <row r="216" ht="17.25" customHeight="1" spans="1:3">
       <c r="A216" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>5</v>
@@ -4749,10 +4789,10 @@
     </row>
     <row r="217" ht="17.25" customHeight="1" spans="1:3">
       <c r="A217" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>5</v>
@@ -4760,10 +4800,10 @@
     </row>
     <row r="218" ht="17.25" customHeight="1" spans="1:3">
       <c r="A218" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>5</v>
@@ -4771,10 +4811,10 @@
     </row>
     <row r="219" ht="17.25" customHeight="1" spans="1:3">
       <c r="A219" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>5</v>
@@ -4782,10 +4822,10 @@
     </row>
     <row r="220" ht="17.25" customHeight="1" spans="1:3">
       <c r="A220" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>5</v>
@@ -4793,10 +4833,10 @@
     </row>
     <row r="221" ht="17.25" customHeight="1" spans="1:3">
       <c r="A221" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>5</v>
@@ -4804,10 +4844,10 @@
     </row>
     <row r="222" ht="17.25" customHeight="1" spans="1:3">
       <c r="A222" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>5</v>
@@ -4815,10 +4855,10 @@
     </row>
     <row r="223" ht="17.25" customHeight="1" spans="1:3">
       <c r="A223" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>5</v>
@@ -4826,10 +4866,10 @@
     </row>
     <row r="224" ht="17.25" customHeight="1" spans="1:3">
       <c r="A224" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>5</v>
@@ -4837,10 +4877,10 @@
     </row>
     <row r="225" ht="17.25" customHeight="1" spans="1:3">
       <c r="A225" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>5</v>
@@ -4848,10 +4888,10 @@
     </row>
     <row r="226" ht="17.25" customHeight="1" spans="1:3">
       <c r="A226" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>5</v>
@@ -4859,10 +4899,10 @@
     </row>
     <row r="227" ht="17.25" customHeight="1" spans="1:3">
       <c r="A227" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>5</v>
@@ -4870,10 +4910,10 @@
     </row>
     <row r="228" ht="17.25" customHeight="1" spans="1:3">
       <c r="A228" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>5</v>
@@ -4881,10 +4921,10 @@
     </row>
     <row r="229" ht="17.25" customHeight="1" spans="1:3">
       <c r="A229" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>5</v>
@@ -4892,10 +4932,10 @@
     </row>
     <row r="230" ht="17.25" customHeight="1" spans="1:3">
       <c r="A230" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>5</v>
@@ -4903,10 +4943,10 @@
     </row>
     <row r="231" ht="17.25" customHeight="1" spans="1:3">
       <c r="A231" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>5</v>
@@ -4914,10 +4954,10 @@
     </row>
     <row r="232" ht="17.25" customHeight="1" spans="1:3">
       <c r="A232" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>5</v>
@@ -4925,10 +4965,10 @@
     </row>
     <row r="233" ht="17.25" customHeight="1" spans="1:3">
       <c r="A233" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>5</v>
@@ -4936,10 +4976,10 @@
     </row>
     <row r="234" ht="17.25" customHeight="1" spans="1:3">
       <c r="A234" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>5</v>
@@ -4947,29 +4987,29 @@
     </row>
     <row r="235" ht="17.25" customHeight="1" spans="1:3">
       <c r="A235" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B236" s="12"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="7"/>
     </row>
     <row r="237" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B237" s="12"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="7"/>
     </row>
     <row r="238" ht="17.25" customHeight="1" spans="1:3">
       <c r="A238" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>5</v>
@@ -4977,10 +5017,10 @@
     </row>
     <row r="239" ht="17.25" customHeight="1" spans="1:3">
       <c r="A239" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>5</v>
@@ -4988,10 +5028,10 @@
     </row>
     <row r="240" ht="17.25" customHeight="1" spans="1:3">
       <c r="A240" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>5</v>
@@ -4999,10 +5039,10 @@
     </row>
     <row r="241" ht="17.25" customHeight="1" spans="1:3">
       <c r="A241" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>5</v>
@@ -5010,10 +5050,10 @@
     </row>
     <row r="242" ht="17.25" customHeight="1" spans="1:3">
       <c r="A242" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>5</v>
@@ -5021,10 +5061,10 @@
     </row>
     <row r="243" ht="17.25" customHeight="1" spans="1:3">
       <c r="A243" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>5</v>
@@ -5032,10 +5072,10 @@
     </row>
     <row r="244" ht="17.25" customHeight="1" spans="1:3">
       <c r="A244" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>5</v>
@@ -5043,10 +5083,10 @@
     </row>
     <row r="245" ht="17.25" customHeight="1" spans="1:3">
       <c r="A245" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>5</v>
@@ -5054,10 +5094,10 @@
     </row>
     <row r="246" ht="17.25" customHeight="1" spans="1:3">
       <c r="A246" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>5</v>
@@ -5065,10 +5105,10 @@
     </row>
     <row r="247" ht="17.25" customHeight="1" spans="1:3">
       <c r="A247" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>5</v>
@@ -5076,10 +5116,10 @@
     </row>
     <row r="248" ht="17.25" customHeight="1" spans="1:3">
       <c r="A248" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>5</v>
@@ -5087,10 +5127,10 @@
     </row>
     <row r="249" ht="17.25" customHeight="1" spans="1:3">
       <c r="A249" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>5</v>
@@ -5098,10 +5138,10 @@
     </row>
     <row r="250" ht="17.25" customHeight="1" spans="1:3">
       <c r="A250" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>5</v>
@@ -5109,10 +5149,10 @@
     </row>
     <row r="251" ht="17.25" customHeight="1" spans="1:3">
       <c r="A251" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>5</v>
@@ -5120,10 +5160,10 @@
     </row>
     <row r="252" ht="17.25" customHeight="1" spans="1:3">
       <c r="A252" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>5</v>
@@ -5131,10 +5171,10 @@
     </row>
     <row r="253" ht="17.25" customHeight="1" spans="1:3">
       <c r="A253" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>5</v>
@@ -5142,10 +5182,10 @@
     </row>
     <row r="254" ht="17.25" customHeight="1" spans="1:3">
       <c r="A254" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>5</v>
@@ -5153,10 +5193,10 @@
     </row>
     <row r="255" ht="17.25" customHeight="1" spans="1:3">
       <c r="A255" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>5</v>
@@ -5164,10 +5204,10 @@
     </row>
     <row r="256" ht="17.25" customHeight="1" spans="1:3">
       <c r="A256" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>5</v>
@@ -5175,10 +5215,10 @@
     </row>
     <row r="257" ht="17.25" customHeight="1" spans="1:3">
       <c r="A257" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>5</v>
@@ -5186,10 +5226,10 @@
     </row>
     <row r="258" ht="17.25" customHeight="1" spans="1:3">
       <c r="A258" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>5</v>
@@ -5197,10 +5237,10 @@
     </row>
     <row r="259" ht="17.25" customHeight="1" spans="1:3">
       <c r="A259" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>5</v>
@@ -5208,10 +5248,10 @@
     </row>
     <row r="260" ht="17.25" customHeight="1" spans="1:3">
       <c r="A260" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>5</v>
@@ -5219,10 +5259,10 @@
     </row>
     <row r="261" ht="17.25" customHeight="1" spans="1:3">
       <c r="A261" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>5</v>
@@ -5230,10 +5270,10 @@
     </row>
     <row r="262" ht="17.25" customHeight="1" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>5</v>
@@ -5241,10 +5281,10 @@
     </row>
     <row r="263" ht="17.25" customHeight="1" spans="1:3">
       <c r="A263" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>5</v>
@@ -5252,10 +5292,10 @@
     </row>
     <row r="264" ht="17.25" customHeight="1" spans="1:3">
       <c r="A264" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>5</v>
@@ -5263,10 +5303,10 @@
     </row>
     <row r="265" ht="17.25" customHeight="1" spans="1:3">
       <c r="A265" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>5</v>
@@ -5274,10 +5314,10 @@
     </row>
     <row r="266" ht="17.25" customHeight="1" spans="1:3">
       <c r="A266" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>5</v>
@@ -5285,10 +5325,10 @@
     </row>
     <row r="267" ht="17.25" customHeight="1" spans="1:3">
       <c r="A267" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>5</v>
@@ -5296,10 +5336,10 @@
     </row>
     <row r="268" ht="17.25" customHeight="1" spans="1:3">
       <c r="A268" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>5</v>
@@ -5307,10 +5347,10 @@
     </row>
     <row r="269" ht="17.25" customHeight="1" spans="1:3">
       <c r="A269" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>5</v>
@@ -5318,10 +5358,10 @@
     </row>
     <row r="270" ht="17.25" customHeight="1" spans="1:3">
       <c r="A270" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>5</v>
@@ -5329,10 +5369,10 @@
     </row>
     <row r="271" ht="17.25" customHeight="1" spans="1:3">
       <c r="A271" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>5</v>
@@ -5340,29 +5380,29 @@
     </row>
     <row r="272" ht="17.25" customHeight="1" spans="1:3">
       <c r="A272" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="273" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B273" s="12"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="7"/>
     </row>
     <row r="274" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B274" s="12"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="7"/>
     </row>
     <row r="275" ht="17.25" customHeight="1" spans="1:3">
       <c r="A275" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>5</v>
@@ -5370,10 +5410,10 @@
     </row>
     <row r="276" ht="17.25" customHeight="1" spans="1:3">
       <c r="A276" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>5</v>
@@ -5381,10 +5421,10 @@
     </row>
     <row r="277" ht="17.25" customHeight="1" spans="1:3">
       <c r="A277" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>5</v>
@@ -5392,10 +5432,10 @@
     </row>
     <row r="278" ht="17.25" customHeight="1" spans="1:3">
       <c r="A278" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>5</v>
@@ -5403,10 +5443,10 @@
     </row>
     <row r="279" ht="17.25" customHeight="1" spans="1:3">
       <c r="A279" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>5</v>
@@ -5414,10 +5454,10 @@
     </row>
     <row r="280" ht="17.25" customHeight="1" spans="1:3">
       <c r="A280" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>5</v>
@@ -5425,10 +5465,10 @@
     </row>
     <row r="281" ht="17.25" customHeight="1" spans="1:3">
       <c r="A281" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>5</v>
@@ -5436,10 +5476,10 @@
     </row>
     <row r="282" ht="17.25" customHeight="1" spans="1:3">
       <c r="A282" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>5</v>
@@ -5447,10 +5487,10 @@
     </row>
     <row r="283" ht="17.25" customHeight="1" spans="1:3">
       <c r="A283" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>5</v>
@@ -5458,10 +5498,10 @@
     </row>
     <row r="284" ht="17.25" customHeight="1" spans="1:3">
       <c r="A284" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>5</v>
@@ -5469,10 +5509,10 @@
     </row>
     <row r="285" ht="17.25" customHeight="1" spans="1:3">
       <c r="A285" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>5</v>
@@ -5480,10 +5520,10 @@
     </row>
     <row r="286" ht="17.25" customHeight="1" spans="1:3">
       <c r="A286" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>5</v>
@@ -5491,10 +5531,10 @@
     </row>
     <row r="287" ht="17.25" customHeight="1" spans="1:3">
       <c r="A287" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>5</v>
@@ -5502,10 +5542,10 @@
     </row>
     <row r="288" ht="17.25" customHeight="1" spans="1:3">
       <c r="A288" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>5</v>
@@ -5513,10 +5553,10 @@
     </row>
     <row r="289" ht="17.25" customHeight="1" spans="1:3">
       <c r="A289" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>5</v>
@@ -5524,10 +5564,10 @@
     </row>
     <row r="290" ht="17.25" customHeight="1" spans="1:3">
       <c r="A290" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>5</v>
@@ -5535,10 +5575,10 @@
     </row>
     <row r="291" ht="17.25" customHeight="1" spans="1:3">
       <c r="A291" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>5</v>
@@ -5546,10 +5586,10 @@
     </row>
     <row r="292" ht="17.25" customHeight="1" spans="1:3">
       <c r="A292" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>5</v>
@@ -5557,29 +5597,29 @@
     </row>
     <row r="293" ht="17.25" customHeight="1" spans="1:3">
       <c r="A293" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="294" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B294" s="12"/>
+      <c r="B294" s="15"/>
       <c r="C294" s="7"/>
     </row>
     <row r="295" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B295" s="12"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="7"/>
     </row>
     <row r="296" ht="17.25" customHeight="1" spans="1:3">
       <c r="A296" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>5</v>
@@ -5587,10 +5627,10 @@
     </row>
     <row r="297" ht="17.25" customHeight="1" spans="1:3">
       <c r="A297" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>5</v>
@@ -5598,10 +5638,10 @@
     </row>
     <row r="298" ht="17.25" customHeight="1" spans="1:3">
       <c r="A298" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>5</v>
@@ -5609,10 +5649,10 @@
     </row>
     <row r="299" ht="17.25" customHeight="1" spans="1:3">
       <c r="A299" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>5</v>
@@ -5620,10 +5660,10 @@
     </row>
     <row r="300" ht="17.25" customHeight="1" spans="1:3">
       <c r="A300" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>5</v>
@@ -5631,10 +5671,10 @@
     </row>
     <row r="301" ht="17.25" customHeight="1" spans="1:3">
       <c r="A301" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>5</v>
@@ -5642,10 +5682,10 @@
     </row>
     <row r="302" ht="17.25" customHeight="1" spans="1:3">
       <c r="A302" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>5</v>
@@ -5653,10 +5693,10 @@
     </row>
     <row r="303" ht="17.25" customHeight="1" spans="1:3">
       <c r="A303" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>5</v>
@@ -5664,10 +5704,10 @@
     </row>
     <row r="304" ht="17.25" customHeight="1" spans="1:3">
       <c r="A304" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>5</v>
@@ -5675,10 +5715,10 @@
     </row>
     <row r="305" ht="17.25" customHeight="1" spans="1:3">
       <c r="A305" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>5</v>
@@ -5686,10 +5726,10 @@
     </row>
     <row r="306" ht="17.25" customHeight="1" spans="1:3">
       <c r="A306" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>5</v>
@@ -5697,10 +5737,10 @@
     </row>
     <row r="307" ht="17.25" customHeight="1" spans="1:3">
       <c r="A307" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>5</v>
@@ -5708,10 +5748,10 @@
     </row>
     <row r="308" ht="17.25" customHeight="1" spans="1:3">
       <c r="A308" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>5</v>
@@ -5719,10 +5759,10 @@
     </row>
     <row r="309" ht="17.25" customHeight="1" spans="1:3">
       <c r="A309" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>5</v>
@@ -5730,10 +5770,10 @@
     </row>
     <row r="310" ht="17.25" customHeight="1" spans="1:3">
       <c r="A310" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>5</v>
@@ -5741,10 +5781,10 @@
     </row>
     <row r="311" ht="17.25" customHeight="1" spans="1:3">
       <c r="A311" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>5</v>
@@ -5752,10 +5792,10 @@
     </row>
     <row r="312" ht="17.25" customHeight="1" spans="1:3">
       <c r="A312" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>5</v>
@@ -5763,10 +5803,10 @@
     </row>
     <row r="313" ht="17.25" customHeight="1" spans="1:3">
       <c r="A313" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>5</v>
@@ -5774,10 +5814,10 @@
     </row>
     <row r="314" ht="17.25" customHeight="1" spans="1:3">
       <c r="A314" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>5</v>
@@ -5785,10 +5825,10 @@
     </row>
     <row r="315" ht="17.25" customHeight="1" spans="1:3">
       <c r="A315" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>5</v>
@@ -5796,10 +5836,10 @@
     </row>
     <row r="316" ht="17.25" customHeight="1" spans="1:3">
       <c r="A316" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>5</v>
@@ -5807,10 +5847,10 @@
     </row>
     <row r="317" ht="17.25" customHeight="1" spans="1:3">
       <c r="A317" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>5</v>
@@ -5818,10 +5858,10 @@
     </row>
     <row r="318" ht="17.25" customHeight="1" spans="1:3">
       <c r="A318" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>5</v>
@@ -5829,10 +5869,10 @@
     </row>
     <row r="319" ht="17.25" customHeight="1" spans="1:3">
       <c r="A319" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>5</v>
@@ -5840,10 +5880,10 @@
     </row>
     <row r="320" ht="17.25" customHeight="1" spans="1:3">
       <c r="A320" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>5</v>
@@ -5851,10 +5891,10 @@
     </row>
     <row r="321" ht="17.25" customHeight="1" spans="1:3">
       <c r="A321" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>5</v>
@@ -5862,10 +5902,10 @@
     </row>
     <row r="322" ht="17.25" customHeight="1" spans="1:3">
       <c r="A322" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>5</v>
@@ -5873,10 +5913,10 @@
     </row>
     <row r="323" ht="17.25" customHeight="1" spans="1:3">
       <c r="A323" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>5</v>
@@ -5884,10 +5924,10 @@
     </row>
     <row r="324" ht="17.25" customHeight="1" spans="1:3">
       <c r="A324" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>5</v>
@@ -5895,10 +5935,10 @@
     </row>
     <row r="325" ht="17.25" customHeight="1" spans="1:3">
       <c r="A325" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>5</v>
@@ -5906,10 +5946,10 @@
     </row>
     <row r="326" ht="17.25" customHeight="1" spans="1:3">
       <c r="A326" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>5</v>
@@ -5917,10 +5957,10 @@
     </row>
     <row r="327" ht="17.25" customHeight="1" spans="1:3">
       <c r="A327" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>5</v>
@@ -5928,10 +5968,10 @@
     </row>
     <row r="328" ht="17.25" customHeight="1" spans="1:3">
       <c r="A328" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>5</v>
@@ -5939,10 +5979,10 @@
     </row>
     <row r="329" ht="17.25" customHeight="1" spans="1:3">
       <c r="A329" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>5</v>
@@ -5950,10 +5990,10 @@
     </row>
     <row r="330" ht="17.25" customHeight="1" spans="1:3">
       <c r="A330" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>5</v>
@@ -5961,10 +6001,10 @@
     </row>
     <row r="331" ht="17.25" customHeight="1" spans="1:3">
       <c r="A331" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>5</v>
@@ -5972,10 +6012,10 @@
     </row>
     <row r="332" ht="17.25" customHeight="1" spans="1:3">
       <c r="A332" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>5</v>
@@ -5983,29 +6023,29 @@
     </row>
     <row r="333" ht="17.25" customHeight="1" spans="1:3">
       <c r="A333" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="334" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B334" s="12"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="7"/>
     </row>
     <row r="335" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B335" s="12"/>
+      <c r="B335" s="15"/>
       <c r="C335" s="7"/>
     </row>
     <row r="336" ht="17.25" customHeight="1" spans="1:3">
       <c r="A336" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>5</v>
@@ -6013,10 +6053,10 @@
     </row>
     <row r="337" ht="17.25" customHeight="1" spans="1:3">
       <c r="A337" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>5</v>
@@ -6024,10 +6064,10 @@
     </row>
     <row r="338" ht="17.25" customHeight="1" spans="1:3">
       <c r="A338" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>5</v>
@@ -6035,10 +6075,10 @@
     </row>
     <row r="339" ht="17.25" customHeight="1" spans="1:3">
       <c r="A339" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>5</v>
@@ -6046,10 +6086,10 @@
     </row>
     <row r="340" ht="17.25" customHeight="1" spans="1:3">
       <c r="A340" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>5</v>
@@ -6057,10 +6097,10 @@
     </row>
     <row r="341" ht="17.25" customHeight="1" spans="1:3">
       <c r="A341" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>5</v>
@@ -6068,10 +6108,10 @@
     </row>
     <row r="342" ht="17.25" customHeight="1" spans="1:3">
       <c r="A342" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>5</v>
@@ -6079,10 +6119,10 @@
     </row>
     <row r="343" ht="17.25" customHeight="1" spans="1:3">
       <c r="A343" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>5</v>
@@ -6090,10 +6130,10 @@
     </row>
     <row r="344" ht="17.25" customHeight="1" spans="1:3">
       <c r="A344" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>5</v>
@@ -6101,10 +6141,10 @@
     </row>
     <row r="345" ht="17.25" customHeight="1" spans="1:3">
       <c r="A345" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>5</v>
@@ -6112,10 +6152,10 @@
     </row>
     <row r="346" ht="17.25" customHeight="1" spans="1:3">
       <c r="A346" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>5</v>
@@ -6123,10 +6163,10 @@
     </row>
     <row r="347" ht="17.25" customHeight="1" spans="1:3">
       <c r="A347" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>5</v>
@@ -6134,10 +6174,10 @@
     </row>
     <row r="348" ht="17.25" customHeight="1" spans="1:3">
       <c r="A348" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>5</v>
@@ -6145,10 +6185,10 @@
     </row>
     <row r="349" ht="17.25" customHeight="1" spans="1:3">
       <c r="A349" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>5</v>
@@ -6156,10 +6196,10 @@
     </row>
     <row r="350" ht="17.25" customHeight="1" spans="1:3">
       <c r="A350" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>5</v>
@@ -6167,10 +6207,10 @@
     </row>
     <row r="351" ht="17.25" customHeight="1" spans="1:3">
       <c r="A351" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>5</v>
@@ -6178,10 +6218,10 @@
     </row>
     <row r="352" ht="17.25" customHeight="1" spans="1:3">
       <c r="A352" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>5</v>
@@ -6189,29 +6229,29 @@
     </row>
     <row r="353" ht="17.25" customHeight="1" spans="1:3">
       <c r="A353" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="354" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B354" s="12"/>
+      <c r="B354" s="15"/>
       <c r="C354" s="7"/>
     </row>
     <row r="355" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B355" s="12"/>
+      <c r="B355" s="15"/>
       <c r="C355" s="7"/>
     </row>
     <row r="356" ht="17.25" customHeight="1" spans="1:3">
       <c r="A356" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>5</v>
@@ -6219,10 +6259,10 @@
     </row>
     <row r="357" ht="17.25" customHeight="1" spans="1:3">
       <c r="A357" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>5</v>
@@ -6230,10 +6270,10 @@
     </row>
     <row r="358" ht="17.25" customHeight="1" spans="1:3">
       <c r="A358" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>5</v>
@@ -6241,10 +6281,10 @@
     </row>
     <row r="359" ht="17.25" customHeight="1" spans="1:3">
       <c r="A359" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>5</v>
@@ -6252,10 +6292,10 @@
     </row>
     <row r="360" ht="17.25" customHeight="1" spans="1:3">
       <c r="A360" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>5</v>
@@ -6263,10 +6303,10 @@
     </row>
     <row r="361" ht="17.25" customHeight="1" spans="1:3">
       <c r="A361" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>5</v>
@@ -6274,10 +6314,10 @@
     </row>
     <row r="362" ht="17.25" customHeight="1" spans="1:3">
       <c r="A362" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>5</v>
@@ -6285,10 +6325,10 @@
     </row>
     <row r="363" ht="17.25" customHeight="1" spans="1:3">
       <c r="A363" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>5</v>
@@ -6296,10 +6336,10 @@
     </row>
     <row r="364" ht="17.25" customHeight="1" spans="1:3">
       <c r="A364" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>5</v>
@@ -6307,10 +6347,10 @@
     </row>
     <row r="365" ht="17.25" customHeight="1" spans="1:3">
       <c r="A365" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>5</v>
@@ -6318,10 +6358,10 @@
     </row>
     <row r="366" ht="17.25" customHeight="1" spans="1:3">
       <c r="A366" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>5</v>
@@ -6329,10 +6369,10 @@
     </row>
     <row r="367" ht="17.25" customHeight="1" spans="1:3">
       <c r="A367" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>5</v>
@@ -6340,10 +6380,10 @@
     </row>
     <row r="368" ht="17.25" customHeight="1" spans="1:3">
       <c r="A368" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>5</v>
@@ -6351,10 +6391,10 @@
     </row>
     <row r="369" ht="17.25" customHeight="1" spans="1:3">
       <c r="A369" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>5</v>
@@ -6362,10 +6402,10 @@
     </row>
     <row r="370" ht="17.25" customHeight="1" spans="1:3">
       <c r="A370" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>5</v>
@@ -6373,10 +6413,10 @@
     </row>
     <row r="371" ht="17.25" customHeight="1" spans="1:3">
       <c r="A371" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>5</v>
@@ -6384,10 +6424,10 @@
     </row>
     <row r="372" ht="17.25" customHeight="1" spans="1:3">
       <c r="A372" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>5</v>
@@ -6395,10 +6435,10 @@
     </row>
     <row r="373" ht="17.25" customHeight="1" spans="1:3">
       <c r="A373" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>5</v>
@@ -6406,10 +6446,10 @@
     </row>
     <row r="374" ht="17.25" customHeight="1" spans="1:3">
       <c r="A374" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>5</v>
@@ -6417,10 +6457,10 @@
     </row>
     <row r="375" ht="17.25" customHeight="1" spans="1:3">
       <c r="A375" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>5</v>
@@ -6428,10 +6468,10 @@
     </row>
     <row r="376" ht="17.25" customHeight="1" spans="1:3">
       <c r="A376" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>5</v>
@@ -6439,10 +6479,10 @@
     </row>
     <row r="377" ht="17.25" customHeight="1" spans="1:3">
       <c r="A377" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>5</v>
@@ -6450,10 +6490,10 @@
     </row>
     <row r="378" ht="17.25" customHeight="1" spans="1:3">
       <c r="A378" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>5</v>
@@ -6461,10 +6501,10 @@
     </row>
     <row r="379" ht="17.25" customHeight="1" spans="1:3">
       <c r="A379" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>5</v>
@@ -6472,10 +6512,10 @@
     </row>
     <row r="380" ht="17.25" customHeight="1" spans="1:3">
       <c r="A380" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>5</v>
@@ -6483,10 +6523,10 @@
     </row>
     <row r="381" ht="17.25" customHeight="1" spans="1:3">
       <c r="A381" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>5</v>
@@ -6494,10 +6534,10 @@
     </row>
     <row r="382" ht="17.25" customHeight="1" spans="1:3">
       <c r="A382" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>5</v>
@@ -6505,10 +6545,10 @@
     </row>
     <row r="383" ht="17.25" customHeight="1" spans="1:3">
       <c r="A383" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>5</v>
@@ -6516,10 +6556,10 @@
     </row>
     <row r="384" ht="17.25" customHeight="1" spans="1:3">
       <c r="A384" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>5</v>
@@ -6527,10 +6567,10 @@
     </row>
     <row r="385" ht="17.25" customHeight="1" spans="1:3">
       <c r="A385" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>5</v>
@@ -6538,10 +6578,10 @@
     </row>
     <row r="386" ht="17.25" customHeight="1" spans="1:3">
       <c r="A386" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>5</v>
@@ -6549,10 +6589,10 @@
     </row>
     <row r="387" ht="17.25" customHeight="1" spans="1:3">
       <c r="A387" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>5</v>
@@ -6560,10 +6600,10 @@
     </row>
     <row r="388" ht="17.25" customHeight="1" spans="1:3">
       <c r="A388" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>5</v>
@@ -6571,10 +6611,10 @@
     </row>
     <row r="389" ht="17.25" customHeight="1" spans="1:3">
       <c r="A389" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>5</v>
@@ -6582,10 +6622,10 @@
     </row>
     <row r="390" ht="17.25" customHeight="1" spans="1:3">
       <c r="A390" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>5</v>
@@ -6593,10 +6633,10 @@
     </row>
     <row r="391" ht="17.25" customHeight="1" spans="1:3">
       <c r="A391" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>5</v>
@@ -6604,10 +6644,10 @@
     </row>
     <row r="392" ht="17.25" customHeight="1" spans="1:3">
       <c r="A392" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>5</v>
@@ -6615,10 +6655,10 @@
     </row>
     <row r="393" ht="17.25" customHeight="1" spans="1:3">
       <c r="A393" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>5</v>
@@ -6626,10 +6666,10 @@
     </row>
     <row r="394" ht="17.25" customHeight="1" spans="1:3">
       <c r="A394" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>5</v>
@@ -6637,10 +6677,10 @@
     </row>
     <row r="395" ht="17.25" customHeight="1" spans="1:3">
       <c r="A395" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>5</v>
@@ -6648,10 +6688,10 @@
     </row>
     <row r="396" ht="17.25" customHeight="1" spans="1:3">
       <c r="A396" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>5</v>
@@ -6659,10 +6699,10 @@
     </row>
     <row r="397" ht="17.25" customHeight="1" spans="1:3">
       <c r="A397" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>5</v>
@@ -6670,10 +6710,10 @@
     </row>
     <row r="398" ht="17.25" customHeight="1" spans="1:3">
       <c r="A398" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>5</v>
@@ -6681,29 +6721,29 @@
     </row>
     <row r="399" ht="17.25" customHeight="1" spans="1:3">
       <c r="A399" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="400" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B400" s="12"/>
+      <c r="B400" s="15"/>
       <c r="C400" s="7"/>
     </row>
     <row r="401" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B401" s="12"/>
+      <c r="B401" s="15"/>
       <c r="C401" s="7"/>
     </row>
     <row r="402" ht="17.25" customHeight="1" spans="1:3">
       <c r="A402" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>5</v>
@@ -6711,10 +6751,10 @@
     </row>
     <row r="403" ht="17.25" customHeight="1" spans="1:3">
       <c r="A403" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>5</v>
@@ -6722,10 +6762,10 @@
     </row>
     <row r="404" ht="17.25" customHeight="1" spans="1:3">
       <c r="A404" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>5</v>
@@ -6733,10 +6773,10 @@
     </row>
     <row r="405" ht="17.25" customHeight="1" spans="1:3">
       <c r="A405" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>5</v>
@@ -6744,10 +6784,10 @@
     </row>
     <row r="406" ht="17.25" customHeight="1" spans="1:3">
       <c r="A406" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>5</v>
@@ -6755,29 +6795,29 @@
     </row>
     <row r="407" ht="17.25" customHeight="1" spans="1:3">
       <c r="A407" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="408" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B408" s="12"/>
+      <c r="B408" s="15"/>
       <c r="C408" s="7"/>
     </row>
     <row r="409" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B409" s="12"/>
+      <c r="B409" s="15"/>
       <c r="C409" s="7"/>
     </row>
     <row r="410" ht="17.25" customHeight="1" spans="1:3">
       <c r="A410" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>5</v>
@@ -6785,10 +6825,10 @@
     </row>
     <row r="411" ht="17.25" customHeight="1" spans="1:3">
       <c r="A411" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>5</v>
@@ -6796,10 +6836,10 @@
     </row>
     <row r="412" ht="17.25" customHeight="1" spans="1:3">
       <c r="A412" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>5</v>
@@ -6807,10 +6847,10 @@
     </row>
     <row r="413" ht="17.25" customHeight="1" spans="1:3">
       <c r="A413" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>5</v>
@@ -6818,10 +6858,10 @@
     </row>
     <row r="414" ht="17.25" customHeight="1" spans="1:3">
       <c r="A414" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>5</v>
@@ -6829,10 +6869,10 @@
     </row>
     <row r="415" ht="17.25" customHeight="1" spans="1:3">
       <c r="A415" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>5</v>
@@ -6840,10 +6880,10 @@
     </row>
     <row r="416" ht="17.25" customHeight="1" spans="1:3">
       <c r="A416" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>5</v>
@@ -6851,10 +6891,10 @@
     </row>
     <row r="417" ht="17.25" customHeight="1" spans="1:3">
       <c r="A417" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>5</v>
@@ -6862,10 +6902,10 @@
     </row>
     <row r="418" ht="17.25" customHeight="1" spans="1:3">
       <c r="A418" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>5</v>
@@ -6873,10 +6913,10 @@
     </row>
     <row r="419" ht="17.25" customHeight="1" spans="1:3">
       <c r="A419" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>5</v>
@@ -6884,10 +6924,10 @@
     </row>
     <row r="420" ht="17.25" customHeight="1" spans="1:3">
       <c r="A420" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>5</v>
@@ -6895,10 +6935,10 @@
     </row>
     <row r="421" ht="17.25" customHeight="1" spans="1:3">
       <c r="A421" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>5</v>
@@ -6906,10 +6946,10 @@
     </row>
     <row r="422" ht="17.25" customHeight="1" spans="1:3">
       <c r="A422" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>5</v>
@@ -6917,10 +6957,10 @@
     </row>
     <row r="423" ht="17.25" customHeight="1" spans="1:3">
       <c r="A423" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>5</v>
@@ -6928,10 +6968,10 @@
     </row>
     <row r="424" ht="17.25" customHeight="1" spans="1:3">
       <c r="A424" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>5</v>
@@ -6939,10 +6979,10 @@
     </row>
     <row r="425" ht="17.25" customHeight="1" spans="1:3">
       <c r="A425" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>5</v>
@@ -6950,10 +6990,10 @@
     </row>
     <row r="426" ht="17.25" customHeight="1" spans="1:3">
       <c r="A426" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>5</v>
@@ -6961,10 +7001,10 @@
     </row>
     <row r="427" ht="17.25" customHeight="1" spans="1:3">
       <c r="A427" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>5</v>
@@ -6972,10 +7012,10 @@
     </row>
     <row r="428" ht="17.25" customHeight="1" spans="1:3">
       <c r="A428" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>5</v>
@@ -6983,10 +7023,10 @@
     </row>
     <row r="429" ht="17.25" customHeight="1" spans="1:3">
       <c r="A429" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>5</v>
@@ -6994,10 +7034,10 @@
     </row>
     <row r="430" ht="17.25" customHeight="1" spans="1:3">
       <c r="A430" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>5</v>
@@ -7005,10 +7045,10 @@
     </row>
     <row r="431" ht="17.25" customHeight="1" spans="1:3">
       <c r="A431" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>5</v>
@@ -7016,10 +7056,10 @@
     </row>
     <row r="432" ht="17.25" customHeight="1" spans="1:3">
       <c r="A432" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>5</v>
@@ -7027,10 +7067,10 @@
     </row>
     <row r="433" ht="17.25" customHeight="1" spans="1:3">
       <c r="A433" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>5</v>
@@ -7038,10 +7078,10 @@
     </row>
     <row r="434" ht="17.25" customHeight="1" spans="1:3">
       <c r="A434" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>5</v>
@@ -7049,10 +7089,10 @@
     </row>
     <row r="435" ht="17.25" customHeight="1" spans="1:3">
       <c r="A435" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>5</v>
@@ -7060,10 +7100,10 @@
     </row>
     <row r="436" ht="17.25" customHeight="1" spans="1:3">
       <c r="A436" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>5</v>
@@ -7071,10 +7111,10 @@
     </row>
     <row r="437" ht="17.25" customHeight="1" spans="1:3">
       <c r="A437" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>5</v>
@@ -7082,10 +7122,10 @@
     </row>
     <row r="438" ht="17.25" customHeight="1" spans="1:3">
       <c r="A438" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>5</v>
@@ -7093,10 +7133,10 @@
     </row>
     <row r="439" ht="17.25" customHeight="1" spans="1:3">
       <c r="A439" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>5</v>
@@ -7104,10 +7144,10 @@
     </row>
     <row r="440" ht="17.25" customHeight="1" spans="1:3">
       <c r="A440" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>5</v>
@@ -7115,10 +7155,10 @@
     </row>
     <row r="441" ht="17.25" customHeight="1" spans="1:3">
       <c r="A441" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>5</v>
@@ -7126,10 +7166,10 @@
     </row>
     <row r="442" ht="17.25" customHeight="1" spans="1:3">
       <c r="A442" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>5</v>
@@ -7137,10 +7177,10 @@
     </row>
     <row r="443" ht="17.25" customHeight="1" spans="1:3">
       <c r="A443" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>5</v>
@@ -7148,10 +7188,10 @@
     </row>
     <row r="444" ht="17.25" customHeight="1" spans="1:3">
       <c r="A444" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>5</v>
@@ -7159,10 +7199,10 @@
     </row>
     <row r="445" ht="17.25" customHeight="1" spans="1:3">
       <c r="A445" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>5</v>
@@ -7170,10 +7210,10 @@
     </row>
     <row r="446" ht="17.25" customHeight="1" spans="1:3">
       <c r="A446" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>5</v>
@@ -7181,10 +7221,10 @@
     </row>
     <row r="447" ht="17.25" customHeight="1" spans="1:3">
       <c r="A447" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>5</v>
@@ -7192,10 +7232,10 @@
     </row>
     <row r="448" ht="17.25" customHeight="1" spans="1:3">
       <c r="A448" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>5</v>
@@ -7203,10 +7243,10 @@
     </row>
     <row r="449" ht="17.25" customHeight="1" spans="1:3">
       <c r="A449" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>5</v>
@@ -7214,10 +7254,10 @@
     </row>
     <row r="450" ht="17.25" customHeight="1" spans="1:3">
       <c r="A450" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>5</v>
@@ -7225,10 +7265,10 @@
     </row>
     <row r="451" ht="17.25" customHeight="1" spans="1:3">
       <c r="A451" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>5</v>
@@ -7236,10 +7276,10 @@
     </row>
     <row r="452" ht="17.25" customHeight="1" spans="1:3">
       <c r="A452" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>5</v>
@@ -7247,10 +7287,10 @@
     </row>
     <row r="453" ht="17.25" customHeight="1" spans="1:3">
       <c r="A453" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>5</v>
@@ -7258,10 +7298,10 @@
     </row>
     <row r="454" ht="17.25" customHeight="1" spans="1:3">
       <c r="A454" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>5</v>
@@ -7269,10 +7309,10 @@
     </row>
     <row r="455" ht="17.25" customHeight="1" spans="1:3">
       <c r="A455" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>5</v>
@@ -7280,10 +7320,10 @@
     </row>
     <row r="456" ht="17.25" customHeight="1" spans="1:3">
       <c r="A456" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>5</v>
@@ -7291,10 +7331,10 @@
     </row>
     <row r="457" ht="17.25" customHeight="1" spans="1:3">
       <c r="A457" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>5</v>
@@ -7302,10 +7342,10 @@
     </row>
     <row r="458" ht="17.25" customHeight="1" spans="1:3">
       <c r="A458" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>5</v>
@@ -7313,10 +7353,10 @@
     </row>
     <row r="459" ht="17.25" customHeight="1" spans="1:3">
       <c r="A459" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>5</v>
@@ -7324,10 +7364,10 @@
     </row>
     <row r="460" ht="17.25" customHeight="1" spans="1:3">
       <c r="A460" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>5</v>
@@ -7335,10 +7375,10 @@
     </row>
     <row r="461" ht="17.25" customHeight="1" spans="1:3">
       <c r="A461" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>5</v>
@@ -7346,10 +7386,10 @@
     </row>
     <row r="462" ht="17.25" customHeight="1" spans="1:3">
       <c r="A462" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>5</v>
@@ -7357,10 +7397,10 @@
     </row>
     <row r="463" ht="17.25" customHeight="1" spans="1:3">
       <c r="A463" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>5</v>
@@ -7368,10 +7408,10 @@
     </row>
     <row r="464" ht="17.25" customHeight="1" spans="1:3">
       <c r="A464" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>5</v>
@@ -7379,10 +7419,10 @@
     </row>
     <row r="465" ht="17.25" customHeight="1" spans="1:3">
       <c r="A465" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>5</v>
@@ -7390,10 +7430,10 @@
     </row>
     <row r="466" ht="17.25" customHeight="1" spans="1:3">
       <c r="A466" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>5</v>
@@ -7401,10 +7441,10 @@
     </row>
     <row r="467" ht="17.25" customHeight="1" spans="1:3">
       <c r="A467" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>5</v>
@@ -7412,10 +7452,10 @@
     </row>
     <row r="468" ht="17.25" customHeight="1" spans="1:3">
       <c r="A468" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>5</v>
@@ -7423,30 +7463,30 @@
     </row>
     <row r="469" ht="17.25" customHeight="1" spans="1:3">
       <c r="A469" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="470" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B470" s="12"/>
+      <c r="B470" s="15"/>
       <c r="C470" s="7"/>
     </row>
     <row r="471" ht="17.25" customHeight="1" spans="1:3">
       <c r="A471" s="8"/>
-      <c r="B471" s="12"/>
+      <c r="B471" s="15"/>
       <c r="C471" s="7"/>
     </row>
     <row r="472" ht="17.25" customHeight="1" spans="1:3">
       <c r="A472" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>5</v>
@@ -7454,10 +7494,10 @@
     </row>
     <row r="473" ht="17.25" customHeight="1" spans="1:3">
       <c r="A473" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>5</v>
@@ -7465,10 +7505,10 @@
     </row>
     <row r="474" ht="17.25" customHeight="1" spans="1:3">
       <c r="A474" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>5</v>
@@ -7476,10 +7516,10 @@
     </row>
     <row r="475" ht="17.25" customHeight="1" spans="1:3">
       <c r="A475" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>5</v>
@@ -7487,10 +7527,10 @@
     </row>
     <row r="476" ht="17.25" customHeight="1" spans="1:3">
       <c r="A476" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>5</v>
@@ -7498,10 +7538,10 @@
     </row>
     <row r="477" ht="17.25" customHeight="1" spans="1:3">
       <c r="A477" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>5</v>
@@ -7509,10 +7549,10 @@
     </row>
     <row r="478" ht="17.25" customHeight="1" spans="1:3">
       <c r="A478" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>5</v>
@@ -7520,10 +7560,10 @@
     </row>
     <row r="479" ht="17.25" customHeight="1" spans="1:3">
       <c r="A479" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>5</v>
@@ -7531,10 +7571,10 @@
     </row>
     <row r="480" ht="17.25" customHeight="1" spans="1:3">
       <c r="A480" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>5</v>
@@ -7542,10 +7582,10 @@
     </row>
     <row r="481" ht="17.25" customHeight="1" spans="1:3">
       <c r="A481" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>5</v>

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="552">
   <si>
     <t>S.No</t>
   </si>
@@ -62,6 +62,348 @@
     <t>Container with most water</t>
   </si>
   <si>
+    <t>Kadane Algorithm</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Longest Increasing SubSequence</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Unique Path</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Longest Consecutive SubSequence</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Pacific Altantic water flow</t>
+  </si>
+  <si>
+    <t>Number of Island</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in a unidirected graph</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Merge Interval</t>
+  </si>
+  <si>
+    <t>Non Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>Detect Cycle in Linked List</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted List</t>
+  </si>
+  <si>
+    <t>Merge K Sorted List</t>
+  </si>
+  <si>
+    <t>Remove Nth Node from end of list</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeros</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Longest substring without reapeating characters</t>
+  </si>
+  <si>
+    <t>Longest Repeating charcter replacement</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Group Anangram</t>
+  </si>
+  <si>
+    <t>Minimum Window substring</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Longest Palindrome substring</t>
+  </si>
+  <si>
+    <t>Palindrome Substrings</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Encode and decode strings</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Maximum Depth of binary tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Invert/Flip Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Treversal</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Subtree of another Tree</t>
+  </si>
+  <si>
+    <t>Contruct Binary Tree from Preorder and inorder traversal</t>
+  </si>
+  <si>
+    <t>Validate BST</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Lowest common ancestor of BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Add and Search a word</t>
+  </si>
+  <si>
+    <t>word search II</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>Merge K sorted array</t>
+  </si>
+  <si>
+    <t>Top K frequent elements</t>
+  </si>
+  <si>
+    <t>Find Median from data stream</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
+  </si>
+  <si>
     <t>Sum of Two Integers</t>
   </si>
   <si>
@@ -75,348 +417,6 @@
   </si>
   <si>
     <t>Reverse Bits</t>
-  </si>
-  <si>
-    <t>Kadane Algorithm</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t>Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Climbing Stairs</t>
-  </si>
-  <si>
-    <t>Coin Change</t>
-  </si>
-  <si>
-    <t>Longest Increasing SubSequence</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Combination Sum</t>
-  </si>
-  <si>
-    <t>House Robber</t>
-  </si>
-  <si>
-    <t>House Robber II</t>
-  </si>
-  <si>
-    <t>Decode Ways</t>
-  </si>
-  <si>
-    <t>Unique Path</t>
-  </si>
-  <si>
-    <t>Jump Game</t>
-  </si>
-  <si>
-    <t>Jump Game II</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Longest Consecutive SubSequence</t>
-  </si>
-  <si>
-    <t>Course Schedule</t>
-  </si>
-  <si>
-    <t>Pacific Altantic water flow</t>
-  </si>
-  <si>
-    <t>Number of Island</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in a unidirected graph</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Merge Interval</t>
-  </si>
-  <si>
-    <t>Non Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Meeting Rooms</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Linked List</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List</t>
-  </si>
-  <si>
-    <t>Detect Cycle in Linked List</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted List</t>
-  </si>
-  <si>
-    <t>Merge K Sorted List</t>
-  </si>
-  <si>
-    <t>Remove Nth Node from end of list</t>
-  </si>
-  <si>
-    <t>Reorder List</t>
-  </si>
-  <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Set Matrix Zeros</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Rotate Image</t>
-  </si>
-  <si>
-    <t>Word Search</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Longest substring without reapeating characters</t>
-  </si>
-  <si>
-    <t>Longest Repeating charcter replacement</t>
-  </si>
-  <si>
-    <t>Valid Parenthesis</t>
-  </si>
-  <si>
-    <t>Valid Anagram</t>
-  </si>
-  <si>
-    <t>Group Anangram</t>
-  </si>
-  <si>
-    <t>Minimum Window substring</t>
-  </si>
-  <si>
-    <t>Valid Palindrome</t>
-  </si>
-  <si>
-    <t>Longest Palindrome substring</t>
-  </si>
-  <si>
-    <t>Palindrome Substrings</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t>EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t>Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t>Encode and decode strings</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Maximum Depth of binary tree</t>
-  </si>
-  <si>
-    <t>Same Tree</t>
-  </si>
-  <si>
-    <t>Invert/Flip Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Maximum Path Sum</t>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Treversal</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>Subtree of another Tree</t>
-  </si>
-  <si>
-    <t>Contruct Binary Tree from Preorder and inorder traversal</t>
-  </si>
-  <si>
-    <t>Validate BST</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t>Lowest common ancestor of BST</t>
-  </si>
-  <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t>Add and Search a word</t>
-  </si>
-  <si>
-    <t>word search II</t>
-  </si>
-  <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Heaps</t>
-  </si>
-  <si>
-    <t>Merge K sorted array</t>
-  </si>
-  <si>
-    <t>Top K frequent elements</t>
-  </si>
-  <si>
-    <t>Find Median from data stream</t>
-  </si>
-  <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
-    <t>Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t>Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t>Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t>Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t>Find position of the only set bit</t>
-  </si>
-  <si>
-    <t>Copy set bits in a range</t>
-  </si>
-  <si>
-    <t>Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t>Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t>Power Set</t>
   </si>
   <si>
     <t>Spiral traversal on a Matrix</t>
@@ -1678,10 +1678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1794,16 +1794,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1824,6 +1817,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1831,17 +1832,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,6 +1841,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1863,8 +1863,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1878,8 +1885,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1887,37 +1895,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1932,9 +1909,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1971,13 +1971,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,67 +2049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,19 +2079,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,55 +2139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,15 +2168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2201,6 +2192,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2212,21 +2212,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2248,15 +2233,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2265,151 +2241,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2829,10 +2829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C262"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="2"/>
@@ -2939,20 +2939,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="18">
         <v>8</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="18">
         <v>9</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>13</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2963,88 +2969,94 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="18">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="18">
         <v>15</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="18">
         <v>16</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="18">
         <v>18</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="18">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3063,68 +3075,68 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="18">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="18">
-        <v>23</v>
-      </c>
-      <c r="B28" s="24" t="s">
+      <c r="C27" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="22"/>
+    </row>
+    <row r="31" ht="20" spans="2:2">
+      <c r="B31" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="18">
-        <v>24</v>
-      </c>
-      <c r="B29" s="24" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="18">
+        <v>1</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="18">
-        <v>25</v>
-      </c>
-      <c r="B30" s="24" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="18">
+        <v>2</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="18">
-        <v>26</v>
-      </c>
-      <c r="B31" s="24" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="18">
+        <v>3</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="18">
-        <v>27</v>
-      </c>
-      <c r="B32" s="25" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="18">
+        <v>4</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="18" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="22"/>
-    </row>
-    <row r="36" ht="20" spans="2:2">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -3132,7 +3144,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>34</v>
@@ -3140,7 +3152,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>35</v>
@@ -3148,7 +3160,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>36</v>
@@ -3156,7 +3168,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>37</v>
@@ -3164,7 +3176,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>38</v>
@@ -3172,7 +3184,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>39</v>
@@ -3180,91 +3192,91 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="18">
-        <v>8</v>
-      </c>
-      <c r="B44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="18">
-        <v>9</v>
-      </c>
-      <c r="B45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="18">
-        <v>10</v>
-      </c>
-      <c r="B46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="18">
-        <v>11</v>
-      </c>
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="24"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="24"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" ht="20" spans="2:2">
+      <c r="B52" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="18">
-        <v>12</v>
-      </c>
-      <c r="B48" s="18" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="18">
+        <v>1</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="18">
-        <v>13</v>
-      </c>
-      <c r="B49" s="24" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="18">
+        <v>2</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="18">
-        <v>14</v>
-      </c>
-      <c r="B50" s="24" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="18">
+        <v>3</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="18">
-        <v>15</v>
-      </c>
-      <c r="B51" s="24" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="18">
+        <v>4</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="24"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="24"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="24"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="24"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="24"/>
-    </row>
-    <row r="57" ht="20" spans="2:2">
-      <c r="B57" s="21" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="18">
+        <v>5</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>49</v>
@@ -3272,7 +3284,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>50</v>
@@ -3280,233 +3292,233 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="18">
-        <v>4</v>
-      </c>
-      <c r="B61" s="18" t="s">
+    <row r="62" ht="20" spans="2:2">
+      <c r="B62" s="21" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="18">
-        <v>5</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B65" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="18">
+        <v>4</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" ht="20" spans="2:2">
-      <c r="B67" s="21" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="18">
+        <v>5</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="18">
-        <v>1</v>
-      </c>
-      <c r="B68" s="18" t="s">
+    <row r="69" ht="20" spans="2:2">
+      <c r="B69" s="21" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="18">
-        <v>2</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18">
+        <v>3</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="18">
+        <v>4</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="18">
         <v>5</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" ht="20" spans="2:2">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" s="18" customFormat="1" spans="1:2">
       <c r="A76" s="18">
-        <v>2</v>
-      </c>
-      <c r="B76" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="18">
-        <v>3</v>
-      </c>
-      <c r="B77" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="18">
-        <v>4</v>
-      </c>
-      <c r="B78" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="18">
-        <v>5</v>
-      </c>
-      <c r="B79" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="18">
-        <v>6</v>
-      </c>
-      <c r="B80" s="18" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" s="18" customFormat="1" spans="2:2">
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" ht="20" spans="2:2">
+      <c r="B82" s="21" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="81" s="18" customFormat="1" spans="1:2">
-      <c r="A81" s="18">
-        <v>7</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="18">
-        <v>8</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="18">
-        <v>9</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="18">
-        <v>10</v>
-      </c>
-      <c r="B84" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="18">
+        <v>3</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="18">
+        <v>4</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="24"/>
-    </row>
-    <row r="86" s="18" customFormat="1" spans="2:2">
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" ht="20" spans="2:2">
-      <c r="B87" s="21" t="s">
+    <row r="89" ht="20" spans="2:2">
+      <c r="B89" s="21" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="18">
-        <v>1</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="18">
-        <v>2</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="18">
+        <v>2</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="18">
+        <v>3</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="18">
         <v>4</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B93" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" ht="20" spans="2:2">
-      <c r="B94" s="21" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="18">
+        <v>5</v>
+      </c>
+      <c r="B94" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>80</v>
@@ -3514,7 +3526,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>81</v>
@@ -3522,7 +3534,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>82</v>
@@ -3530,7 +3542,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>83</v>
@@ -3538,100 +3550,100 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="18">
-        <v>5</v>
-      </c>
-      <c r="B99" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="18">
-        <v>6</v>
-      </c>
-      <c r="B100" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="18">
-        <v>7</v>
-      </c>
-      <c r="B101" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="18">
-        <v>8</v>
-      </c>
-      <c r="B102" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="18">
-        <v>9</v>
-      </c>
-      <c r="B103" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="18">
-        <v>10</v>
-      </c>
-      <c r="B104" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="18">
-        <v>11</v>
-      </c>
-      <c r="B105" s="24" t="s">
+    <row r="109" ht="20" spans="2:2">
+      <c r="B109" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="18">
-        <v>12</v>
-      </c>
-      <c r="B106" s="24" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="18">
+        <v>1</v>
+      </c>
+      <c r="B110" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="18">
-        <v>13</v>
-      </c>
-      <c r="B107" s="24" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="18">
+        <v>2</v>
+      </c>
+      <c r="B111" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="18">
-        <v>14</v>
-      </c>
-      <c r="B108" s="24" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="18">
+        <v>3</v>
+      </c>
+      <c r="B112" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="18">
-        <v>15</v>
-      </c>
-      <c r="B109" s="18" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="18">
+        <v>4</v>
+      </c>
+      <c r="B113" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" ht="20" spans="2:2">
-      <c r="B114" s="21" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="18">
+        <v>5</v>
+      </c>
+      <c r="B114" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>96</v>
@@ -3639,7 +3651,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>97</v>
@@ -3647,7 +3659,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>98</v>
@@ -3655,7 +3667,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>99</v>
@@ -3663,7 +3675,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>100</v>
@@ -3671,7 +3683,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>101</v>
@@ -3679,15 +3691,15 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="18">
-        <v>7</v>
-      </c>
-      <c r="B121" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>103</v>
@@ -3695,7 +3707,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>104</v>
@@ -3703,192 +3715,192 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="18">
-        <v>10</v>
-      </c>
-      <c r="B124" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="18">
-        <v>11</v>
-      </c>
-      <c r="B125" s="18" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="24"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="24"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="24"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="24"/>
+    </row>
+    <row r="129" ht="20" spans="2:2">
+      <c r="B129" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="18">
-        <v>12</v>
-      </c>
-      <c r="B126" s="24" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="18">
+        <v>1</v>
+      </c>
+      <c r="B130" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="18">
-        <v>13</v>
-      </c>
-      <c r="B127" s="18" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="18">
+        <v>2</v>
+      </c>
+      <c r="B131" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="18">
-        <v>14</v>
-      </c>
-      <c r="B128" s="18" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="18">
+        <v>3</v>
+      </c>
+      <c r="B132" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="18">
-        <v>15</v>
-      </c>
-      <c r="B129" s="24" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="18">
+        <v>4</v>
+      </c>
+      <c r="B133" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="24"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="24"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="24"/>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="24"/>
-    </row>
-    <row r="134" ht="20" spans="2:2">
-      <c r="B134" s="21" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" s="24"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="24"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="24"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="24"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="24"/>
+    </row>
+    <row r="139" ht="20" spans="2:2">
+      <c r="B139" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="18">
+    <row r="140" spans="1:2">
+      <c r="A140" s="18">
         <v>1</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B140" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="18">
+    <row r="141" spans="1:2">
+      <c r="A141" s="18">
         <v>2</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B141" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="18">
+    <row r="142" spans="1:2">
+      <c r="A142" s="18">
         <v>3</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B142" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="18">
+    <row r="143" spans="1:2">
+      <c r="A143" s="18">
         <v>4</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B143" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="24"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="24"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="24"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="24"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="24"/>
-    </row>
-    <row r="144" ht="20" spans="2:2">
-      <c r="B144" s="21" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="18">
+        <v>5</v>
+      </c>
+      <c r="B144" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="18">
+    <row r="146" spans="2:2">
+      <c r="B146" s="24"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="24"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="24"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="24"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="24"/>
+    </row>
+    <row r="152" ht="20" spans="2:2">
+      <c r="B152" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="18">
+        <v>1</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="18">
         <v>2</v>
       </c>
-      <c r="B146" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="18">
+      <c r="B154" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="18">
         <v>3</v>
       </c>
-      <c r="B147" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="18">
+      <c r="B155" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="18">
         <v>4</v>
       </c>
-      <c r="B148" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="18">
+      <c r="B156" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="18">
         <v>5</v>
       </c>
-      <c r="B149" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="18">
-        <v>6</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="24"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="24"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="24"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="24"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="24"/>
-    </row>
-    <row r="157" ht="20" spans="2:2">
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>124</v>
@@ -3896,7 +3908,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B159" s="24" t="s">
         <v>125</v>
@@ -3904,7 +3916,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B160" s="24" t="s">
         <v>126</v>
@@ -3912,7 +3924,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B161" s="24" t="s">
         <v>127</v>
@@ -3920,7 +3932,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B162" s="24" t="s">
         <v>128</v>
@@ -3928,660 +3940,645 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="18">
-        <v>6</v>
-      </c>
-      <c r="B163" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="18">
-        <v>7</v>
-      </c>
-      <c r="B164" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="18">
-        <v>8</v>
-      </c>
-      <c r="B165" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="18">
-        <v>9</v>
-      </c>
-      <c r="B166" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="18">
-        <v>10</v>
-      </c>
-      <c r="B167" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="24"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="24"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="24"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="24"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="24"/>
-    </row>
-    <row r="174" ht="20" spans="2:2">
-      <c r="B174" s="21" t="s">
-        <v>74</v>
+    <row r="169" ht="20" spans="2:2">
+      <c r="B169" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="18">
+        <v>1</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="18">
+        <v>2</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="18">
+        <v>3</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="18">
+        <v>4</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="18">
+        <v>5</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B175" s="24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="18">
+        <v>10</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="24"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="24"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="24"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="24"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="24"/>
+    </row>
+    <row r="186" ht="20" spans="2:2">
+      <c r="B186" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="18">
+        <v>1</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="18">
+        <v>2</v>
+      </c>
+      <c r="B188" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="18">
+        <v>3</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="18">
+        <v>4</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="18">
         <v>5</v>
       </c>
-      <c r="B179" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="18">
-        <v>6</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="18">
-        <v>7</v>
-      </c>
-      <c r="B181" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="18">
-        <v>8</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="18">
-        <v>9</v>
-      </c>
-      <c r="B183" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="18">
-        <v>10</v>
-      </c>
-      <c r="B184" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="24"/>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="24"/>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="24"/>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="24"/>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="24"/>
-    </row>
-    <row r="191" ht="20" spans="2:2">
-      <c r="B191" s="21" t="s">
-        <v>144</v>
+      <c r="B191" s="24" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="18">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="18">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="18">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="18">
-        <v>21</v>
-      </c>
-      <c r="B212" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="18">
-        <v>22</v>
-      </c>
-      <c r="B213" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="18">
-        <v>23</v>
-      </c>
-      <c r="B214" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="18">
-        <v>24</v>
-      </c>
-      <c r="B215" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="18">
-        <v>25</v>
-      </c>
-      <c r="B216" s="24" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="24"/>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="24"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="24"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="24"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="24"/>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="24"/>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="24"/>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="24"/>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="24"/>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="24"/>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="24"/>
-    </row>
-    <row r="223" ht="20" spans="2:2">
-      <c r="B223" s="26" t="s">
+    <row r="218" ht="20" spans="2:2">
+      <c r="B218" s="26" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="18">
+        <v>1</v>
+      </c>
+      <c r="B219" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="18">
+        <v>2</v>
+      </c>
+      <c r="B220" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="18">
+        <v>3</v>
+      </c>
+      <c r="B221" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="18">
+        <v>4</v>
+      </c>
+      <c r="B222" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="18">
+        <v>5</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B227" s="24" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B228" s="24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B229" s="24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B230" s="24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B233" s="24" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B236" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="18">
-        <v>14</v>
-      </c>
-      <c r="B237" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="18">
-        <v>15</v>
-      </c>
-      <c r="B238" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="18">
-        <v>16</v>
-      </c>
-      <c r="B239" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="18">
-        <v>17</v>
-      </c>
-      <c r="B240" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="18">
-        <v>18</v>
-      </c>
-      <c r="B241" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="24"/>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="24"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="24"/>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="24"/>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="24"/>
-    </row>
-    <row r="248" ht="20" spans="2:2">
-      <c r="B248" s="21" t="s">
+    <row r="237" spans="2:2">
+      <c r="B237" s="24"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="24"/>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="24"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="24"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="24"/>
+    </row>
+    <row r="243" ht="20" spans="2:2">
+      <c r="B243" s="21" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="18">
+        <v>1</v>
+      </c>
+      <c r="B244" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="18">
+        <v>2</v>
+      </c>
+      <c r="B245" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="18">
+        <v>3</v>
+      </c>
+      <c r="B246" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="18">
+        <v>4</v>
+      </c>
+      <c r="B247" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="18">
+        <v>5</v>
+      </c>
+      <c r="B248" s="24" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B249" s="24" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B251" s="24" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B252" s="24" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B256" s="24" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="18">
-        <v>10</v>
-      </c>
-      <c r="B258" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="18">
-        <v>11</v>
-      </c>
-      <c r="B259" s="24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="18">
-        <v>12</v>
-      </c>
-      <c r="B260" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="18">
-        <v>13</v>
-      </c>
-      <c r="B261" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="18">
-        <v>14</v>
-      </c>
-      <c r="B262" s="24" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4718,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>211</v>
@@ -4729,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>211</v>
@@ -4740,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>211</v>
@@ -4850,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>228</v>
@@ -4905,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>209</v>
@@ -4927,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>209</v>
@@ -4938,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>209</v>
@@ -4993,7 +4990,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>209</v>
@@ -5004,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>209</v>
@@ -5015,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>209</v>
@@ -5026,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>209</v>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="44" ht="17.25" customHeight="1" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>134</v>
@@ -5058,7 +5055,7 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>135</v>
@@ -5069,7 +5066,7 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>136</v>
@@ -5080,7 +5077,7 @@
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>137</v>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>138</v>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>139</v>
@@ -5113,7 +5110,7 @@
     </row>
     <row r="50" ht="17.25" customHeight="1" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>140</v>
@@ -5124,7 +5121,7 @@
     </row>
     <row r="51" ht="17.25" customHeight="1" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>141</v>
@@ -5135,7 +5132,7 @@
     </row>
     <row r="52" ht="17.25" customHeight="1" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>142</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="53" ht="17.25" customHeight="1" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>143</v>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="56" ht="17.25" customHeight="1" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>238</v>
@@ -5174,7 +5171,7 @@
     </row>
     <row r="57" ht="17.25" customHeight="1" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>239</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="58" ht="17.25" customHeight="1" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>240</v>
@@ -5196,7 +5193,7 @@
     </row>
     <row r="59" ht="17.25" customHeight="1" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>241</v>
@@ -5207,7 +5204,7 @@
     </row>
     <row r="60" ht="17.25" customHeight="1" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>242</v>
@@ -5218,7 +5215,7 @@
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>243</v>
@@ -5229,7 +5226,7 @@
     </row>
     <row r="62" ht="17.25" customHeight="1" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>244</v>
@@ -5240,7 +5237,7 @@
     </row>
     <row r="63" ht="17.25" customHeight="1" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>245</v>
@@ -5251,7 +5248,7 @@
     </row>
     <row r="64" ht="17.25" customHeight="1" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>246</v>
@@ -5262,7 +5259,7 @@
     </row>
     <row r="65" ht="17.25" customHeight="1" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>247</v>
@@ -5273,7 +5270,7 @@
     </row>
     <row r="66" ht="17.25" customHeight="1" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>248</v>
@@ -5284,7 +5281,7 @@
     </row>
     <row r="67" ht="17.25" customHeight="1" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>249</v>
@@ -5295,10 +5292,10 @@
     </row>
     <row r="68" ht="17.25" customHeight="1" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>209</v>
@@ -5306,10 +5303,10 @@
     </row>
     <row r="69" ht="17.25" customHeight="1" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>209</v>
@@ -5317,10 +5314,10 @@
     </row>
     <row r="70" ht="17.25" customHeight="1" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>209</v>
@@ -5328,10 +5325,10 @@
     </row>
     <row r="71" ht="17.25" customHeight="1" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>209</v>
@@ -5339,10 +5336,10 @@
     </row>
     <row r="72" ht="17.25" customHeight="1" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>209</v>
@@ -5350,7 +5347,7 @@
     </row>
     <row r="73" ht="17.25" customHeight="1" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>250</v>
@@ -5361,7 +5358,7 @@
     </row>
     <row r="74" ht="17.25" customHeight="1" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>251</v>
@@ -5372,7 +5369,7 @@
     </row>
     <row r="75" ht="17.25" customHeight="1" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>252</v>
@@ -5383,7 +5380,7 @@
     </row>
     <row r="76" ht="17.25" customHeight="1" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>253</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="77" ht="17.25" customHeight="1" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>254</v>
@@ -5405,7 +5402,7 @@
     </row>
     <row r="78" ht="17.25" customHeight="1" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>255</v>
@@ -5416,7 +5413,7 @@
     </row>
     <row r="79" ht="17.25" customHeight="1" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>256</v>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="80" ht="17.25" customHeight="1" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>257</v>
@@ -5438,7 +5435,7 @@
     </row>
     <row r="81" ht="17.25" customHeight="1" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>258</v>
@@ -5449,7 +5446,7 @@
     </row>
     <row r="82" ht="17.25" customHeight="1" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>259</v>
@@ -5460,7 +5457,7 @@
     </row>
     <row r="83" ht="17.25" customHeight="1" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>260</v>
@@ -5471,7 +5468,7 @@
     </row>
     <row r="84" ht="17.25" customHeight="1" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>261</v>
@@ -5482,7 +5479,7 @@
     </row>
     <row r="85" ht="17.25" customHeight="1" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>262</v>
@@ -5493,7 +5490,7 @@
     </row>
     <row r="86" ht="17.25" customHeight="1" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>263</v>
@@ -5504,7 +5501,7 @@
     </row>
     <row r="87" ht="17.25" customHeight="1" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>264</v>
@@ -5515,7 +5512,7 @@
     </row>
     <row r="88" ht="17.25" customHeight="1" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>265</v>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="89" ht="17.25" customHeight="1" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>266</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="90" ht="17.25" customHeight="1" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>267</v>
@@ -5548,10 +5545,10 @@
     </row>
     <row r="91" ht="17.25" customHeight="1" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>209</v>
@@ -5559,7 +5556,7 @@
     </row>
     <row r="92" ht="17.25" customHeight="1" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>268</v>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="93" ht="17.25" customHeight="1" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>269</v>
@@ -5581,7 +5578,7 @@
     </row>
     <row r="94" ht="17.25" customHeight="1" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>270</v>
@@ -5592,7 +5589,7 @@
     </row>
     <row r="95" ht="17.25" customHeight="1" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>271</v>
@@ -5603,7 +5600,7 @@
     </row>
     <row r="96" ht="17.25" customHeight="1" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>272</v>
@@ -5614,7 +5611,7 @@
     </row>
     <row r="97" ht="17.25" customHeight="1" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>273</v>
@@ -5625,7 +5622,7 @@
     </row>
     <row r="98" ht="17.25" customHeight="1" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>274</v>
@@ -6178,7 +6175,7 @@
         <v>287</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>209</v>
@@ -6189,7 +6186,7 @@
         <v>287</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>209</v>
@@ -6288,7 +6285,7 @@
         <v>287</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>209</v>
@@ -6310,7 +6307,7 @@
         <v>287</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>209</v>
@@ -6952,7 +6949,7 @@
         <v>356</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>209</v>
@@ -7062,7 +7059,7 @@
         <v>356</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>209</v>
@@ -8227,7 +8224,7 @@
         <v>437</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>209</v>
@@ -8331,7 +8328,7 @@
     </row>
     <row r="356" ht="17.25" customHeight="1" spans="1:3">
       <c r="A356" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>455</v>
@@ -8342,7 +8339,7 @@
     </row>
     <row r="357" ht="17.25" customHeight="1" spans="1:3">
       <c r="A357" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B357" s="9" t="s">
         <v>456</v>
@@ -8353,7 +8350,7 @@
     </row>
     <row r="358" ht="17.25" customHeight="1" spans="1:3">
       <c r="A358" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B358" s="9" t="s">
         <v>457</v>
@@ -8364,7 +8361,7 @@
     </row>
     <row r="359" ht="17.25" customHeight="1" spans="1:3">
       <c r="A359" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>458</v>
@@ -8375,7 +8372,7 @@
     </row>
     <row r="360" ht="17.25" customHeight="1" spans="1:3">
       <c r="A360" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B360" s="9" t="s">
         <v>459</v>
@@ -8386,7 +8383,7 @@
     </row>
     <row r="361" ht="17.25" customHeight="1" spans="1:3">
       <c r="A361" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B361" s="9" t="s">
         <v>460</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="362" ht="17.25" customHeight="1" spans="1:3">
       <c r="A362" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B362" s="9" t="s">
         <v>461</v>
@@ -8408,7 +8405,7 @@
     </row>
     <row r="363" ht="17.25" customHeight="1" spans="1:3">
       <c r="A363" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B363" s="9" t="s">
         <v>462</v>
@@ -8419,7 +8416,7 @@
     </row>
     <row r="364" ht="17.25" customHeight="1" spans="1:3">
       <c r="A364" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B364" s="9" t="s">
         <v>463</v>
@@ -8430,7 +8427,7 @@
     </row>
     <row r="365" ht="17.25" customHeight="1" spans="1:3">
       <c r="A365" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B365" s="9" t="s">
         <v>464</v>
@@ -8441,7 +8438,7 @@
     </row>
     <row r="366" ht="17.25" customHeight="1" spans="1:3">
       <c r="A366" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B366" s="9" t="s">
         <v>465</v>
@@ -8452,7 +8449,7 @@
     </row>
     <row r="367" ht="17.25" customHeight="1" spans="1:3">
       <c r="A367" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B367" s="9" t="s">
         <v>466</v>
@@ -8463,7 +8460,7 @@
     </row>
     <row r="368" ht="17.25" customHeight="1" spans="1:3">
       <c r="A368" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B368" s="9" t="s">
         <v>467</v>
@@ -8474,7 +8471,7 @@
     </row>
     <row r="369" ht="17.25" customHeight="1" spans="1:3">
       <c r="A369" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B369" s="9" t="s">
         <v>468</v>
@@ -8485,7 +8482,7 @@
     </row>
     <row r="370" ht="17.25" customHeight="1" spans="1:3">
       <c r="A370" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B370" s="9" t="s">
         <v>469</v>
@@ -8496,7 +8493,7 @@
     </row>
     <row r="371" ht="17.25" customHeight="1" spans="1:3">
       <c r="A371" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B371" s="9" t="s">
         <v>470</v>
@@ -8507,7 +8504,7 @@
     </row>
     <row r="372" ht="17.25" customHeight="1" spans="1:3">
       <c r="A372" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B372" s="9" t="s">
         <v>471</v>
@@ -8518,7 +8515,7 @@
     </row>
     <row r="373" ht="17.25" customHeight="1" spans="1:3">
       <c r="A373" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B373" s="9" t="s">
         <v>472</v>
@@ -8529,7 +8526,7 @@
     </row>
     <row r="374" ht="17.25" customHeight="1" spans="1:3">
       <c r="A374" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B374" s="9" t="s">
         <v>473</v>
@@ -8540,7 +8537,7 @@
     </row>
     <row r="375" ht="17.25" customHeight="1" spans="1:3">
       <c r="A375" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B375" s="9" t="s">
         <v>474</v>
@@ -8551,7 +8548,7 @@
     </row>
     <row r="376" ht="17.25" customHeight="1" spans="1:3">
       <c r="A376" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B376" s="9" t="s">
         <v>475</v>
@@ -8562,7 +8559,7 @@
     </row>
     <row r="377" ht="17.25" customHeight="1" spans="1:3">
       <c r="A377" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>476</v>
@@ -8573,7 +8570,7 @@
     </row>
     <row r="378" ht="17.25" customHeight="1" spans="1:3">
       <c r="A378" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>477</v>
@@ -8584,7 +8581,7 @@
     </row>
     <row r="379" ht="17.25" customHeight="1" spans="1:3">
       <c r="A379" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B379" s="9" t="s">
         <v>478</v>
@@ -8595,7 +8592,7 @@
     </row>
     <row r="380" ht="17.25" customHeight="1" spans="1:3">
       <c r="A380" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B380" s="9" t="s">
         <v>479</v>
@@ -8606,7 +8603,7 @@
     </row>
     <row r="381" ht="17.25" customHeight="1" spans="1:3">
       <c r="A381" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B381" s="9" t="s">
         <v>480</v>
@@ -8617,7 +8614,7 @@
     </row>
     <row r="382" ht="17.25" customHeight="1" spans="1:3">
       <c r="A382" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B382" s="9" t="s">
         <v>481</v>
@@ -8628,7 +8625,7 @@
     </row>
     <row r="383" ht="17.25" customHeight="1" spans="1:3">
       <c r="A383" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B383" s="9" t="s">
         <v>482</v>
@@ -8639,7 +8636,7 @@
     </row>
     <row r="384" ht="17.25" customHeight="1" spans="1:3">
       <c r="A384" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B384" s="9" t="s">
         <v>483</v>
@@ -8650,7 +8647,7 @@
     </row>
     <row r="385" ht="17.25" customHeight="1" spans="1:3">
       <c r="A385" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B385" s="9" t="s">
         <v>484</v>
@@ -8661,7 +8658,7 @@
     </row>
     <row r="386" ht="17.25" customHeight="1" spans="1:3">
       <c r="A386" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B386" s="9" t="s">
         <v>485</v>
@@ -8672,7 +8669,7 @@
     </row>
     <row r="387" ht="17.25" customHeight="1" spans="1:3">
       <c r="A387" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B387" s="9" t="s">
         <v>486</v>
@@ -8683,7 +8680,7 @@
     </row>
     <row r="388" ht="17.25" customHeight="1" spans="1:3">
       <c r="A388" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>487</v>
@@ -8694,7 +8691,7 @@
     </row>
     <row r="389" ht="17.25" customHeight="1" spans="1:3">
       <c r="A389" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B389" s="9" t="s">
         <v>488</v>
@@ -8705,7 +8702,7 @@
     </row>
     <row r="390" ht="17.25" customHeight="1" spans="1:3">
       <c r="A390" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B390" s="9" t="s">
         <v>488</v>
@@ -8716,7 +8713,7 @@
     </row>
     <row r="391" ht="17.25" customHeight="1" spans="1:3">
       <c r="A391" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B391" s="9" t="s">
         <v>489</v>
@@ -8727,7 +8724,7 @@
     </row>
     <row r="392" ht="17.25" customHeight="1" spans="1:3">
       <c r="A392" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B392" s="9" t="s">
         <v>490</v>
@@ -8738,7 +8735,7 @@
     </row>
     <row r="393" ht="17.25" customHeight="1" spans="1:3">
       <c r="A393" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B393" s="9" t="s">
         <v>491</v>
@@ -8749,7 +8746,7 @@
     </row>
     <row r="394" ht="17.25" customHeight="1" spans="1:3">
       <c r="A394" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B394" s="9" t="s">
         <v>492</v>
@@ -8760,7 +8757,7 @@
     </row>
     <row r="395" ht="17.25" customHeight="1" spans="1:3">
       <c r="A395" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B395" s="9" t="s">
         <v>493</v>
@@ -8771,7 +8768,7 @@
     </row>
     <row r="396" ht="17.25" customHeight="1" spans="1:3">
       <c r="A396" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B396" s="9" t="s">
         <v>494</v>
@@ -8782,7 +8779,7 @@
     </row>
     <row r="397" ht="17.25" customHeight="1" spans="1:3">
       <c r="A397" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B397" s="9" t="s">
         <v>495</v>
@@ -8793,7 +8790,7 @@
     </row>
     <row r="398" ht="17.25" customHeight="1" spans="1:3">
       <c r="A398" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B398" s="9" t="s">
         <v>496</v>
@@ -8804,7 +8801,7 @@
     </row>
     <row r="399" ht="17.25" customHeight="1" spans="1:3">
       <c r="A399" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B399" s="9" t="s">
         <v>497</v>
@@ -8823,10 +8820,10 @@
     </row>
     <row r="402" ht="17.25" customHeight="1" spans="1:3">
       <c r="A402" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>209</v>
@@ -8834,10 +8831,10 @@
     </row>
     <row r="403" ht="17.25" customHeight="1" spans="1:3">
       <c r="A403" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>209</v>
@@ -8845,10 +8842,10 @@
     </row>
     <row r="404" ht="17.25" customHeight="1" spans="1:3">
       <c r="A404" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>209</v>
@@ -8856,10 +8853,10 @@
     </row>
     <row r="405" ht="17.25" customHeight="1" spans="1:3">
       <c r="A405" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>209</v>
@@ -8867,10 +8864,10 @@
     </row>
     <row r="406" ht="17.25" customHeight="1" spans="1:3">
       <c r="A406" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B406" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B406" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>209</v>
@@ -8878,10 +8875,10 @@
     </row>
     <row r="407" ht="17.25" customHeight="1" spans="1:3">
       <c r="A407" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>209</v>
@@ -8897,7 +8894,7 @@
     </row>
     <row r="410" ht="17.25" customHeight="1" spans="1:3">
       <c r="A410" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B410" s="9" t="s">
         <v>498</v>
@@ -8908,7 +8905,7 @@
     </row>
     <row r="411" ht="17.25" customHeight="1" spans="1:3">
       <c r="A411" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B411" s="9" t="s">
         <v>499</v>
@@ -8919,7 +8916,7 @@
     </row>
     <row r="412" ht="17.25" customHeight="1" spans="1:3">
       <c r="A412" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B412" s="9" t="s">
         <v>500</v>
@@ -8930,7 +8927,7 @@
     </row>
     <row r="413" ht="17.25" customHeight="1" spans="1:3">
       <c r="A413" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B413" s="9" t="s">
         <v>501</v>
@@ -8941,7 +8938,7 @@
     </row>
     <row r="414" ht="17.25" customHeight="1" spans="1:3">
       <c r="A414" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B414" s="9" t="s">
         <v>502</v>
@@ -8952,7 +8949,7 @@
     </row>
     <row r="415" ht="17.25" customHeight="1" spans="1:3">
       <c r="A415" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B415" s="9" t="s">
         <v>503</v>
@@ -8963,7 +8960,7 @@
     </row>
     <row r="416" ht="17.25" customHeight="1" spans="1:3">
       <c r="A416" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B416" s="9" t="s">
         <v>504</v>
@@ -8974,7 +8971,7 @@
     </row>
     <row r="417" ht="17.25" customHeight="1" spans="1:3">
       <c r="A417" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B417" s="9" t="s">
         <v>197</v>
@@ -8985,7 +8982,7 @@
     </row>
     <row r="418" ht="17.25" customHeight="1" spans="1:3">
       <c r="A418" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B418" s="9" t="s">
         <v>505</v>
@@ -8996,7 +8993,7 @@
     </row>
     <row r="419" ht="17.25" customHeight="1" spans="1:3">
       <c r="A419" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B419" s="9" t="s">
         <v>506</v>
@@ -9007,7 +9004,7 @@
     </row>
     <row r="420" ht="17.25" customHeight="1" spans="1:3">
       <c r="A420" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B420" s="9" t="s">
         <v>507</v>
@@ -9018,7 +9015,7 @@
     </row>
     <row r="421" ht="17.25" customHeight="1" spans="1:3">
       <c r="A421" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B421" s="9" t="s">
         <v>508</v>
@@ -9029,7 +9026,7 @@
     </row>
     <row r="422" ht="17.25" customHeight="1" spans="1:3">
       <c r="A422" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B422" s="9" t="s">
         <v>509</v>
@@ -9040,10 +9037,10 @@
     </row>
     <row r="423" ht="17.25" customHeight="1" spans="1:3">
       <c r="A423" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>209</v>
@@ -9051,7 +9048,7 @@
     </row>
     <row r="424" ht="17.25" customHeight="1" spans="1:3">
       <c r="A424" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B424" s="9" t="s">
         <v>510</v>
@@ -9062,7 +9059,7 @@
     </row>
     <row r="425" ht="17.25" customHeight="1" spans="1:3">
       <c r="A425" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B425" s="9" t="s">
         <v>511</v>
@@ -9073,7 +9070,7 @@
     </row>
     <row r="426" ht="17.25" customHeight="1" spans="1:3">
       <c r="A426" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B426" s="9" t="s">
         <v>512</v>
@@ -9084,7 +9081,7 @@
     </row>
     <row r="427" ht="17.25" customHeight="1" spans="1:3">
       <c r="A427" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B427" s="9" t="s">
         <v>513</v>
@@ -9095,7 +9092,7 @@
     </row>
     <row r="428" ht="17.25" customHeight="1" spans="1:3">
       <c r="A428" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B428" s="9" t="s">
         <v>514</v>
@@ -9106,7 +9103,7 @@
     </row>
     <row r="429" ht="17.25" customHeight="1" spans="1:3">
       <c r="A429" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B429" s="9" t="s">
         <v>515</v>
@@ -9117,7 +9114,7 @@
     </row>
     <row r="430" ht="17.25" customHeight="1" spans="1:3">
       <c r="A430" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B430" s="9" t="s">
         <v>516</v>
@@ -9128,7 +9125,7 @@
     </row>
     <row r="431" ht="17.25" customHeight="1" spans="1:3">
       <c r="A431" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B431" s="9" t="s">
         <v>517</v>
@@ -9139,7 +9136,7 @@
     </row>
     <row r="432" ht="17.25" customHeight="1" spans="1:3">
       <c r="A432" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B432" s="9" t="s">
         <v>518</v>
@@ -9150,7 +9147,7 @@
     </row>
     <row r="433" ht="17.25" customHeight="1" spans="1:3">
       <c r="A433" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B433" s="9" t="s">
         <v>519</v>
@@ -9161,7 +9158,7 @@
     </row>
     <row r="434" ht="17.25" customHeight="1" spans="1:3">
       <c r="A434" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B434" s="9" t="s">
         <v>520</v>
@@ -9172,7 +9169,7 @@
     </row>
     <row r="435" ht="17.25" customHeight="1" spans="1:3">
       <c r="A435" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B435" s="9" t="s">
         <v>521</v>
@@ -9183,7 +9180,7 @@
     </row>
     <row r="436" ht="17.25" customHeight="1" spans="1:3">
       <c r="A436" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B436" s="9" t="s">
         <v>522</v>
@@ -9194,7 +9191,7 @@
     </row>
     <row r="437" ht="17.25" customHeight="1" spans="1:3">
       <c r="A437" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B437" s="9" t="s">
         <v>523</v>
@@ -9205,7 +9202,7 @@
     </row>
     <row r="438" ht="17.25" customHeight="1" spans="1:3">
       <c r="A438" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B438" s="9" t="s">
         <v>524</v>
@@ -9216,7 +9213,7 @@
     </row>
     <row r="439" ht="17.25" customHeight="1" spans="1:3">
       <c r="A439" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B439" s="9" t="s">
         <v>525</v>
@@ -9227,7 +9224,7 @@
     </row>
     <row r="440" ht="17.25" customHeight="1" spans="1:3">
       <c r="A440" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B440" s="9" t="s">
         <v>526</v>
@@ -9238,7 +9235,7 @@
     </row>
     <row r="441" ht="17.25" customHeight="1" spans="1:3">
       <c r="A441" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B441" s="9" t="s">
         <v>527</v>
@@ -9249,7 +9246,7 @@
     </row>
     <row r="442" ht="17.25" customHeight="1" spans="1:3">
       <c r="A442" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B442" s="9" t="s">
         <v>528</v>
@@ -9260,7 +9257,7 @@
     </row>
     <row r="443" ht="17.25" customHeight="1" spans="1:3">
       <c r="A443" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B443" s="9" t="s">
         <v>529</v>
@@ -9271,10 +9268,10 @@
     </row>
     <row r="444" ht="17.25" customHeight="1" spans="1:3">
       <c r="A444" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>209</v>
@@ -9282,7 +9279,7 @@
     </row>
     <row r="445" ht="17.25" customHeight="1" spans="1:3">
       <c r="A445" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B445" s="9" t="s">
         <v>530</v>
@@ -9293,7 +9290,7 @@
     </row>
     <row r="446" ht="17.25" customHeight="1" spans="1:3">
       <c r="A446" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B446" s="9" t="s">
         <v>531</v>
@@ -9304,10 +9301,10 @@
     </row>
     <row r="447" ht="17.25" customHeight="1" spans="1:3">
       <c r="A447" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B447" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B447" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>209</v>
@@ -9315,7 +9312,7 @@
     </row>
     <row r="448" ht="17.25" customHeight="1" spans="1:3">
       <c r="A448" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B448" s="9" t="s">
         <v>532</v>
@@ -9326,7 +9323,7 @@
     </row>
     <row r="449" ht="17.25" customHeight="1" spans="1:3">
       <c r="A449" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B449" s="9" t="s">
         <v>533</v>
@@ -9337,7 +9334,7 @@
     </row>
     <row r="450" ht="17.25" customHeight="1" spans="1:3">
       <c r="A450" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B450" s="9" t="s">
         <v>534</v>
@@ -9348,7 +9345,7 @@
     </row>
     <row r="451" ht="17.25" customHeight="1" spans="1:3">
       <c r="A451" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B451" s="9" t="s">
         <v>535</v>
@@ -9359,7 +9356,7 @@
     </row>
     <row r="452" ht="17.25" customHeight="1" spans="1:3">
       <c r="A452" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B452" s="9" t="s">
         <v>536</v>
@@ -9370,7 +9367,7 @@
     </row>
     <row r="453" ht="17.25" customHeight="1" spans="1:3">
       <c r="A453" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B453" s="9" t="s">
         <v>537</v>
@@ -9381,7 +9378,7 @@
     </row>
     <row r="454" ht="17.25" customHeight="1" spans="1:3">
       <c r="A454" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B454" s="9" t="s">
         <v>538</v>
@@ -9392,7 +9389,7 @@
     </row>
     <row r="455" ht="17.25" customHeight="1" spans="1:3">
       <c r="A455" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B455" s="9" t="s">
         <v>539</v>
@@ -9403,10 +9400,10 @@
     </row>
     <row r="456" ht="17.25" customHeight="1" spans="1:3">
       <c r="A456" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>209</v>
@@ -9414,10 +9411,10 @@
     </row>
     <row r="457" ht="17.25" customHeight="1" spans="1:3">
       <c r="A457" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>209</v>
@@ -9425,7 +9422,7 @@
     </row>
     <row r="458" ht="17.25" customHeight="1" spans="1:3">
       <c r="A458" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B458" s="9" t="s">
         <v>540</v>
@@ -9436,7 +9433,7 @@
     </row>
     <row r="459" ht="17.25" customHeight="1" spans="1:3">
       <c r="A459" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B459" s="9" t="s">
         <v>541</v>
@@ -9447,7 +9444,7 @@
     </row>
     <row r="460" ht="17.25" customHeight="1" spans="1:3">
       <c r="A460" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>542</v>
@@ -9458,7 +9455,7 @@
     </row>
     <row r="461" ht="17.25" customHeight="1" spans="1:3">
       <c r="A461" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B461" s="9" t="s">
         <v>543</v>
@@ -9469,7 +9466,7 @@
     </row>
     <row r="462" ht="17.25" customHeight="1" spans="1:3">
       <c r="A462" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>544</v>
@@ -9480,7 +9477,7 @@
     </row>
     <row r="463" ht="17.25" customHeight="1" spans="1:3">
       <c r="A463" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B463" s="9" t="s">
         <v>545</v>
@@ -9491,7 +9488,7 @@
     </row>
     <row r="464" ht="17.25" customHeight="1" spans="1:3">
       <c r="A464" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B464" s="9" t="s">
         <v>546</v>
@@ -9502,7 +9499,7 @@
     </row>
     <row r="465" ht="17.25" customHeight="1" spans="1:3">
       <c r="A465" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B465" s="9" t="s">
         <v>547</v>
@@ -9513,7 +9510,7 @@
     </row>
     <row r="466" ht="17.25" customHeight="1" spans="1:3">
       <c r="A466" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B466" s="9" t="s">
         <v>548</v>
@@ -9524,7 +9521,7 @@
     </row>
     <row r="467" ht="17.25" customHeight="1" spans="1:3">
       <c r="A467" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B467" s="9" t="s">
         <v>549</v>
@@ -9535,7 +9532,7 @@
     </row>
     <row r="468" ht="17.25" customHeight="1" spans="1:3">
       <c r="A468" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B468" s="9" t="s">
         <v>550</v>
@@ -9546,7 +9543,7 @@
     </row>
     <row r="469" ht="17.25" customHeight="1" spans="1:3">
       <c r="A469" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B469" s="9" t="s">
         <v>551</v>
@@ -9566,10 +9563,10 @@
     </row>
     <row r="472" ht="17.25" customHeight="1" spans="1:3">
       <c r="A472" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>209</v>
@@ -9577,10 +9574,10 @@
     </row>
     <row r="473" ht="17.25" customHeight="1" spans="1:3">
       <c r="A473" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>209</v>
@@ -9588,10 +9585,10 @@
     </row>
     <row r="474" ht="17.25" customHeight="1" spans="1:3">
       <c r="A474" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>209</v>
@@ -9599,10 +9596,10 @@
     </row>
     <row r="475" ht="17.25" customHeight="1" spans="1:3">
       <c r="A475" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>209</v>
@@ -9610,10 +9607,10 @@
     </row>
     <row r="476" ht="17.25" customHeight="1" spans="1:3">
       <c r="A476" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B476" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B476" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>209</v>
@@ -9621,10 +9618,10 @@
     </row>
     <row r="477" ht="17.25" customHeight="1" spans="1:3">
       <c r="A477" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>209</v>
@@ -9632,10 +9629,10 @@
     </row>
     <row r="478" ht="17.25" customHeight="1" spans="1:3">
       <c r="A478" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>209</v>
@@ -9643,10 +9640,10 @@
     </row>
     <row r="479" ht="17.25" customHeight="1" spans="1:3">
       <c r="A479" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>209</v>
@@ -9654,10 +9651,10 @@
     </row>
     <row r="480" ht="17.25" customHeight="1" spans="1:3">
       <c r="A480" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>209</v>
@@ -9665,10 +9662,10 @@
     </row>
     <row r="481" ht="17.25" customHeight="1" spans="1:3">
       <c r="A481" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>209</v>

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="552">
   <si>
     <t>S.No</t>
   </si>
@@ -1679,9 +1679,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1794,11 +1794,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1809,31 +1809,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1848,7 +1848,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1862,16 +1862,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1880,21 +1872,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1915,8 +1892,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,10 +1931,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1959,7 +1959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,13 +1977,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,19 +2061,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,25 +2085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,19 +2103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,7 +2121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,67 +2133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,6 +2168,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2192,11 +2210,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2217,16 +2241,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2241,175 +2265,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2831,8 +2831,8 @@
   <sheetPr/>
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="2"/>
@@ -3067,12 +3067,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="18">
         <v>21</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>25</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="552">
   <si>
     <t>S.No</t>
   </si>
@@ -89,646 +89,646 @@
     <t>Minimum no. of operations required to make an array palindrome</t>
   </si>
   <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Longest Increasing SubSequence</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Unique Path</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Longest Consecutive SubSequence</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Pacific Altantic water flow</t>
+  </si>
+  <si>
+    <t>Number of Island</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in a unidirected graph</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Merge Interval</t>
+  </si>
+  <si>
+    <t>Non Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>Detect Cycle in Linked List</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted List</t>
+  </si>
+  <si>
+    <t>Merge K Sorted List</t>
+  </si>
+  <si>
+    <t>Remove Nth Node from end of list</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeros</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Longest substring without reapeating characters</t>
+  </si>
+  <si>
+    <t>Longest Repeating charcter replacement</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Group Anangram</t>
+  </si>
+  <si>
+    <t>Minimum Window substring</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Longest Palindrome substring</t>
+  </si>
+  <si>
+    <t>Palindrome Substrings</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Encode and decode strings</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Maximum Depth of binary tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Invert/Flip Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Treversal</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Subtree of another Tree</t>
+  </si>
+  <si>
+    <t>Contruct Binary Tree from Preorder and inorder traversal</t>
+  </si>
+  <si>
+    <t>Validate BST</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Lowest common ancestor of BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Add and Search a word</t>
+  </si>
+  <si>
+    <t>word search II</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>Merge K sorted array</t>
+  </si>
+  <si>
+    <t>Top K frequent elements</t>
+  </si>
+  <si>
+    <t>Find Median from data stream</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>Search &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all permutations of a string </t>
+  </si>
+  <si>
+    <t>Questions by Love Babbar:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Topic:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done [yes or no] </t>
+  </si>
+  <si>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find maximum product subarray </t>
+  </si>
+  <si>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
     <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Climbing Stairs</t>
-  </si>
-  <si>
-    <t>Coin Change</t>
-  </si>
-  <si>
-    <t>Longest Increasing SubSequence</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Combination Sum</t>
-  </si>
-  <si>
-    <t>House Robber</t>
-  </si>
-  <si>
-    <t>House Robber II</t>
-  </si>
-  <si>
-    <t>Decode Ways</t>
-  </si>
-  <si>
-    <t>Unique Path</t>
-  </si>
-  <si>
-    <t>Jump Game</t>
-  </si>
-  <si>
-    <t>Jump Game II</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Longest Consecutive SubSequence</t>
-  </si>
-  <si>
-    <t>Course Schedule</t>
-  </si>
-  <si>
-    <t>Pacific Altantic water flow</t>
-  </si>
-  <si>
-    <t>Number of Island</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in a unidirected graph</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Merge Interval</t>
-  </si>
-  <si>
-    <t>Non Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Meeting Rooms</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Linked List</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List</t>
-  </si>
-  <si>
-    <t>Detect Cycle in Linked List</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted List</t>
-  </si>
-  <si>
-    <t>Merge K Sorted List</t>
-  </si>
-  <si>
-    <t>Remove Nth Node from end of list</t>
-  </si>
-  <si>
-    <t>Reorder List</t>
-  </si>
-  <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Set Matrix Zeros</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Rotate Image</t>
-  </si>
-  <si>
-    <t>Word Search</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Longest substring without reapeating characters</t>
-  </si>
-  <si>
-    <t>Longest Repeating charcter replacement</t>
-  </si>
-  <si>
-    <t>Valid Parenthesis</t>
-  </si>
-  <si>
-    <t>Valid Anagram</t>
-  </si>
-  <si>
-    <t>Group Anangram</t>
-  </si>
-  <si>
-    <t>Minimum Window substring</t>
-  </si>
-  <si>
-    <t>Valid Palindrome</t>
-  </si>
-  <si>
-    <t>Longest Palindrome substring</t>
-  </si>
-  <si>
-    <t>Palindrome Substrings</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t>EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t>Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t>Encode and decode strings</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Maximum Depth of binary tree</t>
-  </si>
-  <si>
-    <t>Same Tree</t>
-  </si>
-  <si>
-    <t>Invert/Flip Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Maximum Path Sum</t>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Treversal</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>Subtree of another Tree</t>
-  </si>
-  <si>
-    <t>Contruct Binary Tree from Preorder and inorder traversal</t>
-  </si>
-  <si>
-    <t>Validate BST</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t>Lowest common ancestor of BST</t>
-  </si>
-  <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t>Add and Search a word</t>
-  </si>
-  <si>
-    <t>word search II</t>
-  </si>
-  <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Heaps</t>
-  </si>
-  <si>
-    <t>Merge K sorted array</t>
-  </si>
-  <si>
-    <t>Top K frequent elements</t>
-  </si>
-  <si>
-    <t>Find Median from data stream</t>
-  </si>
-  <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
-    <t>Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t>Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t>Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t>Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t>Find position of the only set bit</t>
-  </si>
-  <si>
-    <t>Copy set bits in a range</t>
-  </si>
-  <si>
-    <t>Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t>Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t>Power Set</t>
-  </si>
-  <si>
-    <t>Sum of Two Integers</t>
-  </si>
-  <si>
-    <t>Number of 1 Bits</t>
-  </si>
-  <si>
-    <t>Counting Bits</t>
-  </si>
-  <si>
-    <t>Missing Number</t>
-  </si>
-  <si>
-    <t>Reverse Bits</t>
-  </si>
-  <si>
-    <t>Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
-    <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t>Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Maximum size rectangle</t>
-  </si>
-  <si>
-    <t>Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t>Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t>Search &amp; Sorting</t>
-  </si>
-  <si>
-    <t>Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t>Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t>square root of an integer</t>
-  </si>
-  <si>
-    <t>Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t>Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t>Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t>find majority element</t>
-  </si>
-  <si>
-    <t>Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t>find a pair with a given difference</t>
-  </si>
-  <si>
-    <t>find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t>maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t>Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t>print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t>Product array Puzzle</t>
-  </si>
-  <si>
-    <t>Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t>minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t>Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t>Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t>Kth smallest number again</t>
-  </si>
-  <si>
-    <t>Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t>K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Aggressive cows</t>
-  </si>
-  <si>
-    <t>Book Allocation Problem</t>
-  </si>
-  <si>
-    <t>Greedy</t>
-  </si>
-  <si>
-    <t>Activity Selection Problem</t>
-  </si>
-  <si>
-    <t>Job SequencingProblem</t>
-  </si>
-  <si>
-    <t>Huffman Coding</t>
-  </si>
-  <si>
-    <t>Water Connection Problem</t>
-  </si>
-  <si>
-    <t>Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t>Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t>Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t>Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t>Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t>Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t>Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t>Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t>Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t>Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t>BackTracking</t>
-  </si>
-  <si>
-    <t>Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t>Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t>Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t>Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t>Sudoku Solver</t>
-  </si>
-  <si>
-    <t>m Coloring Problem</t>
-  </si>
-  <si>
-    <t>Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t>Subset Sum Problem</t>
-  </si>
-  <si>
-    <t>The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t>Tug of War</t>
-  </si>
-  <si>
-    <t>Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t>Combinational Sum</t>
-  </si>
-  <si>
-    <t>Find Maximum number possible by doing at-most K swaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all permutations of a string </t>
-  </si>
-  <si>
-    <t>Questions by Love Babbar:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
-  </si>
-  <si>
-    <t>Topic:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done [yes or no] </t>
-  </si>
-  <si>
-    <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
-  </si>
-  <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
-  </si>
-  <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t>Find factorial of a large number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find maximum product subarray </t>
-  </si>
-  <si>
-    <t>Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t>Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t>Three way partitioning of an array around a given value</t>
   </si>
   <si>
     <t>Reverse a String</t>
@@ -1679,9 +1679,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1794,14 +1794,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1809,15 +1801,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1831,11 +1817,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1847,23 +1848,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1886,22 +1887,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1914,6 +1900,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1922,17 +1930,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,13 +1965,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,7 +2055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,49 +2073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,37 +2091,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,49 +2133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,24 +2168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2205,22 +2187,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,6 +2224,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2265,151 +2256,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2829,10 +2829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="2"/>
@@ -2961,12 +2961,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="18">
         <v>10</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>14</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3024,12 +3027,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="18">
         <v>16</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3043,63 +3049,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="18">
         <v>18</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="18">
         <v>19</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="18">
         <v>20</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>24</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="18">
         <v>21</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="18">
-        <v>22</v>
-      </c>
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="22"/>
+    </row>
+    <row r="30" ht="20" spans="2:2">
+      <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="22"/>
-    </row>
-    <row r="31" ht="20" spans="2:2">
-      <c r="B31" s="21" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="18">
+        <v>1</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>28</v>
@@ -3107,7 +3119,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>29</v>
@@ -3115,7 +3127,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>30</v>
@@ -3123,7 +3135,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>31</v>
@@ -3131,7 +3143,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>32</v>
@@ -3139,7 +3151,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -3147,7 +3159,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>34</v>
@@ -3155,7 +3167,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>35</v>
@@ -3163,7 +3175,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>36</v>
@@ -3171,7 +3183,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>37</v>
@@ -3179,7 +3191,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>38</v>
@@ -3187,15 +3199,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="18">
-        <v>12</v>
-      </c>
-      <c r="B43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>40</v>
@@ -3203,19 +3215,14 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="18">
-        <v>15</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>42</v>
-      </c>
+    <row r="46" spans="2:2">
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="24"/>
@@ -3229,17 +3236,22 @@
     <row r="50" spans="2:2">
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="24"/>
-    </row>
-    <row r="52" ht="20" spans="2:2">
-      <c r="B52" s="21" t="s">
+    <row r="51" ht="20" spans="2:2">
+      <c r="B51" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="18">
+        <v>1</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>44</v>
@@ -3247,7 +3259,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>45</v>
@@ -3255,7 +3267,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>46</v>
@@ -3263,7 +3275,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>47</v>
@@ -3271,7 +3283,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>48</v>
@@ -3279,7 +3291,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>49</v>
@@ -3287,28 +3299,28 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="18">
-        <v>8</v>
-      </c>
-      <c r="B60" s="18" t="s">
+    <row r="61" ht="20" spans="2:2">
+      <c r="B61" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" ht="20" spans="2:2">
-      <c r="B62" s="21" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="18">
+        <v>1</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>53</v>
@@ -3316,7 +3328,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>54</v>
@@ -3324,7 +3336,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>55</v>
@@ -3332,28 +3344,28 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="18">
-        <v>5</v>
-      </c>
-      <c r="B67" s="18" t="s">
+    <row r="68" ht="20" spans="2:2">
+      <c r="B68" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" ht="20" spans="2:2">
-      <c r="B69" s="21" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="18">
+        <v>1</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>59</v>
@@ -3361,7 +3373,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>60</v>
@@ -3369,7 +3381,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>61</v>
@@ -3377,7 +3389,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>62</v>
@@ -3385,23 +3397,23 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" s="18" customFormat="1" spans="1:2">
       <c r="A75" s="18">
-        <v>6</v>
-      </c>
-      <c r="B75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" s="18" customFormat="1" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" s="24" t="s">
         <v>65</v>
@@ -3409,7 +3421,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77" s="24" t="s">
         <v>66</v>
@@ -3417,34 +3429,34 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="18">
-        <v>10</v>
-      </c>
-      <c r="B79" s="24" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" s="18" customFormat="1" spans="2:2">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" ht="20" spans="2:2">
+      <c r="B81" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" s="18" customFormat="1" spans="2:2">
-      <c r="B81" s="24"/>
-    </row>
-    <row r="82" ht="20" spans="2:2">
-      <c r="B82" s="21" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="18">
+        <v>1</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>70</v>
@@ -3452,7 +3464,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>71</v>
@@ -3460,28 +3472,28 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="18">
-        <v>4</v>
-      </c>
-      <c r="B86" s="18" t="s">
+    <row r="88" ht="20" spans="2:2">
+      <c r="B88" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" ht="20" spans="2:2">
-      <c r="B89" s="21" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="18">
+        <v>1</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>75</v>
@@ -3489,7 +3501,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>76</v>
@@ -3497,7 +3509,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>77</v>
@@ -3505,7 +3517,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>78</v>
@@ -3513,7 +3525,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>79</v>
@@ -3521,7 +3533,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>80</v>
@@ -3529,7 +3541,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>81</v>
@@ -3537,7 +3549,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>82</v>
@@ -3545,15 +3557,15 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="18">
-        <v>9</v>
-      </c>
-      <c r="B98" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>84</v>
@@ -3561,7 +3573,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>85</v>
@@ -3569,7 +3581,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>86</v>
@@ -3577,7 +3589,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>87</v>
@@ -3585,28 +3597,28 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="18">
-        <v>14</v>
-      </c>
-      <c r="B103" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="18">
-        <v>15</v>
-      </c>
-      <c r="B104" s="18" t="s">
+    <row r="108" ht="20" spans="2:2">
+      <c r="B108" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="109" ht="20" spans="2:2">
-      <c r="B109" s="21" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="18">
+        <v>1</v>
+      </c>
+      <c r="B109" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>91</v>
@@ -3614,7 +3626,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>92</v>
@@ -3622,7 +3634,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>93</v>
@@ -3630,7 +3642,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>94</v>
@@ -3638,7 +3650,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>95</v>
@@ -3646,7 +3658,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>96</v>
@@ -3654,7 +3666,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>97</v>
@@ -3662,7 +3674,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>98</v>
@@ -3670,7 +3682,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>99</v>
@@ -3678,7 +3690,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>100</v>
@@ -3686,23 +3698,23 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="18">
-        <v>11</v>
-      </c>
-      <c r="B120" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="18">
-        <v>12</v>
-      </c>
-      <c r="B121" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>103</v>
@@ -3710,19 +3722,14 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="18">
-        <v>14</v>
-      </c>
-      <c r="B123" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="18">
-        <v>15</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>105</v>
-      </c>
+    <row r="124" spans="2:2">
+      <c r="B124" s="24"/>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="24"/>
@@ -3733,17 +3740,22 @@
     <row r="127" spans="2:2">
       <c r="B127" s="24"/>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="24"/>
-    </row>
-    <row r="129" ht="20" spans="2:2">
-      <c r="B129" s="21" t="s">
+    <row r="128" ht="20" spans="2:2">
+      <c r="B128" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="18">
+        <v>1</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>107</v>
@@ -3751,7 +3763,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>108</v>
@@ -3759,19 +3771,14 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="18">
-        <v>3</v>
-      </c>
-      <c r="B132" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="18">
-        <v>4</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>110</v>
-      </c>
+    <row r="133" spans="2:2">
+      <c r="B133" s="24"/>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="24"/>
@@ -3785,17 +3792,22 @@
     <row r="137" spans="2:2">
       <c r="B137" s="24"/>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="24"/>
-    </row>
-    <row r="139" ht="20" spans="2:2">
-      <c r="B139" s="21" t="s">
+    <row r="138" ht="20" spans="2:2">
+      <c r="B138" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="18">
+        <v>1</v>
+      </c>
+      <c r="B139" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B140" s="24" t="s">
         <v>112</v>
@@ -3803,7 +3815,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141" s="24" t="s">
         <v>113</v>
@@ -3811,7 +3823,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>114</v>
@@ -3819,7 +3831,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>115</v>
@@ -3827,19 +3839,14 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="18">
-        <v>6</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>117</v>
-      </c>
+    <row r="145" spans="2:2">
+      <c r="B145" s="24"/>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="24"/>
@@ -3853,17 +3860,22 @@
     <row r="149" spans="2:2">
       <c r="B149" s="24"/>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="24"/>
-    </row>
-    <row r="152" ht="20" spans="2:2">
-      <c r="B152" s="21" t="s">
+    <row r="151" ht="20" spans="2:2">
+      <c r="B151" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="18">
+        <v>1</v>
+      </c>
+      <c r="B152" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" s="24" t="s">
         <v>119</v>
@@ -3871,7 +3883,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B154" s="24" t="s">
         <v>120</v>
@@ -3879,7 +3891,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155" s="24" t="s">
         <v>121</v>
@@ -3887,7 +3899,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156" s="24" t="s">
         <v>122</v>
@@ -3895,7 +3907,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B157" s="24" t="s">
         <v>123</v>
@@ -3903,7 +3915,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>124</v>
@@ -3911,7 +3923,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B159" s="24" t="s">
         <v>125</v>
@@ -3919,7 +3931,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B160" s="24" t="s">
         <v>126</v>
@@ -3927,7 +3939,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B161" s="24" t="s">
         <v>127</v>
@@ -3935,15 +3947,15 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="18">
-        <v>10</v>
-      </c>
-      <c r="B162" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>129</v>
@@ -3951,7 +3963,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>130</v>
@@ -3959,7 +3971,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>131</v>
@@ -3967,28 +3979,28 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="18">
-        <v>15</v>
-      </c>
-      <c r="B167" s="18" t="s">
+    <row r="168" ht="20" spans="2:2">
+      <c r="B168" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="18">
+        <v>1</v>
+      </c>
+      <c r="B169" s="24" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="169" ht="20" spans="2:2">
-      <c r="B169" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>134</v>
@@ -3996,7 +4008,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>135</v>
@@ -4004,7 +4016,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>136</v>
@@ -4012,7 +4024,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" s="24" t="s">
         <v>137</v>
@@ -4020,7 +4032,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B174" s="24" t="s">
         <v>138</v>
@@ -4028,7 +4040,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B175" s="24" t="s">
         <v>139</v>
@@ -4036,7 +4048,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B176" s="24" t="s">
         <v>140</v>
@@ -4044,7 +4056,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B177" s="24" t="s">
         <v>141</v>
@@ -4052,19 +4064,14 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B178" s="24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="18">
-        <v>10</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>143</v>
-      </c>
+    <row r="179" spans="2:2">
+      <c r="B179" s="24"/>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="24"/>
@@ -4078,17 +4085,22 @@
     <row r="183" spans="2:2">
       <c r="B183" s="24"/>
     </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="24"/>
-    </row>
-    <row r="186" ht="20" spans="2:2">
-      <c r="B186" s="21" t="s">
+    <row r="185" ht="20" spans="2:2">
+      <c r="B185" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="18">
+        <v>1</v>
+      </c>
+      <c r="B186" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>145</v>
@@ -4096,7 +4108,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>146</v>
@@ -4104,7 +4116,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B189" s="24" t="s">
         <v>147</v>
@@ -4112,7 +4124,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B190" s="24" t="s">
         <v>148</v>
@@ -4120,7 +4132,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B191" s="24" t="s">
         <v>149</v>
@@ -4128,7 +4140,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B192" s="24" t="s">
         <v>150</v>
@@ -4136,7 +4148,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B193" s="24" t="s">
         <v>151</v>
@@ -4144,7 +4156,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B194" s="24" t="s">
         <v>152</v>
@@ -4152,7 +4164,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B195" s="24" t="s">
         <v>153</v>
@@ -4160,7 +4172,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B196" s="24" t="s">
         <v>154</v>
@@ -4168,7 +4180,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B197" s="24" t="s">
         <v>155</v>
@@ -4176,7 +4188,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B198" s="24" t="s">
         <v>156</v>
@@ -4184,7 +4196,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B199" s="24" t="s">
         <v>157</v>
@@ -4192,7 +4204,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B200" s="24" t="s">
         <v>158</v>
@@ -4200,7 +4212,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B201" s="24" t="s">
         <v>159</v>
@@ -4208,7 +4220,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B202" s="24" t="s">
         <v>160</v>
@@ -4216,7 +4228,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B203" s="24" t="s">
         <v>161</v>
@@ -4224,7 +4236,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B204" s="24" t="s">
         <v>162</v>
@@ -4232,7 +4244,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>163</v>
@@ -4240,7 +4252,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B206" s="24" t="s">
         <v>164</v>
@@ -4248,7 +4260,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B207" s="24" t="s">
         <v>165</v>
@@ -4256,7 +4268,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B208" s="24" t="s">
         <v>166</v>
@@ -4264,7 +4276,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B209" s="24" t="s">
         <v>167</v>
@@ -4272,19 +4284,14 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="18">
-        <v>25</v>
-      </c>
-      <c r="B211" s="24" t="s">
-        <v>169</v>
-      </c>
+    <row r="211" spans="2:2">
+      <c r="B211" s="24"/>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="24"/>
@@ -4301,17 +4308,22 @@
     <row r="216" spans="2:2">
       <c r="B216" s="24"/>
     </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="24"/>
-    </row>
-    <row r="218" ht="20" spans="2:2">
-      <c r="B218" s="26" t="s">
+    <row r="217" ht="20" spans="2:2">
+      <c r="B217" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="18">
+        <v>1</v>
+      </c>
+      <c r="B218" s="24" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B219" s="24" t="s">
         <v>171</v>
@@ -4319,7 +4331,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B220" s="24" t="s">
         <v>172</v>
@@ -4327,7 +4339,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B221" s="24" t="s">
         <v>173</v>
@@ -4335,7 +4347,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B222" s="24" t="s">
         <v>174</v>
@@ -4343,7 +4355,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B223" s="24" t="s">
         <v>175</v>
@@ -4351,7 +4363,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B224" s="24" t="s">
         <v>176</v>
@@ -4359,7 +4371,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B225" s="24" t="s">
         <v>177</v>
@@ -4367,7 +4379,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B226" s="24" t="s">
         <v>178</v>
@@ -4375,7 +4387,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B227" s="24" t="s">
         <v>179</v>
@@ -4383,7 +4395,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B228" s="24" t="s">
         <v>180</v>
@@ -4391,7 +4403,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B229" s="24" t="s">
         <v>181</v>
@@ -4399,7 +4411,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B230" s="24" t="s">
         <v>182</v>
@@ -4407,7 +4419,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B231" s="24" t="s">
         <v>183</v>
@@ -4415,7 +4427,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B232" s="24" t="s">
         <v>184</v>
@@ -4423,7 +4435,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B233" s="24" t="s">
         <v>185</v>
@@ -4431,7 +4443,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B234" s="24" t="s">
         <v>186</v>
@@ -4439,19 +4451,14 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B235" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="18">
-        <v>18</v>
-      </c>
-      <c r="B236" s="24" t="s">
-        <v>188</v>
-      </c>
+    <row r="236" spans="2:2">
+      <c r="B236" s="24"/>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="24"/>
@@ -4465,17 +4472,22 @@
     <row r="240" spans="2:2">
       <c r="B240" s="24"/>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="24"/>
-    </row>
-    <row r="243" ht="20" spans="2:2">
-      <c r="B243" s="21" t="s">
+    <row r="242" ht="20" spans="2:2">
+      <c r="B242" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="18">
+        <v>1</v>
+      </c>
+      <c r="B243" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B244" s="24" t="s">
         <v>190</v>
@@ -4483,7 +4495,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B245" s="24" t="s">
         <v>191</v>
@@ -4491,7 +4503,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B246" s="24" t="s">
         <v>192</v>
@@ -4499,7 +4511,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B247" s="24" t="s">
         <v>193</v>
@@ -4507,7 +4519,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B248" s="24" t="s">
         <v>194</v>
@@ -4515,7 +4527,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B249" s="24" t="s">
         <v>195</v>
@@ -4523,7 +4535,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B250" s="24" t="s">
         <v>196</v>
@@ -4531,7 +4543,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B251" s="24" t="s">
         <v>197</v>
@@ -4539,7 +4551,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B252" s="24" t="s">
         <v>198</v>
@@ -4547,7 +4559,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B253" s="24" t="s">
         <v>199</v>
@@ -4555,7 +4567,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B254" s="24" t="s">
         <v>200</v>
@@ -4563,7 +4575,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B255" s="24" t="s">
         <v>201</v>
@@ -4571,18 +4583,10 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B256" s="24" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="18">
-        <v>14</v>
-      </c>
-      <c r="B257" s="24" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4611,29 +4615,29 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1"/>
     <row r="4" ht="24" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="3:3">
       <c r="C5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:3">
@@ -4641,10 +4645,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:3">
@@ -4652,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:3">
@@ -4663,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:3">
@@ -4674,10 +4678,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:3">
@@ -4685,10 +4689,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:3">
@@ -4696,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:3">
@@ -4707,10 +4711,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:3">
@@ -4721,7 +4725,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
@@ -4732,7 +4736,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:3">
@@ -4743,7 +4747,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:3">
@@ -4751,10 +4755,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:3">
@@ -4762,10 +4766,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:3">
@@ -4773,10 +4777,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:3">
@@ -4784,10 +4788,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:3">
@@ -4795,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:3">
@@ -4806,10 +4810,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:3">
@@ -4817,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="1:3">
@@ -4828,10 +4832,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="1:3">
@@ -4839,10 +4843,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="1:3">
@@ -4850,10 +4854,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="1:3">
@@ -4861,10 +4865,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="1:3">
@@ -4872,10 +4876,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="1:3">
@@ -4883,10 +4887,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="1:3">
@@ -4894,10 +4898,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="1:3">
@@ -4908,7 +4912,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="1:3">
@@ -4916,10 +4920,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="1:3">
@@ -4930,7 +4934,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="1:3">
@@ -4941,7 +4945,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="1:3">
@@ -4949,10 +4953,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="1:3">
@@ -4960,10 +4964,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="1:3">
@@ -4971,10 +4975,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" ht="17.25" customHeight="1" spans="1:3">
@@ -4982,10 +4986,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" ht="17.25" customHeight="1" spans="1:3">
@@ -4996,7 +5000,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" ht="17.25" customHeight="1" spans="1:3">
@@ -5007,7 +5011,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" spans="1:3">
@@ -5015,10 +5019,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" spans="1:3">
@@ -5026,133 +5030,133 @@
         <v>3</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" spans="2:3">
       <c r="B42" s="17"/>
       <c r="C42" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" spans="1:3">
       <c r="A43" s="8"/>
       <c r="B43" s="17"/>
       <c r="C43" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" ht="17.25" customHeight="1" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" ht="17.25" customHeight="1" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" ht="17.25" customHeight="1" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" ht="17.25" customHeight="1" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" ht="17.25" customHeight="1"/>
@@ -5163,475 +5167,475 @@
     </row>
     <row r="56" ht="17.25" customHeight="1" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" ht="17.25" customHeight="1" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="17.25" customHeight="1" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" ht="17.25" customHeight="1" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>241</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" ht="17.25" customHeight="1" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>242</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>243</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" ht="17.25" customHeight="1" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" ht="17.25" customHeight="1" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>245</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" ht="17.25" customHeight="1" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" ht="17.25" customHeight="1" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" ht="17.25" customHeight="1" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" ht="17.25" customHeight="1" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>249</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" ht="17.25" customHeight="1" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" ht="17.25" customHeight="1" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" ht="17.25" customHeight="1" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" ht="17.25" customHeight="1" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="17.25" customHeight="1" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="17.25" customHeight="1" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" ht="17.25" customHeight="1" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>251</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" ht="17.25" customHeight="1" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>252</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" ht="17.25" customHeight="1" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>253</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" ht="17.25" customHeight="1" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>254</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" ht="17.25" customHeight="1" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>255</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" ht="17.25" customHeight="1" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>256</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" ht="17.25" customHeight="1" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>257</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" ht="17.25" customHeight="1" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" ht="17.25" customHeight="1" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>259</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" ht="17.25" customHeight="1" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" ht="17.25" customHeight="1" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" ht="17.25" customHeight="1" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>262</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" ht="17.25" customHeight="1" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>263</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" ht="17.25" customHeight="1" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>264</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" ht="17.25" customHeight="1" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" ht="17.25" customHeight="1" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>266</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" ht="17.25" customHeight="1" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" ht="17.25" customHeight="1" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" ht="17.25" customHeight="1" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>268</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" ht="17.25" customHeight="1" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>269</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" ht="17.25" customHeight="1" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" ht="17.25" customHeight="1" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>271</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" ht="17.25" customHeight="1" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>272</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" ht="17.25" customHeight="1" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>273</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" ht="17.25" customHeight="1" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>274</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" ht="17.25" customHeight="1"/>
@@ -5645,10 +5649,10 @@
         <v>275</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" ht="17.25" customHeight="1" spans="1:3">
@@ -5656,10 +5660,10 @@
         <v>275</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" ht="17.25" customHeight="1" spans="1:3">
@@ -5667,10 +5671,10 @@
         <v>275</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" ht="17.25" customHeight="1" spans="1:3">
@@ -5678,10 +5682,10 @@
         <v>275</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" ht="17.25" customHeight="1" spans="1:3">
@@ -5689,10 +5693,10 @@
         <v>275</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" ht="17.25" customHeight="1" spans="1:3">
@@ -5700,10 +5704,10 @@
         <v>275</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1" spans="1:3">
@@ -5711,10 +5715,10 @@
         <v>275</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" ht="17.25" customHeight="1" spans="1:3">
@@ -5722,10 +5726,10 @@
         <v>275</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" ht="17.25" customHeight="1" spans="1:3">
@@ -5733,10 +5737,10 @@
         <v>275</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" ht="17.25" customHeight="1" spans="1:3">
@@ -5744,10 +5748,10 @@
         <v>275</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" ht="17.25" customHeight="1" spans="1:3">
@@ -5755,10 +5759,10 @@
         <v>275</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" ht="17.25" customHeight="1" spans="1:3">
@@ -5766,10 +5770,10 @@
         <v>275</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" ht="17.25" customHeight="1" spans="1:3">
@@ -5777,10 +5781,10 @@
         <v>275</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" ht="17.25" customHeight="1" spans="1:3">
@@ -5788,10 +5792,10 @@
         <v>275</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" ht="17.25" customHeight="1" spans="1:3">
@@ -5799,10 +5803,10 @@
         <v>275</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" ht="17.25" customHeight="1" spans="1:3">
@@ -5810,10 +5814,10 @@
         <v>275</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" ht="17.25" customHeight="1" spans="1:3">
@@ -5821,10 +5825,10 @@
         <v>275</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" ht="17.25" customHeight="1" spans="1:3">
@@ -5832,10 +5836,10 @@
         <v>275</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" ht="17.25" customHeight="1" spans="1:3">
@@ -5843,10 +5847,10 @@
         <v>275</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" ht="17.25" customHeight="1" spans="1:3">
@@ -5854,10 +5858,10 @@
         <v>275</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" ht="17.25" customHeight="1" spans="1:3">
@@ -5865,10 +5869,10 @@
         <v>275</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" ht="17.25" customHeight="1" spans="1:3">
@@ -5876,10 +5880,10 @@
         <v>275</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" ht="17.25" customHeight="1" spans="1:3">
@@ -5887,10 +5891,10 @@
         <v>275</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" ht="17.25" customHeight="1" spans="1:3">
@@ -5898,10 +5902,10 @@
         <v>275</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" ht="17.25" customHeight="1" spans="1:3">
@@ -5909,10 +5913,10 @@
         <v>275</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" ht="17.25" customHeight="1" spans="1:3">
@@ -5923,7 +5927,7 @@
         <v>276</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" ht="17.25" customHeight="1" spans="1:3">
@@ -5934,7 +5938,7 @@
         <v>277</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" ht="17.25" customHeight="1" spans="1:3">
@@ -5945,7 +5949,7 @@
         <v>278</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" ht="17.25" customHeight="1" spans="1:3">
@@ -5956,7 +5960,7 @@
         <v>279</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" ht="17.25" customHeight="1" spans="1:3">
@@ -5967,7 +5971,7 @@
         <v>280</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" ht="17.25" customHeight="1" spans="1:3">
@@ -5978,7 +5982,7 @@
         <v>281</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" ht="17.25" customHeight="1" spans="1:3">
@@ -5989,7 +5993,7 @@
         <v>282</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" ht="17.25" customHeight="1" spans="1:3">
@@ -6000,7 +6004,7 @@
         <v>283</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" ht="17.25" customHeight="1" spans="1:3">
@@ -6011,7 +6015,7 @@
         <v>284</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" ht="17.25" customHeight="1" spans="1:3">
@@ -6022,7 +6026,7 @@
         <v>285</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" ht="17.25" customHeight="1" spans="1:3">
@@ -6033,7 +6037,7 @@
         <v>286</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" ht="17.25" customHeight="1"/>
@@ -6049,7 +6053,7 @@
         <v>288</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" ht="17.25" customHeight="1" spans="1:3">
@@ -6060,7 +6064,7 @@
         <v>289</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="141" ht="17.25" customHeight="1" spans="1:3">
@@ -6071,7 +6075,7 @@
         <v>290</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" ht="17.25" customHeight="1" spans="1:3">
@@ -6082,7 +6086,7 @@
         <v>291</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" ht="17.25" customHeight="1" spans="1:3">
@@ -6093,7 +6097,7 @@
         <v>292</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" ht="17.25" customHeight="1" spans="1:3">
@@ -6104,7 +6108,7 @@
         <v>293</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" ht="17.25" customHeight="1" spans="1:3">
@@ -6115,7 +6119,7 @@
         <v>294</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" ht="17.25" customHeight="1" spans="1:3">
@@ -6126,7 +6130,7 @@
         <v>295</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" ht="17.25" customHeight="1" spans="1:3">
@@ -6137,7 +6141,7 @@
         <v>296</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" ht="17.25" customHeight="1" spans="1:3">
@@ -6148,7 +6152,7 @@
         <v>297</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" ht="17.25" customHeight="1" spans="1:3">
@@ -6159,7 +6163,7 @@
         <v>298</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" ht="17.25" customHeight="1" spans="1:3">
@@ -6170,7 +6174,7 @@
         <v>299</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" ht="17.25" customHeight="1" spans="1:3">
@@ -6178,10 +6182,10 @@
         <v>287</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" ht="17.25" customHeight="1" spans="1:3">
@@ -6189,10 +6193,10 @@
         <v>287</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" ht="17.25" customHeight="1" spans="1:3">
@@ -6203,7 +6207,7 @@
         <v>300</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" ht="17.25" customHeight="1" spans="1:3">
@@ -6214,7 +6218,7 @@
         <v>301</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" ht="17.25" customHeight="1" spans="1:3">
@@ -6225,7 +6229,7 @@
         <v>302</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" ht="17.25" customHeight="1" spans="1:3">
@@ -6236,7 +6240,7 @@
         <v>303</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" ht="17.25" customHeight="1" spans="1:3">
@@ -6247,7 +6251,7 @@
         <v>304</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" ht="17.25" customHeight="1" spans="1:3">
@@ -6258,7 +6262,7 @@
         <v>305</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" ht="17.25" customHeight="1" spans="1:3">
@@ -6269,7 +6273,7 @@
         <v>306</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" ht="17.25" customHeight="1" spans="1:3">
@@ -6280,7 +6284,7 @@
         <v>307</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" ht="17.25" customHeight="1" spans="1:3">
@@ -6288,10 +6292,10 @@
         <v>287</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" ht="17.25" customHeight="1" spans="1:3">
@@ -6302,7 +6306,7 @@
         <v>308</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" ht="17.25" customHeight="1" spans="1:3">
@@ -6310,10 +6314,10 @@
         <v>287</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" ht="17.25" customHeight="1" spans="1:3">
@@ -6324,7 +6328,7 @@
         <v>309</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" ht="17.25" customHeight="1" spans="1:3">
@@ -6335,7 +6339,7 @@
         <v>310</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" ht="17.25" customHeight="1" spans="1:3">
@@ -6346,7 +6350,7 @@
         <v>311</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" ht="17.25" customHeight="1" spans="1:3">
@@ -6357,7 +6361,7 @@
         <v>312</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" ht="17.25" customHeight="1" spans="1:3">
@@ -6368,7 +6372,7 @@
         <v>313</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" ht="17.25" customHeight="1" spans="1:3">
@@ -6379,7 +6383,7 @@
         <v>314</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" ht="17.25" customHeight="1" spans="1:3">
@@ -6390,7 +6394,7 @@
         <v>315</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" ht="17.25" customHeight="1" spans="1:3">
@@ -6401,7 +6405,7 @@
         <v>316</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" ht="17.25" customHeight="1" spans="1:3">
@@ -6412,7 +6416,7 @@
         <v>317</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" ht="17.25" customHeight="1" spans="1:3">
@@ -6423,7 +6427,7 @@
         <v>318</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" ht="17.25" customHeight="1" spans="1:3">
@@ -6434,7 +6438,7 @@
         <v>319</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" ht="17.25" customHeight="1"/>
@@ -6450,7 +6454,7 @@
         <v>321</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" ht="17.25" customHeight="1" spans="1:3">
@@ -6461,7 +6465,7 @@
         <v>322</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" ht="17.25" customHeight="1" spans="1:3">
@@ -6472,7 +6476,7 @@
         <v>323</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" ht="17.25" customHeight="1" spans="1:3">
@@ -6483,7 +6487,7 @@
         <v>324</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" ht="17.25" customHeight="1" spans="1:3">
@@ -6494,7 +6498,7 @@
         <v>325</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" ht="17.25" customHeight="1" spans="1:3">
@@ -6505,7 +6509,7 @@
         <v>326</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" ht="17.25" customHeight="1" spans="1:3">
@@ -6516,7 +6520,7 @@
         <v>327</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" ht="17.25" customHeight="1" spans="1:3">
@@ -6527,7 +6531,7 @@
         <v>328</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" ht="17.25" customHeight="1" spans="1:3">
@@ -6538,7 +6542,7 @@
         <v>329</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" ht="17.25" customHeight="1" spans="1:3">
@@ -6549,7 +6553,7 @@
         <v>330</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" ht="17.25" customHeight="1" spans="1:3">
@@ -6560,7 +6564,7 @@
         <v>331</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" ht="17.25" customHeight="1" spans="1:3">
@@ -6571,7 +6575,7 @@
         <v>332</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" ht="17.25" customHeight="1" spans="1:3">
@@ -6582,7 +6586,7 @@
         <v>333</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" ht="17.25" customHeight="1" spans="1:3">
@@ -6593,7 +6597,7 @@
         <v>334</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" ht="17.25" customHeight="1" spans="1:3">
@@ -6604,7 +6608,7 @@
         <v>335</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" ht="17.25" customHeight="1" spans="1:3">
@@ -6615,7 +6619,7 @@
         <v>336</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" ht="17.25" customHeight="1" spans="1:3">
@@ -6626,7 +6630,7 @@
         <v>337</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" ht="17.25" customHeight="1" spans="1:3">
@@ -6637,7 +6641,7 @@
         <v>338</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" ht="17.25" customHeight="1" spans="1:3">
@@ -6648,7 +6652,7 @@
         <v>339</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" ht="17.25" customHeight="1" spans="1:3">
@@ -6659,7 +6663,7 @@
         <v>340</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" ht="17.25" customHeight="1" spans="1:3">
@@ -6670,7 +6674,7 @@
         <v>341</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" ht="17.25" customHeight="1" spans="1:3">
@@ -6681,7 +6685,7 @@
         <v>342</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" ht="17.25" customHeight="1" spans="1:3">
@@ -6692,7 +6696,7 @@
         <v>343</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" ht="17.25" customHeight="1" spans="1:3">
@@ -6703,7 +6707,7 @@
         <v>344</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" ht="17.25" customHeight="1" spans="1:3">
@@ -6714,7 +6718,7 @@
         <v>345</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" ht="17.25" customHeight="1" spans="1:3">
@@ -6725,7 +6729,7 @@
         <v>346</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" ht="17.25" customHeight="1" spans="1:3">
@@ -6736,7 +6740,7 @@
         <v>347</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" ht="17.25" customHeight="1" spans="1:3">
@@ -6747,7 +6751,7 @@
         <v>348</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" ht="17.25" customHeight="1" spans="1:3">
@@ -6758,7 +6762,7 @@
         <v>349</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" ht="17.25" customHeight="1" spans="1:3">
@@ -6769,7 +6773,7 @@
         <v>350</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" ht="17.25" customHeight="1" spans="1:3">
@@ -6780,7 +6784,7 @@
         <v>351</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" ht="17.25" customHeight="1" spans="1:3">
@@ -6791,7 +6795,7 @@
         <v>352</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" ht="17.25" customHeight="1" spans="1:3">
@@ -6802,7 +6806,7 @@
         <v>353</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" ht="17.25" customHeight="1" spans="1:3">
@@ -6813,7 +6817,7 @@
         <v>354</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" ht="17.25" customHeight="1" spans="1:3">
@@ -6824,7 +6828,7 @@
         <v>355</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" ht="17.25" customHeight="1" spans="1:3">
@@ -6845,7 +6849,7 @@
         <v>357</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215" ht="17.25" customHeight="1" spans="1:3">
@@ -6856,7 +6860,7 @@
         <v>358</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" ht="17.25" customHeight="1" spans="1:3">
@@ -6867,7 +6871,7 @@
         <v>359</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" ht="17.25" customHeight="1" spans="1:3">
@@ -6878,7 +6882,7 @@
         <v>360</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" ht="17.25" customHeight="1" spans="1:3">
@@ -6889,7 +6893,7 @@
         <v>361</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" ht="17.25" customHeight="1" spans="1:3">
@@ -6900,7 +6904,7 @@
         <v>362</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="220" ht="17.25" customHeight="1" spans="1:3">
@@ -6911,7 +6915,7 @@
         <v>363</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="221" ht="17.25" customHeight="1" spans="1:3">
@@ -6922,7 +6926,7 @@
         <v>364</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="222" ht="17.25" customHeight="1" spans="1:3">
@@ -6933,7 +6937,7 @@
         <v>365</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="223" ht="17.25" customHeight="1" spans="1:3">
@@ -6944,7 +6948,7 @@
         <v>366</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" ht="17.25" customHeight="1" spans="1:3">
@@ -6952,10 +6956,10 @@
         <v>356</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="225" ht="17.25" customHeight="1" spans="1:3">
@@ -6966,7 +6970,7 @@
         <v>367</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" ht="17.25" customHeight="1" spans="1:3">
@@ -6977,7 +6981,7 @@
         <v>368</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="227" ht="17.25" customHeight="1" spans="1:3">
@@ -6988,7 +6992,7 @@
         <v>369</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="228" ht="17.25" customHeight="1" spans="1:3">
@@ -6999,7 +7003,7 @@
         <v>370</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="229" ht="17.25" customHeight="1" spans="1:3">
@@ -7010,7 +7014,7 @@
         <v>371</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="230" ht="17.25" customHeight="1" spans="1:3">
@@ -7021,7 +7025,7 @@
         <v>372</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="231" ht="17.25" customHeight="1" spans="1:3">
@@ -7032,7 +7036,7 @@
         <v>373</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="232" ht="17.25" customHeight="1" spans="1:3">
@@ -7043,7 +7047,7 @@
         <v>374</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="233" ht="17.25" customHeight="1" spans="1:3">
@@ -7054,7 +7058,7 @@
         <v>375</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="234" ht="17.25" customHeight="1" spans="1:3">
@@ -7062,10 +7066,10 @@
         <v>356</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="235" ht="17.25" customHeight="1" spans="1:3">
@@ -7076,7 +7080,7 @@
         <v>376</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="236" ht="17.25" customHeight="1" spans="2:3">
@@ -7089,387 +7093,387 @@
     </row>
     <row r="238" ht="17.25" customHeight="1" spans="1:3">
       <c r="A238" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B238" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="C238" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="239" ht="17.25" customHeight="1" spans="1:3">
       <c r="A239" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="240" ht="17.25" customHeight="1" spans="1:3">
       <c r="A240" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="241" ht="17.25" customHeight="1" spans="1:3">
       <c r="A241" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="242" ht="17.25" customHeight="1" spans="1:3">
       <c r="A242" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243" ht="17.25" customHeight="1" spans="1:3">
       <c r="A243" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="244" ht="17.25" customHeight="1" spans="1:3">
       <c r="A244" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="245" ht="17.25" customHeight="1" spans="1:3">
       <c r="A245" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="246" ht="17.25" customHeight="1" spans="1:3">
       <c r="A246" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="247" ht="17.25" customHeight="1" spans="1:3">
       <c r="A247" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="248" ht="17.25" customHeight="1" spans="1:3">
       <c r="A248" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="249" ht="17.25" customHeight="1" spans="1:3">
       <c r="A249" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="250" ht="17.25" customHeight="1" spans="1:3">
       <c r="A250" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="251" ht="17.25" customHeight="1" spans="1:3">
       <c r="A251" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="252" ht="17.25" customHeight="1" spans="1:3">
       <c r="A252" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253" ht="17.25" customHeight="1" spans="1:3">
       <c r="A253" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="254" ht="17.25" customHeight="1" spans="1:3">
       <c r="A254" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="255" ht="17.25" customHeight="1" spans="1:3">
       <c r="A255" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="256" ht="17.25" customHeight="1" spans="1:3">
       <c r="A256" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>377</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="257" ht="17.25" customHeight="1" spans="1:3">
       <c r="A257" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>378</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="258" ht="17.25" customHeight="1" spans="1:3">
       <c r="A258" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>379</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="259" ht="17.25" customHeight="1" spans="1:3">
       <c r="A259" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>380</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="260" ht="17.25" customHeight="1" spans="1:3">
       <c r="A260" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>381</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="261" ht="17.25" customHeight="1" spans="1:3">
       <c r="A261" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" ht="17.25" customHeight="1" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>383</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="263" ht="17.25" customHeight="1" spans="1:3">
       <c r="A263" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>384</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="264" ht="17.25" customHeight="1" spans="1:3">
       <c r="A264" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="265" ht="17.25" customHeight="1" spans="1:3">
       <c r="A265" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="266" ht="17.25" customHeight="1" spans="1:3">
       <c r="A266" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267" ht="17.25" customHeight="1" spans="1:3">
       <c r="A267" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>388</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="268" ht="17.25" customHeight="1" spans="1:3">
       <c r="A268" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="269" ht="17.25" customHeight="1" spans="1:3">
       <c r="A269" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="270" ht="17.25" customHeight="1" spans="1:3">
       <c r="A270" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="271" ht="17.25" customHeight="1" spans="1:3">
       <c r="A271" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>266</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="272" ht="17.25" customHeight="1" spans="1:3">
       <c r="A272" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>392</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="273" ht="17.25" customHeight="1" spans="2:3">
@@ -7482,211 +7486,211 @@
     </row>
     <row r="275" ht="17.25" customHeight="1" spans="1:3">
       <c r="A275" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B275" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B275" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="C275" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="276" ht="17.25" customHeight="1" spans="1:3">
       <c r="A276" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="277" ht="17.25" customHeight="1" spans="1:3">
       <c r="A277" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="278" ht="17.25" customHeight="1" spans="1:3">
       <c r="A278" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279" ht="17.25" customHeight="1" spans="1:3">
       <c r="A279" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="280" ht="17.25" customHeight="1" spans="1:3">
       <c r="A280" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="281" ht="17.25" customHeight="1" spans="1:3">
       <c r="A281" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="282" ht="17.25" customHeight="1" spans="1:3">
       <c r="A282" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="283" ht="17.25" customHeight="1" spans="1:3">
       <c r="A283" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="284" ht="17.25" customHeight="1" spans="1:3">
       <c r="A284" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="285" ht="17.25" customHeight="1" spans="1:3">
       <c r="A285" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="286" ht="17.25" customHeight="1" spans="1:3">
       <c r="A286" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="287" ht="17.25" customHeight="1" spans="1:3">
       <c r="A287" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="288" ht="17.25" customHeight="1" spans="1:3">
       <c r="A288" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="289" ht="17.25" customHeight="1" spans="1:3">
       <c r="A289" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>393</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="290" ht="17.25" customHeight="1" spans="1:3">
       <c r="A290" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B290" s="9" t="s">
         <v>394</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="291" ht="17.25" customHeight="1" spans="1:3">
       <c r="A291" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>395</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="292" ht="17.25" customHeight="1" spans="1:3">
       <c r="A292" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B292" s="9" t="s">
         <v>396</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="293" ht="17.25" customHeight="1" spans="1:3">
       <c r="A293" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B293" s="9" t="s">
         <v>397</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="294" ht="17.25" customHeight="1" spans="2:3">
@@ -7705,7 +7709,7 @@
         <v>399</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="297" ht="17.25" customHeight="1" spans="1:3">
@@ -7716,7 +7720,7 @@
         <v>400</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="298" ht="17.25" customHeight="1" spans="1:3">
@@ -7727,7 +7731,7 @@
         <v>401</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="299" ht="17.25" customHeight="1" spans="1:3">
@@ -7738,7 +7742,7 @@
         <v>402</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="300" ht="17.25" customHeight="1" spans="1:3">
@@ -7749,7 +7753,7 @@
         <v>403</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="301" ht="17.25" customHeight="1" spans="1:3">
@@ -7760,7 +7764,7 @@
         <v>404</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="302" ht="17.25" customHeight="1" spans="1:3">
@@ -7771,7 +7775,7 @@
         <v>405</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="303" ht="17.25" customHeight="1" spans="1:3">
@@ -7782,7 +7786,7 @@
         <v>406</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="304" ht="17.25" customHeight="1" spans="1:3">
@@ -7793,7 +7797,7 @@
         <v>407</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="305" ht="17.25" customHeight="1" spans="1:3">
@@ -7804,7 +7808,7 @@
         <v>408</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="306" ht="17.25" customHeight="1" spans="1:3">
@@ -7815,7 +7819,7 @@
         <v>409</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="307" ht="17.25" customHeight="1" spans="1:3">
@@ -7826,7 +7830,7 @@
         <v>410</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="308" ht="17.25" customHeight="1" spans="1:3">
@@ -7837,7 +7841,7 @@
         <v>411</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="309" ht="17.25" customHeight="1" spans="1:3">
@@ -7848,7 +7852,7 @@
         <v>412</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="310" ht="17.25" customHeight="1" spans="1:3">
@@ -7859,7 +7863,7 @@
         <v>413</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="311" ht="17.25" customHeight="1" spans="1:3">
@@ -7870,7 +7874,7 @@
         <v>414</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="312" ht="17.25" customHeight="1" spans="1:3">
@@ -7881,7 +7885,7 @@
         <v>415</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="313" ht="17.25" customHeight="1" spans="1:3">
@@ -7892,7 +7896,7 @@
         <v>416</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="314" ht="17.25" customHeight="1" spans="1:3">
@@ -7903,7 +7907,7 @@
         <v>417</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="315" ht="17.25" customHeight="1" spans="1:3">
@@ -7914,7 +7918,7 @@
         <v>418</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="316" ht="17.25" customHeight="1" spans="1:3">
@@ -7925,7 +7929,7 @@
         <v>419</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="317" ht="17.25" customHeight="1" spans="1:3">
@@ -7936,7 +7940,7 @@
         <v>420</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="318" ht="17.25" customHeight="1" spans="1:3">
@@ -7947,7 +7951,7 @@
         <v>421</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="319" ht="17.25" customHeight="1" spans="1:3">
@@ -7958,7 +7962,7 @@
         <v>422</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="320" ht="17.25" customHeight="1" spans="1:3">
@@ -7969,7 +7973,7 @@
         <v>423</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="321" ht="17.25" customHeight="1" spans="1:3">
@@ -7980,7 +7984,7 @@
         <v>424</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="322" ht="17.25" customHeight="1" spans="1:3">
@@ -7991,7 +7995,7 @@
         <v>425</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="323" ht="17.25" customHeight="1" spans="1:3">
@@ -8002,7 +8006,7 @@
         <v>426</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="324" ht="17.25" customHeight="1" spans="1:3">
@@ -8013,7 +8017,7 @@
         <v>427</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="325" ht="17.25" customHeight="1" spans="1:3">
@@ -8024,7 +8028,7 @@
         <v>428</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="326" ht="17.25" customHeight="1" spans="1:3">
@@ -8035,7 +8039,7 @@
         <v>429</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="327" ht="17.25" customHeight="1" spans="1:3">
@@ -8046,7 +8050,7 @@
         <v>430</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="328" ht="17.25" customHeight="1" spans="1:3">
@@ -8057,7 +8061,7 @@
         <v>431</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="329" ht="17.25" customHeight="1" spans="1:3">
@@ -8068,7 +8072,7 @@
         <v>432</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="330" ht="17.25" customHeight="1" spans="1:3">
@@ -8079,7 +8083,7 @@
         <v>433</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="331" ht="17.25" customHeight="1" spans="1:3">
@@ -8090,7 +8094,7 @@
         <v>434</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="332" ht="17.25" customHeight="1" spans="1:3">
@@ -8101,7 +8105,7 @@
         <v>435</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="333" ht="17.25" customHeight="1" spans="1:3">
@@ -8112,7 +8116,7 @@
         <v>436</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="334" ht="17.25" customHeight="1" spans="2:3">
@@ -8131,7 +8135,7 @@
         <v>438</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="337" ht="17.25" customHeight="1" spans="1:3">
@@ -8142,7 +8146,7 @@
         <v>439</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="338" ht="17.25" customHeight="1" spans="1:3">
@@ -8153,7 +8157,7 @@
         <v>440</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="339" ht="17.25" customHeight="1" spans="1:3">
@@ -8164,7 +8168,7 @@
         <v>441</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="340" ht="17.25" customHeight="1" spans="1:3">
@@ -8175,7 +8179,7 @@
         <v>442</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="341" ht="17.25" customHeight="1" spans="1:3">
@@ -8186,7 +8190,7 @@
         <v>443</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="342" ht="17.25" customHeight="1" spans="1:3">
@@ -8197,7 +8201,7 @@
         <v>444</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="343" ht="17.25" customHeight="1" spans="1:3">
@@ -8208,7 +8212,7 @@
         <v>445</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="344" ht="17.25" customHeight="1" spans="1:3">
@@ -8219,7 +8223,7 @@
         <v>446</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="345" ht="17.25" customHeight="1" spans="1:3">
@@ -8227,10 +8231,10 @@
         <v>437</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="346" ht="17.25" customHeight="1" spans="1:3">
@@ -8241,7 +8245,7 @@
         <v>447</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="347" ht="17.25" customHeight="1" spans="1:3">
@@ -8252,7 +8256,7 @@
         <v>448</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="348" ht="17.25" customHeight="1" spans="1:3">
@@ -8263,7 +8267,7 @@
         <v>449</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="349" ht="17.25" customHeight="1" spans="1:3">
@@ -8274,7 +8278,7 @@
         <v>450</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="350" ht="17.25" customHeight="1" spans="1:3">
@@ -8285,7 +8289,7 @@
         <v>451</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="351" ht="17.25" customHeight="1" spans="1:3">
@@ -8296,7 +8300,7 @@
         <v>452</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="352" ht="17.25" customHeight="1" spans="1:3">
@@ -8307,7 +8311,7 @@
         <v>453</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="353" ht="17.25" customHeight="1" spans="1:3">
@@ -8318,7 +8322,7 @@
         <v>454</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="354" ht="17.25" customHeight="1" spans="2:3">
@@ -8331,486 +8335,486 @@
     </row>
     <row r="356" ht="17.25" customHeight="1" spans="1:3">
       <c r="A356" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>455</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="357" ht="17.25" customHeight="1" spans="1:3">
       <c r="A357" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B357" s="9" t="s">
         <v>456</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="358" ht="17.25" customHeight="1" spans="1:3">
       <c r="A358" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B358" s="9" t="s">
         <v>457</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="359" ht="17.25" customHeight="1" spans="1:3">
       <c r="A359" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>458</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="360" ht="17.25" customHeight="1" spans="1:3">
       <c r="A360" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B360" s="9" t="s">
         <v>459</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="361" ht="17.25" customHeight="1" spans="1:3">
       <c r="A361" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B361" s="9" t="s">
         <v>460</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="362" ht="17.25" customHeight="1" spans="1:3">
       <c r="A362" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B362" s="9" t="s">
         <v>461</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="363" ht="17.25" customHeight="1" spans="1:3">
       <c r="A363" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B363" s="9" t="s">
         <v>462</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="364" ht="17.25" customHeight="1" spans="1:3">
       <c r="A364" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B364" s="9" t="s">
         <v>463</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="365" ht="17.25" customHeight="1" spans="1:3">
       <c r="A365" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B365" s="9" t="s">
         <v>464</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="366" ht="17.25" customHeight="1" spans="1:3">
       <c r="A366" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B366" s="9" t="s">
         <v>465</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="367" ht="17.25" customHeight="1" spans="1:3">
       <c r="A367" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B367" s="9" t="s">
         <v>466</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="368" ht="17.25" customHeight="1" spans="1:3">
       <c r="A368" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B368" s="9" t="s">
         <v>467</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="369" ht="17.25" customHeight="1" spans="1:3">
       <c r="A369" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B369" s="9" t="s">
         <v>468</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="370" ht="17.25" customHeight="1" spans="1:3">
       <c r="A370" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B370" s="9" t="s">
         <v>469</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="371" ht="17.25" customHeight="1" spans="1:3">
       <c r="A371" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B371" s="9" t="s">
         <v>470</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="372" ht="17.25" customHeight="1" spans="1:3">
       <c r="A372" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B372" s="9" t="s">
         <v>471</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="373" ht="17.25" customHeight="1" spans="1:3">
       <c r="A373" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B373" s="9" t="s">
         <v>472</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="374" ht="17.25" customHeight="1" spans="1:3">
       <c r="A374" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B374" s="9" t="s">
         <v>473</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="375" ht="17.25" customHeight="1" spans="1:3">
       <c r="A375" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B375" s="9" t="s">
         <v>474</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="376" ht="17.25" customHeight="1" spans="1:3">
       <c r="A376" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B376" s="9" t="s">
         <v>475</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="377" ht="17.25" customHeight="1" spans="1:3">
       <c r="A377" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>476</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="378" ht="17.25" customHeight="1" spans="1:3">
       <c r="A378" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>477</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="379" ht="17.25" customHeight="1" spans="1:3">
       <c r="A379" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B379" s="9" t="s">
         <v>478</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="380" ht="17.25" customHeight="1" spans="1:3">
       <c r="A380" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B380" s="9" t="s">
         <v>479</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="381" ht="17.25" customHeight="1" spans="1:3">
       <c r="A381" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B381" s="9" t="s">
         <v>480</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="382" ht="17.25" customHeight="1" spans="1:3">
       <c r="A382" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B382" s="9" t="s">
         <v>481</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="383" ht="17.25" customHeight="1" spans="1:3">
       <c r="A383" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B383" s="9" t="s">
         <v>482</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="384" ht="17.25" customHeight="1" spans="1:3">
       <c r="A384" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B384" s="9" t="s">
         <v>483</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="385" ht="17.25" customHeight="1" spans="1:3">
       <c r="A385" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B385" s="9" t="s">
         <v>484</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="386" ht="17.25" customHeight="1" spans="1:3">
       <c r="A386" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B386" s="9" t="s">
         <v>485</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="387" ht="17.25" customHeight="1" spans="1:3">
       <c r="A387" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B387" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="388" ht="17.25" customHeight="1" spans="1:3">
       <c r="A388" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>487</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="389" ht="17.25" customHeight="1" spans="1:3">
       <c r="A389" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B389" s="9" t="s">
         <v>488</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="390" ht="17.25" customHeight="1" spans="1:3">
       <c r="A390" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B390" s="9" t="s">
         <v>488</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="391" ht="17.25" customHeight="1" spans="1:3">
       <c r="A391" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B391" s="9" t="s">
         <v>489</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="392" ht="17.25" customHeight="1" spans="1:3">
       <c r="A392" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B392" s="9" t="s">
         <v>490</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="393" ht="17.25" customHeight="1" spans="1:3">
       <c r="A393" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B393" s="9" t="s">
         <v>491</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="394" ht="17.25" customHeight="1" spans="1:3">
       <c r="A394" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B394" s="9" t="s">
         <v>492</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="395" ht="17.25" customHeight="1" spans="1:3">
       <c r="A395" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B395" s="9" t="s">
         <v>493</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="396" ht="17.25" customHeight="1" spans="1:3">
       <c r="A396" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B396" s="9" t="s">
         <v>494</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="397" ht="17.25" customHeight="1" spans="1:3">
       <c r="A397" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B397" s="9" t="s">
         <v>495</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="398" ht="17.25" customHeight="1" spans="1:3">
       <c r="A398" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B398" s="9" t="s">
         <v>496</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="399" ht="17.25" customHeight="1" spans="1:3">
       <c r="A399" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B399" s="9" t="s">
         <v>497</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="400" ht="17.25" customHeight="1" spans="2:3">
@@ -8823,68 +8827,68 @@
     </row>
     <row r="402" ht="17.25" customHeight="1" spans="1:3">
       <c r="A402" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B402" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B402" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="C402" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="403" ht="17.25" customHeight="1" spans="1:3">
       <c r="A403" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="404" ht="17.25" customHeight="1" spans="1:3">
       <c r="A404" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="405" ht="17.25" customHeight="1" spans="1:3">
       <c r="A405" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="406" ht="17.25" customHeight="1" spans="1:3">
       <c r="A406" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="407" ht="17.25" customHeight="1" spans="1:3">
       <c r="A407" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="408" ht="17.25" customHeight="1" spans="2:3">
@@ -8897,662 +8901,662 @@
     </row>
     <row r="410" ht="17.25" customHeight="1" spans="1:3">
       <c r="A410" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B410" s="9" t="s">
         <v>498</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="411" ht="17.25" customHeight="1" spans="1:3">
       <c r="A411" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B411" s="9" t="s">
         <v>499</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="412" ht="17.25" customHeight="1" spans="1:3">
       <c r="A412" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B412" s="9" t="s">
         <v>500</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="413" ht="17.25" customHeight="1" spans="1:3">
       <c r="A413" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B413" s="9" t="s">
         <v>501</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="414" ht="17.25" customHeight="1" spans="1:3">
       <c r="A414" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B414" s="9" t="s">
         <v>502</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="415" ht="17.25" customHeight="1" spans="1:3">
       <c r="A415" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B415" s="9" t="s">
         <v>503</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="416" ht="17.25" customHeight="1" spans="1:3">
       <c r="A416" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B416" s="9" t="s">
         <v>504</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="417" ht="17.25" customHeight="1" spans="1:3">
       <c r="A417" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="418" ht="17.25" customHeight="1" spans="1:3">
       <c r="A418" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B418" s="9" t="s">
         <v>505</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="419" ht="17.25" customHeight="1" spans="1:3">
       <c r="A419" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B419" s="9" t="s">
         <v>506</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="420" ht="17.25" customHeight="1" spans="1:3">
       <c r="A420" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B420" s="9" t="s">
         <v>507</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="421" ht="17.25" customHeight="1" spans="1:3">
       <c r="A421" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B421" s="9" t="s">
         <v>508</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="422" ht="17.25" customHeight="1" spans="1:3">
       <c r="A422" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B422" s="9" t="s">
         <v>509</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="423" ht="17.25" customHeight="1" spans="1:3">
       <c r="A423" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="424" ht="17.25" customHeight="1" spans="1:3">
       <c r="A424" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B424" s="9" t="s">
         <v>510</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="425" ht="17.25" customHeight="1" spans="1:3">
       <c r="A425" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B425" s="9" t="s">
         <v>511</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="426" ht="17.25" customHeight="1" spans="1:3">
       <c r="A426" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B426" s="9" t="s">
         <v>512</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="427" ht="17.25" customHeight="1" spans="1:3">
       <c r="A427" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B427" s="9" t="s">
         <v>513</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="428" ht="17.25" customHeight="1" spans="1:3">
       <c r="A428" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B428" s="9" t="s">
         <v>514</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="429" ht="17.25" customHeight="1" spans="1:3">
       <c r="A429" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B429" s="9" t="s">
         <v>515</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="430" ht="17.25" customHeight="1" spans="1:3">
       <c r="A430" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B430" s="9" t="s">
         <v>516</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="431" ht="17.25" customHeight="1" spans="1:3">
       <c r="A431" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B431" s="9" t="s">
         <v>517</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="432" ht="17.25" customHeight="1" spans="1:3">
       <c r="A432" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B432" s="9" t="s">
         <v>518</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="433" ht="17.25" customHeight="1" spans="1:3">
       <c r="A433" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B433" s="9" t="s">
         <v>519</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="434" ht="17.25" customHeight="1" spans="1:3">
       <c r="A434" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B434" s="9" t="s">
         <v>520</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="435" ht="17.25" customHeight="1" spans="1:3">
       <c r="A435" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B435" s="9" t="s">
         <v>521</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="436" ht="17.25" customHeight="1" spans="1:3">
       <c r="A436" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B436" s="9" t="s">
         <v>522</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="437" ht="17.25" customHeight="1" spans="1:3">
       <c r="A437" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B437" s="9" t="s">
         <v>523</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="438" ht="17.25" customHeight="1" spans="1:3">
       <c r="A438" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B438" s="9" t="s">
         <v>524</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="439" ht="17.25" customHeight="1" spans="1:3">
       <c r="A439" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B439" s="9" t="s">
         <v>525</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="440" ht="17.25" customHeight="1" spans="1:3">
       <c r="A440" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B440" s="9" t="s">
         <v>526</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="441" ht="17.25" customHeight="1" spans="1:3">
       <c r="A441" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B441" s="9" t="s">
         <v>527</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="442" ht="17.25" customHeight="1" spans="1:3">
       <c r="A442" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B442" s="9" t="s">
         <v>528</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="443" ht="17.25" customHeight="1" spans="1:3">
       <c r="A443" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B443" s="9" t="s">
         <v>529</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="444" ht="17.25" customHeight="1" spans="1:3">
       <c r="A444" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="445" ht="17.25" customHeight="1" spans="1:3">
       <c r="A445" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B445" s="9" t="s">
         <v>530</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="446" ht="17.25" customHeight="1" spans="1:3">
       <c r="A446" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B446" s="9" t="s">
         <v>531</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="447" ht="17.25" customHeight="1" spans="1:3">
       <c r="A447" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="448" ht="17.25" customHeight="1" spans="1:3">
       <c r="A448" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B448" s="9" t="s">
         <v>532</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="449" ht="17.25" customHeight="1" spans="1:3">
       <c r="A449" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B449" s="9" t="s">
         <v>533</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="450" ht="17.25" customHeight="1" spans="1:3">
       <c r="A450" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B450" s="9" t="s">
         <v>534</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="451" ht="17.25" customHeight="1" spans="1:3">
       <c r="A451" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B451" s="9" t="s">
         <v>535</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="452" ht="17.25" customHeight="1" spans="1:3">
       <c r="A452" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B452" s="9" t="s">
         <v>536</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="453" ht="17.25" customHeight="1" spans="1:3">
       <c r="A453" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B453" s="9" t="s">
         <v>537</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="454" ht="17.25" customHeight="1" spans="1:3">
       <c r="A454" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B454" s="9" t="s">
         <v>538</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="455" ht="17.25" customHeight="1" spans="1:3">
       <c r="A455" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B455" s="9" t="s">
         <v>539</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="456" ht="17.25" customHeight="1" spans="1:3">
       <c r="A456" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="457" ht="17.25" customHeight="1" spans="1:3">
       <c r="A457" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="458" ht="17.25" customHeight="1" spans="1:3">
       <c r="A458" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B458" s="9" t="s">
         <v>540</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="459" ht="17.25" customHeight="1" spans="1:3">
       <c r="A459" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B459" s="9" t="s">
         <v>541</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="460" ht="17.25" customHeight="1" spans="1:3">
       <c r="A460" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>542</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="461" ht="17.25" customHeight="1" spans="1:3">
       <c r="A461" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B461" s="9" t="s">
         <v>543</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="462" ht="17.25" customHeight="1" spans="1:3">
       <c r="A462" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>544</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="463" ht="17.25" customHeight="1" spans="1:3">
       <c r="A463" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B463" s="9" t="s">
         <v>545</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="464" ht="17.25" customHeight="1" spans="1:3">
       <c r="A464" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B464" s="9" t="s">
         <v>546</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="465" ht="17.25" customHeight="1" spans="1:3">
       <c r="A465" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B465" s="9" t="s">
         <v>547</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="466" ht="17.25" customHeight="1" spans="1:3">
       <c r="A466" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B466" s="9" t="s">
         <v>548</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="467" ht="17.25" customHeight="1" spans="1:3">
       <c r="A467" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B467" s="9" t="s">
         <v>549</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="468" ht="17.25" customHeight="1" spans="1:3">
       <c r="A468" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B468" s="9" t="s">
         <v>550</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="469" ht="17.25" customHeight="1" spans="1:3">
       <c r="A469" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B469" s="9" t="s">
         <v>551</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="470" ht="17.25" customHeight="1" spans="2:3">
@@ -9566,112 +9570,112 @@
     </row>
     <row r="472" ht="17.25" customHeight="1" spans="1:3">
       <c r="A472" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B472" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B472" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="C472" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="473" ht="17.25" customHeight="1" spans="1:3">
       <c r="A473" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="474" ht="17.25" customHeight="1" spans="1:3">
       <c r="A474" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="475" ht="17.25" customHeight="1" spans="1:3">
       <c r="A475" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="476" ht="17.25" customHeight="1" spans="1:3">
       <c r="A476" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="477" ht="17.25" customHeight="1" spans="1:3">
       <c r="A477" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="478" ht="17.25" customHeight="1" spans="1:3">
       <c r="A478" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="479" ht="17.25" customHeight="1" spans="1:3">
       <c r="A479" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="480" ht="17.25" customHeight="1" spans="1:3">
       <c r="A480" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="481" ht="17.25" customHeight="1" spans="1:3">
       <c r="A481" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="552">
   <si>
     <t>S.No</t>
   </si>
@@ -1678,9 +1678,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
@@ -1794,16 +1794,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1824,6 +1840,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1833,61 +1872,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1908,6 +1894,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1915,24 +1931,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1959,37 +1959,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,7 +2007,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,85 +2061,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2121,19 +2091,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,17 +2168,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2187,7 +2181,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2207,26 +2216,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2246,170 +2251,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2831,8 +2831,8 @@
   <sheetPr/>
   <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="2"/>
@@ -3181,20 +3181,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" s="18">
         <v>11</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="18">
         <v>12</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>38</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Top Important Questions(100)" sheetId="3" r:id="rId1"/>
@@ -1967,9 +1967,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="37">
@@ -2106,25 +2106,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2136,29 +2122,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2172,11 +2151,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2203,14 +2197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2228,15 +2214,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,7 +2293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,7 +2311,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,139 +2443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,30 +2487,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2588,145 +2564,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2736,7 +2736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2807,7 +2807,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -3178,933 +3177,933 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.5625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="33.734375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="67.296875" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="87.234375" style="28"/>
+    <col min="1" max="1" width="13.5625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33.734375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="67.296875" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="87.234375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:4">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="26" spans="1:4">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="26" spans="1:4">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="26" spans="1:4">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="26" spans="1:4">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="26" spans="1:4">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="26" spans="1:4">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="26" spans="1:4">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="26" spans="1:4">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" ht="26" spans="1:4">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="26" spans="1:3">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" ht="26" spans="1:3">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:3">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:3">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" ht="26" spans="1:3">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:3">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:3">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:3">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:3">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" ht="26" spans="1:3">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" ht="26" spans="1:3">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" ht="26" spans="1:3">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" ht="26" spans="1:3">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" ht="26" spans="1:3">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" ht="26" spans="1:3">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" ht="26" spans="1:3">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" ht="26" spans="1:3">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" ht="26" spans="1:3">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" ht="26" spans="1:3">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" ht="26" spans="1:3">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" ht="26" spans="1:3">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" ht="26" spans="1:3">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" ht="26" spans="1:3">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" ht="52" spans="1:3">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" ht="26" spans="1:3">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" ht="26" spans="1:3">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" ht="26" spans="1:3">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" ht="26" spans="1:3">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" ht="26" spans="1:3">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" ht="26" spans="1:3">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" ht="26" spans="1:3">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" ht="26" spans="1:3">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" ht="26" spans="1:3">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" ht="26" spans="1:3">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" ht="26" spans="1:3">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>45</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" ht="26" spans="1:3">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>46</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" ht="26" spans="1:3">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>47</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" ht="26" spans="1:3">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <v>48</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" ht="26" spans="1:3">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <v>49</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" ht="26" spans="1:4">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <v>50</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" ht="26" spans="1:4">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" ht="26" spans="1:4">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <v>52</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" ht="26" spans="1:4">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>53</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" ht="26" spans="1:4">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <v>54</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" ht="26" spans="1:4">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" ht="26" spans="1:4">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <v>56</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" ht="26" spans="1:4">
-      <c r="A58" s="32">
+      <c r="A58" s="31">
         <v>57</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" ht="26" spans="1:4">
-      <c r="A59" s="32">
+      <c r="A59" s="31">
         <v>58</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" ht="26" spans="1:4">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <v>59</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" ht="26" spans="1:3">
-      <c r="A61" s="32">
+      <c r="A61" s="31">
         <v>60</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" ht="26" spans="1:3">
-      <c r="A62" s="32">
+      <c r="A62" s="31">
         <v>61</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63" ht="26" spans="1:3">
-      <c r="A63" s="32">
+      <c r="A63" s="31">
         <v>62</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" ht="26" spans="1:3">
-      <c r="A64" s="32">
+      <c r="A64" s="31">
         <v>63</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" ht="26" spans="1:3">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <v>64</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" ht="26" spans="1:3">
-      <c r="A66" s="32">
+      <c r="A66" s="31">
         <v>65</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="67" ht="26" spans="1:3">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <v>66</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" ht="52" spans="1:3">
-      <c r="A68" s="32">
+      <c r="A68" s="31">
         <v>67</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" ht="26" spans="1:3">
-      <c r="A69" s="32">
+      <c r="A69" s="31">
         <v>68</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" ht="26" spans="1:3">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <v>69</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="71" ht="26" spans="1:3">
-      <c r="A71" s="32">
+      <c r="A71" s="31">
         <v>70</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="33" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" ht="26" spans="1:3">
-      <c r="A72" s="32">
+      <c r="A72" s="31">
         <v>71</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73" ht="26" spans="1:3">
-      <c r="A73" s="32">
+      <c r="A73" s="31">
         <v>72</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" ht="26" spans="1:3">
-      <c r="A74" s="32">
+      <c r="A74" s="31">
         <v>73</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" ht="26" spans="1:3">
-      <c r="A75" s="32">
+      <c r="A75" s="31">
         <v>74</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="76" ht="26" spans="1:3">
-      <c r="A76" s="32">
+      <c r="A76" s="31">
         <v>75</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="34" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" ht="26" spans="1:3">
-      <c r="A77" s="32">
+      <c r="A77" s="31">
         <v>76</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16860"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Top Important Questions(100)" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="648">
   <si>
     <t>S.No</t>
   </si>
@@ -1967,10 +1967,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2106,28 +2106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2151,8 +2129,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2166,9 +2174,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2182,16 +2212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2205,38 +2235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,19 +2293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,13 +2329,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,31 +2389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,7 +2407,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2389,67 +2443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,24 +2491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2524,6 +2506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2535,6 +2537,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2556,177 +2582,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3177,8 +3177,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="3"/>
@@ -3343,7 +3343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="26" spans="1:3">
+    <row r="12" ht="26" spans="1:4">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -3353,8 +3353,11 @@
       <c r="C12" s="33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" ht="26" spans="1:3">
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="26" spans="1:4">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -3364,8 +3367,11 @@
       <c r="C13" s="33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" ht="26" spans="1:3">
+      <c r="D13" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="26" spans="1:4">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -3375,8 +3381,11 @@
       <c r="C14" s="34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" ht="26" spans="1:3">
+      <c r="D14" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="26" spans="1:4">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -3386,8 +3395,11 @@
       <c r="C15" s="33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" ht="26" spans="1:3">
+      <c r="D15" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="26" spans="1:4">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -3397,8 +3409,11 @@
       <c r="C16" s="33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" ht="26" spans="1:3">
+      <c r="D16" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="26" spans="1:4">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -3408,8 +3423,11 @@
       <c r="C17" s="33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" ht="26" spans="1:3">
+      <c r="D17" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="26" spans="1:4">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -3419,8 +3437,11 @@
       <c r="C18" s="34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" ht="26" spans="1:3">
+      <c r="D18" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="26" spans="1:4">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -3430,8 +3451,11 @@
       <c r="C19" s="34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" ht="26" spans="1:3">
+      <c r="D19" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" ht="26" spans="1:4">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -3441,8 +3465,11 @@
       <c r="C20" s="34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" ht="26" spans="1:3">
+      <c r="D20" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" ht="26" spans="1:4">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -3452,8 +3479,11 @@
       <c r="C21" s="34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" ht="26" spans="1:3">
+      <c r="D21" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" ht="26" spans="1:4">
       <c r="A22" s="31">
         <v>21</v>
       </c>
@@ -3463,8 +3493,11 @@
       <c r="C22" s="34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" ht="26" spans="1:3">
+      <c r="D22" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" ht="26" spans="1:4">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -3474,8 +3507,11 @@
       <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" ht="26" spans="1:3">
+      <c r="D23" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" ht="26" spans="1:4">
       <c r="A24" s="31">
         <v>23</v>
       </c>
@@ -3485,8 +3521,11 @@
       <c r="C24" s="34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" ht="26" spans="1:3">
+      <c r="D24" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" ht="26" spans="1:4">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -3496,8 +3535,11 @@
       <c r="C25" s="34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" ht="26" spans="1:3">
+      <c r="D25" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="26" spans="1:4">
       <c r="A26" s="31">
         <v>25</v>
       </c>
@@ -3507,8 +3549,11 @@
       <c r="C26" s="34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" ht="26" spans="1:3">
+      <c r="D26" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" ht="26" spans="1:4">
       <c r="A27" s="31">
         <v>26</v>
       </c>
@@ -3517,6 +3562,9 @@
       </c>
       <c r="C27" s="34" t="s">
         <v>33</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" ht="26" spans="1:3">

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Top Important Questions(100)" sheetId="3" r:id="rId1"/>
@@ -1968,9 +1968,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2098,24 +2098,24 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2129,18 +2129,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2158,7 +2151,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2174,6 +2220,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2184,59 +2237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,13 +2293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,13 +2335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,19 +2371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,61 +2407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,25 +2437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,6 +2491,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2515,17 +2539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2537,30 +2550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2588,121 +2577,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2711,28 +2711,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3177,8 +3177,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="3"/>

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="648">
   <si>
     <t>S.No</t>
   </si>
@@ -1967,10 +1967,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2098,9 +2098,16 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2113,11 +2120,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2129,25 +2167,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2166,40 +2213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2212,31 +2227,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2299,7 +2299,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,49 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,6 +2371,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2389,7 +2395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,55 +2449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,6 +2510,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -2530,11 +2539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2554,17 +2569,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2577,162 +2588,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3177,8 +3177,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="3"/>
@@ -3710,7 +3710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" ht="26" spans="1:3">
+    <row r="41" ht="26" spans="1:4">
       <c r="A41" s="31">
         <v>40</v>
       </c>
@@ -3720,8 +3720,11 @@
       <c r="C41" s="33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" ht="26" spans="1:3">
+      <c r="D41" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" ht="26" spans="1:4">
       <c r="A42" s="31">
         <v>41</v>
       </c>
@@ -3731,8 +3734,11 @@
       <c r="C42" s="33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" ht="26" spans="1:3">
+      <c r="D42" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" ht="26" spans="1:4">
       <c r="A43" s="31">
         <v>42</v>
       </c>
@@ -3742,8 +3748,11 @@
       <c r="C43" s="33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" ht="26" spans="1:3">
+      <c r="D43" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" ht="26" spans="1:4">
       <c r="A44" s="31">
         <v>43</v>
       </c>
@@ -3753,8 +3762,11 @@
       <c r="C44" s="35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" ht="26" spans="1:3">
+      <c r="D44" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" ht="26" spans="1:4">
       <c r="A45" s="31">
         <v>44</v>
       </c>
@@ -3764,8 +3776,11 @@
       <c r="C45" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" ht="26" spans="1:3">
+      <c r="D45" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" ht="26" spans="1:4">
       <c r="A46" s="31">
         <v>45</v>
       </c>
@@ -3774,6 +3789,9 @@
       </c>
       <c r="C46" s="34" t="s">
         <v>55</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" ht="26" spans="1:3">

--- a/DSA/Problems/DSA Questions.xlsx
+++ b/DSA/Problems/DSA Questions.xlsx
@@ -1968,11 +1968,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2098,16 +2098,17 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFA0A1A7"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2129,7 +2130,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2144,8 +2145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2159,16 +2161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2190,24 +2184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2220,6 +2198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2227,16 +2213,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2299,30 +2307,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2335,7 +2319,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2347,13 +2391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2365,13 +2409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,13 +2445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,55 +2457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2515,15 +2523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2540,6 +2539,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2550,21 +2564,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2588,136 +2587,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2732,11 +2740,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2827,6 +2835,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -3177,8 +3188,8 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="3"/>
@@ -3794,7 +3805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" ht="26" spans="1:3">
+    <row r="47" ht="26" spans="1:4">
       <c r="A47" s="31">
         <v>46</v>
       </c>
@@ -3804,6 +3815,7 @@
       <c r="C47" s="34" t="s">
         <v>57</v>
       </c>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" ht="26" spans="1:3">
       <c r="A48" s="31">
@@ -4166,10 +4178,10 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
